--- a/docs/StructureDefinition-VA.MHV.bloodOxygenSat.xlsx
+++ b/docs/StructureDefinition-VA.MHV.bloodOxygenSat.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$74</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$84</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2763" uniqueCount="525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3132" uniqueCount="573">
   <si>
     <t>Path</t>
   </si>
@@ -156,17 +156,17 @@
     <t/>
   </si>
   <si>
-    <t>Measurements and simple assertions</t>
-  </si>
-  <si>
-    <t>Measurements and simple assertions made about a patient, device or other subject.</t>
+    <t>FHIR Vital Signs Profile</t>
+  </si>
+  <si>
+    <t>The FHIR Vitals Signs profile sets minimum expectations for the Observation Resource to record, search and fetch the vital signs associated with a patient.</t>
   </si>
   <si>
     <t>Used for simple observations such as device measurements, laboratory atomic results, vital signs, height, weight, smoking status, comments, etc.  Other resources are used to provide context for observations such as laboratory reports, etc.</t>
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}vs-2:If there is no component or hasMember element then either a value[x] or a data absent reason must be present. {(component.empty() and hasMember.empty()) implies (dataAbsentReason.exists() or value.exists())}</t>
   </si>
   <si>
     <t>Event</t>
@@ -600,7 +600,7 @@
     <t>A larger event of which this particular Observation is a component or step.  For example,  an observation as part of a procedure.</t>
   </si>
   <si>
-    <t>To link an Observation to an Encounter use `encounter`.  See the  [Notes](http://hl7.org/fhir/R4/observation.html#obsgrouping) below for guidance on referencing another Observation.</t>
+    <t>To link an Observation to an Encounter use `encounter`.  See the  [Notes](http://hl7.org/fhir/observation.html#obsgrouping) below for guidance on referencing another Observation.</t>
   </si>
   <si>
     <t>Event.partOf</t>
@@ -631,9 +631,6 @@
   </si>
   <si>
     <t>required</t>
-  </si>
-  <si>
-    <t>Codes providing the status of an observation.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/observation-status|4.0.1</t>
@@ -687,10 +684,198 @@
     <t>http://hl7.org/fhir/ValueSet/observation-category</t>
   </si>
   <si>
+    <t>value:coding.code}
+value:coding.system}</t>
+  </si>
+  <si>
     <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
   </si>
   <si>
     <t>FiveWs.class</t>
+  </si>
+  <si>
+    <t>VSCat</t>
+  </si>
+  <si>
+    <t>Observation.category.id</t>
+  </si>
+  <si>
+    <t>Observation.category.extension</t>
+  </si>
+  <si>
+    <t>Observation.category.coding</t>
+  </si>
+  <si>
+    <t>Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>C*E.1-8, C*E.10-22</t>
+  </si>
+  <si>
+    <t>union(., ./translation)</t>
+  </si>
+  <si>
+    <t>Observation.category.coding.id</t>
+  </si>
+  <si>
+    <t>Observation.category.coding.extension</t>
+  </si>
+  <si>
+    <t>Observation.category.coding.system</t>
+  </si>
+  <si>
+    <t>Identity of the terminology system</t>
+  </si>
+  <si>
+    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
+  </si>
+  <si>
+    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
+  </si>
+  <si>
+    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
+  </si>
+  <si>
+    <t>http://terminology.hl7.org/CodeSystem/observation-category</t>
+  </si>
+  <si>
+    <t>Coding.system</t>
+  </si>
+  <si>
+    <t>C*E.3</t>
+  </si>
+  <si>
+    <t>./codeSystem</t>
+  </si>
+  <si>
+    <t>Observation.category.coding.version</t>
+  </si>
+  <si>
+    <t>Version of the system - if relevant</t>
+  </si>
+  <si>
+    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
+  </si>
+  <si>
+    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
+  </si>
+  <si>
+    <t>Coding.version</t>
+  </si>
+  <si>
+    <t>C*E.7</t>
+  </si>
+  <si>
+    <t>./codeSystemVersion</t>
+  </si>
+  <si>
+    <t>Observation.category.coding.code</t>
+  </si>
+  <si>
+    <t>Symbol in syntax defined by the system</t>
+  </si>
+  <si>
+    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
+  </si>
+  <si>
+    <t>Need to refer to a particular code in the system.</t>
+  </si>
+  <si>
+    <t>vital-signs</t>
+  </si>
+  <si>
+    <t>Coding.code</t>
+  </si>
+  <si>
+    <t>C*E.1</t>
+  </si>
+  <si>
+    <t>./code</t>
+  </si>
+  <si>
+    <t>Observation.category.coding.display</t>
+  </si>
+  <si>
+    <t>Representation defined by the system</t>
+  </si>
+  <si>
+    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
+  </si>
+  <si>
+    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
+  </si>
+  <si>
+    <t>Coding.display</t>
+  </si>
+  <si>
+    <t>C*E.2 - but note this is not well followed</t>
+  </si>
+  <si>
+    <t>CV.displayName</t>
+  </si>
+  <si>
+    <t>Observation.category.coding.userSelected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean
+</t>
+  </si>
+  <si>
+    <t>If this coding was chosen directly by the user</t>
+  </si>
+  <si>
+    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
+  </si>
+  <si>
+    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
+  </si>
+  <si>
+    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
+  </si>
+  <si>
+    <t>Coding.userSelected</t>
+  </si>
+  <si>
+    <t>Sometimes implied by being first</t>
+  </si>
+  <si>
+    <t>CD.codingRationale</t>
+  </si>
+  <si>
+    <t>Observation.category.text</t>
+  </si>
+  <si>
+    <t>Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.text</t>
+  </si>
+  <si>
+    <t>C*E.9. But note many systems use C*E.2 for this</t>
+  </si>
+  <si>
+    <t>./originalText[mediaType/code="text/plain"]/data</t>
   </si>
   <si>
     <t>Observation.code</t>
@@ -700,22 +885,22 @@
 </t>
   </si>
   <si>
-    <t>Type of observation (code / type)</t>
-  </si>
-  <si>
-    <t>Describes what was observed. Sometimes this is called the observation "name".</t>
+    <t>Coded Responses from C-CDA Vital Sign Results</t>
+  </si>
+  <si>
+    <t>Coded Responses from C-CDA Vital Sign Results.</t>
   </si>
   <si>
     <t>*All* code-value and, if present, component.code-component.value pairs need to be taken into account to correctly understand the meaning of the observation.</t>
   </si>
   <si>
-    <t>Knowing what kind of observation is being made is essential to understanding the observation.</t>
-  </si>
-  <si>
-    <t>Codes identifying names of simple observations.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-codes</t>
+    <t>5. SHALL contain exactly one [1..1] code, where the @code SHOULD be selected from ValueSet HITSP Vital Sign Result Type 2.16.840.1.113883.3.88.12.80.62 DYNAMIC (CONF:7301).</t>
+  </si>
+  <si>
+    <t>This identifies the vital sign result type.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-vitalsignresult</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -745,77 +930,7 @@
     <t>Observation.code.coding</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>Code defined by a terminology system</t>
-  </si>
-  <si>
-    <t>A reference to a code defined by a terminology system.</t>
-  </si>
-  <si>
-    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
-  </si>
-  <si>
-    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:$this}
-</t>
-  </si>
-  <si>
-    <t>closed</t>
-  </si>
-  <si>
-    <t>CodeableConcept.coding</t>
-  </si>
-  <si>
-    <t>C*E.1-8, C*E.10-22</t>
-  </si>
-  <si>
-    <t>union(., ./translation)</t>
-  </si>
-  <si>
-    <t>loincCode1</t>
-  </si>
-  <si>
-    <t>&lt;valueCoding xmlns="http://hl7.org/fhir"&gt;
-  &lt;system value="http://loinc.org"/&gt;
-  &lt;code value="59408-5"/&gt;
-&lt;/valueCoding&gt;</t>
-  </si>
-  <si>
-    <t>loincCode2</t>
-  </si>
-  <si>
-    <t>&lt;valueCoding xmlns="http://hl7.org/fhir"&gt;
-  &lt;system value="http://loinc.org"/&gt;
-  &lt;code value="2708-6"/&gt;
-&lt;/valueCoding&gt;</t>
-  </si>
-  <si>
     <t>Observation.code.text</t>
-  </si>
-  <si>
-    <t>Plain text representation of the concept</t>
-  </si>
-  <si>
-    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
-  </si>
-  <si>
-    <t>Very often the text is the same as a displayName of one of the codings.</t>
-  </si>
-  <si>
-    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.text</t>
-  </si>
-  <si>
-    <t>C*E.9. But note many systems use C*E.2 for this</t>
-  </si>
-  <si>
-    <t>./originalText[mediaType/code="text/plain"]/data</t>
   </si>
   <si>
     <t>Observation.subject</t>
@@ -862,7 +977,7 @@
     <t>The actual focus of an observation when it is not the patient of record representing something or someone associated with the patient such as a spouse, parent, fetus, or donor. For example, fetus observations in a mother's record.  The focus of an observation could also be an existing condition,  an intervention, the subject's diet,  another observation of the subject,  or a body structure such as tumor or implanted device.   An example use case would be using the Observation resource to capture whether the mother is trained to change her child's tracheostomy tube. In this example, the child is the patient of record and the mother is the focus.</t>
   </si>
   <si>
-    <t>Typically, an observation is made about the subject - a patient, or group of patients, location, or device - and the distinction between the subject and what is directly measured for an observation is specified in the observation code itself ( e.g., "Blood Glucose") and does not need to be represented separately using this element.  Use `specimen` if a reference to a specimen is required.  If a code is required instead of a resource use either  `bodysite` for bodysites or the standard extension [focusCode](http://hl7.org/fhir/R4/extension-observation-focuscode.html).</t>
+    <t>Typically, an observation is made about the subject - a patient, or group of patients, location, or device - and the distinction between the subject and what is directly measured for an observation is specified in the observation code itself ( e.g., "Blood Glucose") and does not need to be represented separately using this element.  Use `specimen` if a reference to a specimen is required.  If a code is required instead of a resource use either  `bodysite` for bodysites or the standard extension [focusCode](http://hl7.org/fhir/extension-observation-focuscode.html).</t>
   </si>
   <si>
     <t>participation[typeCode=SBJ]</t>
@@ -914,13 +1029,13 @@
 </t>
   </si>
   <si>
-    <t>Clinically relevant time/time-period for observation</t>
-  </si>
-  <si>
-    <t>The time or time-period the observed value is asserted as being true. For biological subjects - e.g. human patients - this is usually called the "physiologically relevant time". This is usually either the time of the procedure or of specimen collection, but very often the source of the date/time is not known, only the date/time itself.</t>
-  </si>
-  <si>
-    <t>At least a date should be present unless this observation is a historical report.  For recording imprecise or "fuzzy" times (For example, a blood glucose measurement taken "after breakfast") use the [Timing](http://hl7.org/fhir/R4/datatypes.html#timing) datatype which allow the measurement to be tied to regular life events.</t>
+    <t>Often just a dateTime for Vital Signs</t>
+  </si>
+  <si>
+    <t>Often just a dateTime for Vital Signs.</t>
+  </si>
+  <si>
+    <t>At least a date should be present unless this observation is a historical report.  For recording imprecise or "fuzzy" times (For example, a blood glucose measurement taken "after breakfast") use the [Timing](http://hl7.org/fhir/datatypes.html#timing) datatype which allow the measurement to be tied to regular life events.</t>
   </si>
   <si>
     <t>Knowing when an observation was deemed true is important to its relevance as well as determining trends.</t>
@@ -930,6 +1045,17 @@
 </t>
   </si>
   <si>
+    <t>closed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vs-1
+</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+vs-1:if Observation.effective[x] is dateTime and has a value then that value shall be precise to the day {($this as dateTime).toString().length() &gt;= 8}</t>
+  </si>
+  <si>
     <t>Event.occurrence[x]</t>
   </si>
   <si>
@@ -954,7 +1080,7 @@
     <t>The date and time this version of the observation was made available to providers, typically after the results have been reviewed and verified.</t>
   </si>
   <si>
-    <t>For Observations that don’t require review and verification, it may be the same as the [`lastUpdated` ](http://hl7.org/fhir/R4/resource-definitions.html#Meta.lastUpdated) time of the resource itself.  For Observations that do require review and verification for certain updates, it might not be the same as the `lastUpdated` time of the resource itself due to a non-clinically significant update that doesn’t require the new version to be reviewed and verified again.</t>
+    <t>For Observations that don’t require review and verification, it may be the same as the [`lastUpdated` ](http://hl7.org/fhir/resource-definitions.html#Meta.lastUpdated) time of the resource itself.  For Observations that do require review and verification for certain updates, it might not be the same as the `lastUpdated` time of the resource itself due to a non-clinically significant update that doesn’t require the new version to be reviewed and verified again.</t>
   </si>
   <si>
     <t>OBR.22 (or MSH.7), or perhaps OBX-19 (depends on who observation made)</t>
@@ -1001,20 +1127,17 @@
 </t>
   </si>
   <si>
-    <t>Actual result</t>
-  </si>
-  <si>
-    <t>The information determined as a result of making the observation, if the information has a simple value.</t>
-  </si>
-  <si>
-    <t>An observation may have; 1)  a single value here, 2)  both a value and a set of related or component values,  or 3)  only a set of related or component values. If a value is present, the datatype for this element should be determined by Observation.code.  A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.  For additional guidance, see the [Notes section](http://hl7.org/fhir/R4/observation.html#notes) below.</t>
-  </si>
-  <si>
-    <t>An observation exists to have a value, though it might not if it is in error, or if it represents a group of observations.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">obs-7
-</t>
+    <t>Vital Signs value are recorded using the Quantity data type. For supporting observations such as Cuff size could use other datatypes such as CodeableConcept.</t>
+  </si>
+  <si>
+    <t>An observation may have; 1)  a single value here, 2)  both a value and a set of related or component values,  or 3)  only a set of related or component values. If a value is present, the datatype for this element should be determined by Observation.code.  A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.  For additional guidance, see the [Notes section](http://hl7.org/fhir/observation.html#notes) below.</t>
+  </si>
+  <si>
+    <t>9. SHALL contain exactly one [1..1] value with @xsi:type="PQ" (CONF:7305).</t>
+  </si>
+  <si>
+    <t>obs-7
+vs-2</t>
   </si>
   <si>
     <t>&lt; 441742003 |Evaluation finding|</t>
@@ -1185,8 +1308,8 @@
     <t>http://hl7.org/fhir/ValueSet/data-absent-reason</t>
   </si>
   <si>
-    <t xml:space="preserve">obs-6
-</t>
+    <t>obs-6
+vs-2</t>
   </si>
   <si>
     <t>value.nullFlavor</t>
@@ -1264,7 +1387,7 @@
   </si>
   <si>
     <t>Only used if not implicit in code found in Observation.code.  In many systems, this may be represented as a related observation instead of an inline component.   
-If the use case requires BodySite to be handled as a separate resource (e.g. to identify and track separately) then use the standard extension[ bodySite](http://hl7.org/fhir/R4/extension-bodysite.html).</t>
+If the use case requires BodySite to be handled as a separate resource (e.g. to identify and track separately) then use the standard extension[ bodySite](http://hl7.org/fhir/extension-bodysite.html).</t>
   </si>
   <si>
     <t>Codes describing anatomical locations. May include laterality.</t>
@@ -1417,7 +1540,7 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/extensibility.html#modifierExtension).</t>
   </si>
   <si>
     <t>BackboneElement.modifierExtension</t>
@@ -1546,17 +1669,17 @@
     <t>Observation.hasMember</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Observation|QuestionnaireResponse|MolecularSequence)
+    <t xml:space="preserve">Reference(QuestionnaireResponse|MolecularSequence|vitalsigns)
 </t>
   </si>
   <si>
-    <t>Related resource that belongs to the Observation group</t>
-  </si>
-  <si>
-    <t>This observation is a group observation (e.g. a battery, a panel of tests, a set of vital sign measurements) that includes the target as a member of the group.</t>
-  </si>
-  <si>
-    <t>When using this element, an observation will typically have either a value or a set of related resources, although both may be present in some cases.  For a discussion on the ways Observations can assembled in groups together, see [Notes](http://hl7.org/fhir/R4/observation.html#obsgrouping) below.  Note that a system may calculate results from [QuestionnaireResponse](http://hl7.org/fhir/R4/questionnaireresponse.html)  into a final score and represent the score as an Observation.</t>
+    <t>Used when reporting vital signs panel components</t>
+  </si>
+  <si>
+    <t>Used when reporting vital signs panel components.</t>
+  </si>
+  <si>
+    <t>When using this element, an observation will typically have either a value or a set of related resources, although both may be present in some cases.  For a discussion on the ways Observations can assembled in groups together, see [Notes](http://hl7.org/fhir/observation.html#obsgrouping) below.  Note that a system may calculate results from [QuestionnaireResponse](http://hl7.org/fhir/questionnaireresponse.html)  into a final score and represent the score as an Observation.</t>
   </si>
   <si>
     <t>Relationships established by OBX-4 usage</t>
@@ -1568,7 +1691,7 @@
     <t>Observation.derivedFrom</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(DocumentReference|ImagingStudy|Media|QuestionnaireResponse|Observation|MolecularSequence)
+    <t xml:space="preserve">Reference(DocumentReference|ImagingStudy|Media|QuestionnaireResponse|MolecularSequence|vitalsigns)
 </t>
   </si>
   <si>
@@ -1578,7 +1701,7 @@
     <t>The target resource that represents a measurement from which this observation value is derived. For example, a calculated anion gap or a fetal measurement based on an ultrasound image.</t>
   </si>
   <si>
-    <t>All the reference choices that are listed in this element can represent clinical observations and other measurements that may be the source for a derived value.  The most common reference will be another Observation.  For a discussion on the ways Observations can assembled in groups together, see [Notes](http://hl7.org/fhir/R4/observation.html#obsgrouping) below.</t>
+    <t>All the reference choices that are listed in this element can represent clinical observations and other measurements that may be the source for a derived value.  The most common reference will be another Observation.  For a discussion on the ways Observations can assembled in groups together, see [Notes](http://hl7.org/fhir/observation.html#obsgrouping) below.</t>
   </si>
   <si>
     <t>.targetObservation</t>
@@ -1587,18 +1710,19 @@
     <t>Observation.component</t>
   </si>
   <si>
-    <t>Component results</t>
-  </si>
-  <si>
-    <t>Some observations have multiple component observations.  These component observations are expressed as separate code value pairs that share the same attributes.  Examples include systolic and diastolic component observations for blood pressure measurement and multiple component observations for genetics observations.</t>
-  </si>
-  <si>
-    <t>For a discussion on the ways Observations can be assembled in groups together see [Notes](http://hl7.org/fhir/R4/observation.html#notes) below.</t>
+    <t>Used when reporting systolic and diastolic blood pressure.</t>
+  </si>
+  <si>
+    <t>For a discussion on the ways Observations can be assembled in groups together see [Notes](http://hl7.org/fhir/observation.html#notes) below.</t>
   </si>
   <si>
     <t>Component observations share the same attributes in the Observation resource as the primary observation and are always treated a part of a single observation (they are not separable).   However, the reference range for the primary observation value is not inherited by the component values and is required when appropriate for each component observation.</t>
   </si>
   <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+vs-3:If there is no a value a data absent reason must be present {value.exists() or dataAbsentReason.exists()}</t>
+  </si>
+  <si>
     <t>containment by OBX-4?</t>
   </si>
   <si>
@@ -1624,6 +1748,9 @@
   </si>
   <si>
     <t>*All* code-value and  component.code-component.value pairs need to be taken into account to correctly understand the meaning of the observation.</t>
+  </si>
+  <si>
+    <t>Knowing what kind of observation is being made is essential to understanding the observation.</t>
   </si>
   <si>
     <t>&lt; 363787002 |Observable entity| OR @@ -1637,10 +1764,23 @@
 CodeableConceptstringbooleanintegerRangeRatioSampledDatatimedateTimePeriod</t>
   </si>
   <si>
-    <t>Actual component result</t>
-  </si>
-  <si>
-    <t>Used when observation has a set of component observations. An observation may have both a value (e.g. an  Apgar score)  and component observations (the observations from which the Apgar score was derived). If a value is present, the datatype for this element should be determined by Observation.code. A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.  For additional guidance, see the [Notes section](http://hl7.org/fhir/R4/observation.html#notes) below.</t>
+    <t>Vital Sign Value recorded with UCUM</t>
+  </si>
+  <si>
+    <t>Vital Sign Value recorded with UCUM.</t>
+  </si>
+  <si>
+    <t>Used when observation has a set of component observations. An observation may have both a value (e.g. an  Apgar score)  and component observations (the observations from which the Apgar score was derived). If a value is present, the datatype for this element should be determined by Observation.code. A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.  For additional guidance, see the [Notes section](http://hl7.org/fhir/observation.html#notes) below.</t>
+  </si>
+  <si>
+    <t>Common UCUM units for recording Vital Signs.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/ucum-vitals-common|4.0.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vs-3
+</t>
   </si>
   <si>
     <t>363714003 |Interprets| &lt; 441742003 |Evaluation finding|</t>
@@ -1657,6 +1797,10 @@
   <si>
     <t>"Null" or exceptional values can be represented two ways in FHIR Observations.  One way is to simply include them in the value set and represent the exceptions in the value.  For example, measurement values for a serology test could be  "detected", "not detected", "inconclusive", or  "test not done". 
 The alternate way is to use the value element for actual observations and use the explicit dataAbsentReason element to record exceptional values.  For example, the dataAbsentReason code "error" could be used when the measurement was not completed.  Because of these options, use-case agreements are required to interpret general observations for exceptional values.</t>
+  </si>
+  <si>
+    <t>obs-6
+vs-3</t>
   </si>
   <si>
     <t>Observation.component.interpretation</t>
@@ -1817,7 +1961,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO74"/>
+  <dimension ref="A1:AO84"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1836,7 +1980,7 @@
     <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="66.26953125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="142.2890625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1850,9 +1994,9 @@
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="95.7734375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="51.1328125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="51.34375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.921875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
@@ -4326,7 +4470,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" hidden="true">
+    <row r="22">
       <c r="A22" t="s" s="2">
         <v>189</v>
       </c>
@@ -4342,7 +4486,7 @@
         <v>55</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>56</v>
@@ -4390,11 +4534,9 @@
       <c r="W22" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="X22" t="s" s="2">
+      <c r="X22" s="2"/>
+      <c r="Y22" t="s" s="2">
         <v>196</v>
-      </c>
-      <c r="Y22" t="s" s="2">
-        <v>197</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>45</v>
@@ -4427,19 +4569,19 @@
         <v>67</v>
       </c>
       <c r="AJ22" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="AK22" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="AK22" t="s" s="2">
+      <c r="AL22" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="AL22" t="s" s="2">
+      <c r="AM22" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="AM22" t="s" s="2">
+      <c r="AN22" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="AN22" t="s" s="2">
-        <v>202</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>45</v>
@@ -4447,7 +4589,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4461,7 +4603,7 @@
         <v>55</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>45</v>
@@ -4470,19 +4612,19 @@
         <v>45</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="K23" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="K23" t="s" s="2">
+      <c r="L23" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>207</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>208</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>45</v>
@@ -4492,7 +4634,7 @@
         <v>45</v>
       </c>
       <c r="R23" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>45</v>
@@ -4510,28 +4652,26 @@
         <v>136</v>
       </c>
       <c r="X23" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="Y23" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="Y23" t="s" s="2">
+      <c r="Z23" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA23" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="Z23" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA23" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB23" t="s" s="2">
-        <v>45</v>
-      </c>
+      <c r="AB23" s="2"/>
       <c r="AC23" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>43</v>
@@ -4564,13 +4704,15 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" hidden="true">
+    <row r="24">
       <c r="A24" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="B24" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>215</v>
+        <v>45</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
@@ -4580,28 +4722,28 @@
         <v>55</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J24" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="K24" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="K24" t="s" s="2">
-        <v>216</v>
-      </c>
       <c r="L24" t="s" s="2">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>45</v>
@@ -4626,13 +4768,13 @@
         <v>45</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>45</v>
@@ -4650,13 +4792,13 @@
         <v>45</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>45</v>
@@ -4665,27 +4807,27 @@
         <v>67</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>222</v>
+        <v>45</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>223</v>
+        <v>45</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>224</v>
+        <v>45</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>227</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4800,7 +4942,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4915,9 +5057,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="27" hidden="true">
+    <row r="27">
       <c r="A27" t="s" s="2">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4925,13 +5067,13 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>231</v>
+        <v>55</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>231</v>
+        <v>44</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>45</v>
@@ -4943,16 +5085,16 @@
         <v>109</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>45</v>
@@ -4989,17 +5131,19 @@
         <v>45</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="AB27" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>45</v>
+      </c>
       <c r="AC27" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>237</v>
+        <v>45</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>43</v>
@@ -5020,10 +5164,10 @@
         <v>45</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>45</v>
@@ -5034,17 +5178,15 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="B28" t="s" s="2">
-        <v>241</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
         <v>45</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F28" t="s" s="2">
         <v>55</v>
@@ -5056,23 +5198,19 @@
         <v>45</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>109</v>
+        <v>57</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>232</v>
+        <v>69</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>235</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>45</v>
       </c>
@@ -5081,7 +5219,7 @@
         <v>45</v>
       </c>
       <c r="R28" t="s" s="2">
-        <v>242</v>
+        <v>45</v>
       </c>
       <c r="S28" t="s" s="2">
         <v>45</v>
@@ -5120,19 +5258,19 @@
         <v>45</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>238</v>
+        <v>71</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>45</v>
@@ -5141,10 +5279,10 @@
         <v>45</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>239</v>
+        <v>45</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>240</v>
+        <v>72</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>45</v>
@@ -5155,20 +5293,18 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="B29" t="s" s="2">
-        <v>243</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>45</v>
@@ -5177,23 +5313,21 @@
         <v>45</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>109</v>
+        <v>75</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>232</v>
+        <v>76</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>233</v>
+        <v>77</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>235</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>45</v>
       </c>
@@ -5202,7 +5336,7 @@
         <v>45</v>
       </c>
       <c r="R29" t="s" s="2">
-        <v>244</v>
+        <v>45</v>
       </c>
       <c r="S29" t="s" s="2">
         <v>45</v>
@@ -5229,19 +5363,19 @@
         <v>45</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="AC29" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>238</v>
+        <v>82</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>43</v>
@@ -5253,7 +5387,7 @@
         <v>45</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>45</v>
@@ -5262,10 +5396,10 @@
         <v>45</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>239</v>
+        <v>45</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>240</v>
+        <v>72</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>45</v>
@@ -5274,9 +5408,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="30" hidden="true">
+    <row r="30">
       <c r="A30" t="s" s="2">
-        <v>245</v>
+        <v>227</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5284,13 +5418,13 @@
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F30" t="s" s="2">
         <v>55</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>45</v>
@@ -5299,26 +5433,26 @@
         <v>56</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>57</v>
+        <v>97</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>246</v>
+        <v>228</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>247</v>
+        <v>229</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>248</v>
+        <v>230</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>249</v>
+        <v>231</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P30" s="2"/>
       <c r="Q30" t="s" s="2">
-        <v>45</v>
+        <v>232</v>
       </c>
       <c r="R30" t="s" s="2">
         <v>45</v>
@@ -5360,7 +5494,7 @@
         <v>45</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>250</v>
+        <v>233</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>43</v>
@@ -5381,10 +5515,10 @@
         <v>45</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>251</v>
+        <v>234</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>45</v>
@@ -5395,7 +5529,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>253</v>
+        <v>236</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5403,7 +5537,7 @@
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F31" t="s" s="2">
         <v>55</v>
@@ -5418,20 +5552,18 @@
         <v>56</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>254</v>
+        <v>57</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>255</v>
+        <v>237</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>256</v>
+        <v>238</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>258</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>45</v>
       </c>
@@ -5479,7 +5611,7 @@
         <v>45</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>43</v>
@@ -5494,27 +5626,27 @@
         <v>67</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>259</v>
+        <v>45</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>260</v>
+        <v>241</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>261</v>
+        <v>242</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>262</v>
+        <v>45</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="32" hidden="true">
+    <row r="32">
       <c r="A32" t="s" s="2">
-        <v>263</v>
+        <v>243</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5522,13 +5654,13 @@
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>45</v>
@@ -5537,24 +5669,24 @@
         <v>56</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>264</v>
+        <v>132</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>265</v>
+        <v>244</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="N32" s="2"/>
+        <v>245</v>
+      </c>
+      <c r="M32" s="2"/>
+      <c r="N32" t="s" s="2">
+        <v>246</v>
+      </c>
       <c r="O32" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P32" s="2"/>
       <c r="Q32" t="s" s="2">
-        <v>45</v>
+        <v>247</v>
       </c>
       <c r="R32" t="s" s="2">
         <v>45</v>
@@ -5596,13 +5728,13 @@
         <v>45</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>45</v>
@@ -5617,13 +5749,13 @@
         <v>45</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>224</v>
+        <v>249</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>268</v>
+        <v>250</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>262</v>
+        <v>45</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>45</v>
@@ -5631,18 +5763,18 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>269</v>
+        <v>251</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>270</v>
+        <v>45</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>45</v>
@@ -5654,19 +5786,17 @@
         <v>56</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>271</v>
+        <v>57</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>272</v>
+        <v>252</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>274</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="M33" s="2"/>
       <c r="N33" t="s" s="2">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>45</v>
@@ -5715,7 +5845,7 @@
         <v>45</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>269</v>
+        <v>255</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>43</v>
@@ -5730,19 +5860,19 @@
         <v>67</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>276</v>
+        <v>45</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>277</v>
+        <v>256</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>278</v>
+        <v>257</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>279</v>
+        <v>45</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>45</v>
@@ -5750,15 +5880,15 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>280</v>
+        <v>258</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>281</v>
+        <v>45</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F34" t="s" s="2">
         <v>55</v>
@@ -5773,19 +5903,19 @@
         <v>56</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>282</v>
+        <v>259</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>283</v>
+        <v>260</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>284</v>
+        <v>261</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>285</v>
+        <v>262</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>286</v>
+        <v>263</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>45</v>
@@ -5822,17 +5952,19 @@
         <v>45</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="AB34" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>45</v>
+      </c>
       <c r="AC34" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>237</v>
+        <v>45</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>280</v>
+        <v>264</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>43</v>
@@ -5847,19 +5979,19 @@
         <v>67</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>288</v>
+        <v>45</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>289</v>
+        <v>265</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>290</v>
+        <v>266</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>291</v>
+        <v>45</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>45</v>
@@ -5867,17 +5999,15 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="B35" t="s" s="2">
-        <v>292</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>281</v>
+        <v>45</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F35" t="s" s="2">
         <v>55</v>
@@ -5892,19 +6022,19 @@
         <v>56</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>282</v>
+        <v>57</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>284</v>
+        <v>269</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>45</v>
@@ -5953,7 +6083,7 @@
         <v>45</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>43</v>
@@ -5968,41 +6098,41 @@
         <v>67</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>288</v>
+        <v>45</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>290</v>
+        <v>274</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>291</v>
+        <v>45</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="36" hidden="true">
+    <row r="36">
       <c r="A36" t="s" s="2">
-        <v>293</v>
+        <v>275</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>45</v>
+        <v>276</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>45</v>
@@ -6011,18 +6141,20 @@
         <v>56</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>91</v>
+        <v>203</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>294</v>
+        <v>277</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>295</v>
+        <v>278</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="N36" s="2"/>
+        <v>279</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>280</v>
+      </c>
       <c r="O36" t="s" s="2">
         <v>45</v>
       </c>
@@ -6046,13 +6178,13 @@
         <v>45</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>45</v>
+        <v>113</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>45</v>
+        <v>281</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>45</v>
+        <v>282</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>45</v>
@@ -6070,10 +6202,10 @@
         <v>45</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>293</v>
+        <v>275</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>55</v>
@@ -6085,27 +6217,27 @@
         <v>67</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>45</v>
+        <v>283</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>45</v>
+        <v>284</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>45</v>
+        <v>288</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6116,7 +6248,7 @@
         <v>43</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>45</v>
@@ -6125,21 +6257,19 @@
         <v>45</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>301</v>
+        <v>57</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>302</v>
+        <v>69</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>303</v>
+        <v>70</v>
       </c>
       <c r="M37" s="2"/>
-      <c r="N37" t="s" s="2">
-        <v>304</v>
-      </c>
+      <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>45</v>
       </c>
@@ -6187,34 +6317,34 @@
         <v>45</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>300</v>
+        <v>71</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>305</v>
+        <v>45</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>306</v>
+        <v>45</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>307</v>
+        <v>72</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>308</v>
+        <v>45</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>45</v>
@@ -6222,18 +6352,18 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>309</v>
+        <v>290</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>45</v>
@@ -6242,23 +6372,21 @@
         <v>45</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>310</v>
+        <v>75</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>311</v>
+        <v>76</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>312</v>
+        <v>77</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>314</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>45</v>
       </c>
@@ -6294,56 +6422,56 @@
         <v>45</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="AB38" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="AC38" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>237</v>
+        <v>81</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>309</v>
+        <v>82</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>315</v>
+        <v>45</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>316</v>
+        <v>45</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>317</v>
+        <v>45</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>318</v>
+        <v>72</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>319</v>
+        <v>45</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="B39" t="s" s="2">
-        <v>320</v>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
         <v>45</v>
       </c>
@@ -6352,7 +6480,7 @@
         <v>43</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>45</v>
@@ -6364,19 +6492,19 @@
         <v>56</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>310</v>
+        <v>109</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>311</v>
+        <v>218</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>312</v>
+        <v>219</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>313</v>
+        <v>220</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>314</v>
+        <v>221</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>45</v>
@@ -6425,16 +6553,16 @@
         <v>45</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>309</v>
+        <v>222</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>315</v>
+        <v>45</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>67</v>
@@ -6443,24 +6571,24 @@
         <v>45</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>316</v>
+        <v>45</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>317</v>
+        <v>223</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>318</v>
+        <v>224</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>319</v>
+        <v>45</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>321</v>
+        <v>292</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6480,19 +6608,23 @@
         <v>45</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J40" t="s" s="2">
         <v>57</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>69</v>
+        <v>268</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="M40" s="2"/>
-      <c r="N40" s="2"/>
+        <v>269</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>271</v>
+      </c>
       <c r="O40" t="s" s="2">
         <v>45</v>
       </c>
@@ -6540,7 +6672,7 @@
         <v>45</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>71</v>
+        <v>272</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>43</v>
@@ -6552,7 +6684,7 @@
         <v>45</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>45</v>
@@ -6561,10 +6693,10 @@
         <v>45</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>45</v>
+        <v>273</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>72</v>
+        <v>274</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>45</v>
@@ -6573,43 +6705,45 @@
         <v>45</v>
       </c>
     </row>
-    <row r="41" hidden="true">
+    <row r="41">
       <c r="A41" t="s" s="2">
-        <v>322</v>
+        <v>293</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>75</v>
+        <v>294</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>76</v>
+        <v>295</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>77</v>
+        <v>296</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="N41" s="2"/>
+        <v>297</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>298</v>
+      </c>
       <c r="O41" t="s" s="2">
         <v>45</v>
       </c>
@@ -6645,46 +6779,46 @@
         <v>45</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="AC41" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>82</v>
+        <v>293</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>45</v>
+        <v>299</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>45</v>
+        <v>300</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>72</v>
+        <v>301</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>45</v>
+        <v>302</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>45</v>
@@ -6692,7 +6826,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>323</v>
+        <v>303</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6703,7 +6837,7 @@
         <v>43</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>45</v>
@@ -6715,20 +6849,18 @@
         <v>56</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>324</v>
+        <v>304</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>325</v>
+        <v>305</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>326</v>
+        <v>306</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>328</v>
-      </c>
+        <v>307</v>
+      </c>
+      <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>45</v>
       </c>
@@ -6776,13 +6908,13 @@
         <v>45</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>329</v>
+        <v>303</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>45</v>
@@ -6797,13 +6929,13 @@
         <v>45</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>330</v>
+        <v>285</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>331</v>
+        <v>308</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>45</v>
+        <v>302</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>45</v>
@@ -6811,47 +6943,47 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>332</v>
+        <v>309</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>45</v>
+        <v>310</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>56</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>132</v>
+        <v>311</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>333</v>
+        <v>312</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="M43" s="2"/>
+        <v>313</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>314</v>
+      </c>
       <c r="N43" t="s" s="2">
-        <v>335</v>
+        <v>315</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="P43" t="s" s="2">
-        <v>336</v>
-      </c>
+      <c r="P43" s="2"/>
       <c r="Q43" t="s" s="2">
         <v>45</v>
       </c>
@@ -6871,13 +7003,13 @@
         <v>45</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>195</v>
+        <v>45</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>337</v>
+        <v>45</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>338</v>
+        <v>45</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>45</v>
@@ -6895,7 +7027,7 @@
         <v>45</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>339</v>
+        <v>309</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>43</v>
@@ -6910,19 +7042,19 @@
         <v>67</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>45</v>
+        <v>316</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>340</v>
+        <v>317</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>341</v>
+        <v>318</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>45</v>
+        <v>319</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>45</v>
@@ -6930,21 +7062,21 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>342</v>
+        <v>320</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>45</v>
+        <v>321</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F44" t="s" s="2">
         <v>55</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>45</v>
@@ -6953,17 +7085,19 @@
         <v>56</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>57</v>
+        <v>322</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>343</v>
+        <v>323</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="M44" s="2"/>
+        <v>324</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>325</v>
+      </c>
       <c r="N44" t="s" s="2">
-        <v>345</v>
+        <v>326</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>45</v>
@@ -6973,7 +7107,7 @@
         <v>45</v>
       </c>
       <c r="R44" t="s" s="2">
-        <v>346</v>
+        <v>45</v>
       </c>
       <c r="S44" t="s" s="2">
         <v>45</v>
@@ -7000,19 +7134,17 @@
         <v>45</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB44" t="s" s="2">
-        <v>45</v>
-      </c>
+        <v>327</v>
+      </c>
+      <c r="AB44" s="2"/>
       <c r="AC44" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>45</v>
+        <v>328</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>347</v>
+        <v>320</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>43</v>
@@ -7021,47 +7153,49 @@
         <v>55</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>45</v>
+        <v>329</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>67</v>
+        <v>330</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>45</v>
+        <v>331</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>348</v>
+        <v>332</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>349</v>
+        <v>333</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>45</v>
+        <v>334</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="45" hidden="true">
+    <row r="45">
       <c r="A45" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="B45" s="2"/>
+        <v>320</v>
+      </c>
+      <c r="B45" t="s" s="2">
+        <v>335</v>
+      </c>
       <c r="C45" t="s" s="2">
-        <v>45</v>
+        <v>321</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F45" t="s" s="2">
         <v>55</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>45</v>
@@ -7070,17 +7204,19 @@
         <v>56</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>97</v>
+        <v>322</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>351</v>
+        <v>323</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="M45" s="2"/>
+        <v>324</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>325</v>
+      </c>
       <c r="N45" t="s" s="2">
-        <v>353</v>
+        <v>326</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>45</v>
@@ -7129,7 +7265,7 @@
         <v>45</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>354</v>
+        <v>320</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>43</v>
@@ -7138,25 +7274,25 @@
         <v>55</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>355</v>
+        <v>329</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>67</v>
+        <v>330</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>45</v>
+        <v>331</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>348</v>
+        <v>332</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>356</v>
+        <v>333</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>45</v>
+        <v>334</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>45</v>
@@ -7164,7 +7300,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>357</v>
+        <v>336</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7175,7 +7311,7 @@
         <v>43</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>45</v>
@@ -7187,20 +7323,18 @@
         <v>56</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>132</v>
+        <v>91</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>358</v>
+        <v>337</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>359</v>
+        <v>338</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>361</v>
-      </c>
+        <v>339</v>
+      </c>
+      <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>45</v>
       </c>
@@ -7248,7 +7382,7 @@
         <v>45</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>362</v>
+        <v>336</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>43</v>
@@ -7269,13 +7403,13 @@
         <v>45</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>363</v>
+        <v>341</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>45</v>
+        <v>342</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>45</v>
@@ -7283,7 +7417,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>364</v>
+        <v>343</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7303,22 +7437,20 @@
         <v>45</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>204</v>
+        <v>344</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>365</v>
+        <v>345</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>367</v>
-      </c>
+        <v>346</v>
+      </c>
+      <c r="M47" s="2"/>
       <c r="N47" t="s" s="2">
-        <v>368</v>
+        <v>347</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>45</v>
@@ -7343,13 +7475,13 @@
         <v>45</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>113</v>
+        <v>45</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>369</v>
+        <v>45</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>370</v>
+        <v>45</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>45</v>
@@ -7367,34 +7499,34 @@
         <v>45</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>364</v>
+        <v>343</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>371</v>
+        <v>45</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>67</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>45</v>
+        <v>348</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>155</v>
+        <v>349</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>372</v>
+        <v>350</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>45</v>
+        <v>351</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>45</v>
@@ -7402,42 +7534,42 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>373</v>
+        <v>352</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>374</v>
+        <v>45</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>204</v>
+        <v>353</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>375</v>
+        <v>354</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>376</v>
+        <v>354</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>377</v>
+        <v>355</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>378</v>
+        <v>356</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>45</v>
@@ -7462,40 +7594,38 @@
         <v>45</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>113</v>
+        <v>45</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>379</v>
+        <v>45</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>380</v>
+        <v>45</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB48" t="s" s="2">
-        <v>45</v>
-      </c>
+        <v>327</v>
+      </c>
+      <c r="AB48" s="2"/>
       <c r="AC48" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>45</v>
+        <v>328</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>373</v>
+        <v>352</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>45</v>
+        <v>357</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>67</v>
@@ -7504,26 +7634,28 @@
         <v>45</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>381</v>
+        <v>358</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>382</v>
+        <v>359</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>383</v>
+        <v>360</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>384</v>
+        <v>361</v>
       </c>
     </row>
-    <row r="49" hidden="true">
+    <row r="49">
       <c r="A49" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="B49" s="2"/>
+        <v>352</v>
+      </c>
+      <c r="B49" t="s" s="2">
+        <v>362</v>
+      </c>
       <c r="C49" t="s" s="2">
         <v>45</v>
       </c>
@@ -7535,28 +7667,28 @@
         <v>55</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>386</v>
+        <v>353</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>387</v>
+        <v>354</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>388</v>
+        <v>354</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>389</v>
+        <v>355</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>390</v>
+        <v>356</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>45</v>
@@ -7605,16 +7737,16 @@
         <v>45</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>385</v>
+        <v>352</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>45</v>
+        <v>357</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>67</v>
@@ -7623,24 +7755,24 @@
         <v>45</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>45</v>
+        <v>358</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>391</v>
+        <v>359</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>392</v>
+        <v>360</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>45</v>
+        <v>361</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>393</v>
+        <v>363</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7651,7 +7783,7 @@
         <v>43</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>45</v>
@@ -7663,17 +7795,15 @@
         <v>45</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>204</v>
+        <v>57</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>394</v>
+        <v>69</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>396</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="M50" s="2"/>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>45</v>
@@ -7698,13 +7828,13 @@
         <v>45</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>122</v>
+        <v>45</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>397</v>
+        <v>45</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>398</v>
+        <v>45</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>45</v>
@@ -7722,7 +7852,7 @@
         <v>45</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>393</v>
+        <v>71</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>43</v>
@@ -7734,41 +7864,41 @@
         <v>45</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>399</v>
+        <v>45</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>400</v>
+        <v>45</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>401</v>
+        <v>72</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>402</v>
+        <v>45</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>403</v>
+        <v>364</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>45</v>
@@ -7780,20 +7910,18 @@
         <v>45</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>204</v>
+        <v>75</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>404</v>
+        <v>76</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>405</v>
+        <v>77</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>407</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>45</v>
       </c>
@@ -7817,43 +7945,43 @@
         <v>45</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>122</v>
+        <v>45</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>408</v>
+        <v>45</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>409</v>
+        <v>45</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="AC51" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>403</v>
+        <v>82</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>45</v>
@@ -7862,10 +7990,10 @@
         <v>45</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>410</v>
+        <v>45</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>411</v>
+        <v>72</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>45</v>
@@ -7876,7 +8004,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>412</v>
+        <v>365</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7887,7 +8015,7 @@
         <v>43</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>45</v>
@@ -7896,21 +8024,23 @@
         <v>45</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>413</v>
+        <v>366</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>414</v>
+        <v>367</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>415</v>
+        <v>368</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="N52" s="2"/>
+        <v>369</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>370</v>
+      </c>
       <c r="O52" t="s" s="2">
         <v>45</v>
       </c>
@@ -7958,7 +8088,7 @@
         <v>45</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>412</v>
+        <v>371</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>43</v>
@@ -7976,24 +8106,24 @@
         <v>45</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>417</v>
+        <v>45</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>418</v>
+        <v>372</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>419</v>
+        <v>373</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>420</v>
+        <v>45</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>421</v>
+        <v>374</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8004,34 +8134,36 @@
         <v>43</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>422</v>
+        <v>132</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>423</v>
+        <v>375</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="N53" s="2"/>
+        <v>376</v>
+      </c>
+      <c r="M53" s="2"/>
+      <c r="N53" t="s" s="2">
+        <v>377</v>
+      </c>
       <c r="O53" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="P53" s="2"/>
+      <c r="P53" t="s" s="2">
+        <v>378</v>
+      </c>
       <c r="Q53" t="s" s="2">
         <v>45</v>
       </c>
@@ -8051,13 +8183,13 @@
         <v>45</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>45</v>
+        <v>195</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>45</v>
+        <v>379</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>45</v>
+        <v>380</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>45</v>
@@ -8075,7 +8207,7 @@
         <v>45</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>421</v>
+        <v>381</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>43</v>
@@ -8093,24 +8225,24 @@
         <v>45</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>426</v>
+        <v>45</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>427</v>
+        <v>382</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>428</v>
+        <v>383</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>429</v>
+        <v>45</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>430</v>
+        <v>384</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8121,7 +8253,7 @@
         <v>43</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>45</v>
@@ -8130,22 +8262,20 @@
         <v>45</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>431</v>
+        <v>57</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>432</v>
+        <v>385</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>434</v>
-      </c>
+        <v>386</v>
+      </c>
+      <c r="M54" s="2"/>
       <c r="N54" t="s" s="2">
-        <v>435</v>
+        <v>387</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>45</v>
@@ -8155,7 +8285,7 @@
         <v>45</v>
       </c>
       <c r="R54" t="s" s="2">
-        <v>45</v>
+        <v>388</v>
       </c>
       <c r="S54" t="s" s="2">
         <v>45</v>
@@ -8194,19 +8324,19 @@
         <v>45</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>430</v>
+        <v>389</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>436</v>
+        <v>67</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>45</v>
@@ -8215,10 +8345,10 @@
         <v>45</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>437</v>
+        <v>390</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>438</v>
+        <v>391</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>45</v>
@@ -8229,7 +8359,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>439</v>
+        <v>392</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8249,19 +8379,21 @@
         <v>45</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>57</v>
+        <v>97</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>69</v>
+        <v>393</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>70</v>
+        <v>394</v>
       </c>
       <c r="M55" s="2"/>
-      <c r="N55" s="2"/>
+      <c r="N55" t="s" s="2">
+        <v>395</v>
+      </c>
       <c r="O55" t="s" s="2">
         <v>45</v>
       </c>
@@ -8309,7 +8441,7 @@
         <v>45</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>71</v>
+        <v>396</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>43</v>
@@ -8318,10 +8450,10 @@
         <v>55</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>45</v>
+        <v>397</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>45</v>
@@ -8330,10 +8462,10 @@
         <v>45</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>45</v>
+        <v>390</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>72</v>
+        <v>398</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>45</v>
@@ -8344,18 +8476,18 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>440</v>
+        <v>399</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>45</v>
@@ -8364,21 +8496,23 @@
         <v>45</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>75</v>
+        <v>132</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>76</v>
+        <v>400</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>77</v>
+        <v>401</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="N56" s="2"/>
+        <v>402</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>403</v>
+      </c>
       <c r="O56" t="s" s="2">
         <v>45</v>
       </c>
@@ -8426,19 +8560,19 @@
         <v>45</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>82</v>
+        <v>404</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>45</v>
@@ -8447,10 +8581,10 @@
         <v>45</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>45</v>
+        <v>390</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>72</v>
+        <v>405</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>45</v>
@@ -8459,44 +8593,44 @@
         <v>45</v>
       </c>
     </row>
-    <row r="57" hidden="true">
+    <row r="57">
       <c r="A57" t="s" s="2">
-        <v>441</v>
+        <v>406</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>442</v>
+        <v>45</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>75</v>
+        <v>203</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>443</v>
+        <v>407</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>444</v>
+        <v>408</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>78</v>
+        <v>409</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>445</v>
+        <v>410</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>45</v>
@@ -8521,13 +8655,13 @@
         <v>45</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>45</v>
+        <v>113</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>45</v>
+        <v>411</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>45</v>
+        <v>412</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>45</v>
@@ -8545,19 +8679,19 @@
         <v>45</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>446</v>
+        <v>406</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>45</v>
+        <v>413</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>45</v>
@@ -8566,10 +8700,10 @@
         <v>45</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>45</v>
+        <v>155</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>155</v>
+        <v>414</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>45</v>
@@ -8580,18 +8714,18 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>447</v>
+        <v>415</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>45</v>
+        <v>416</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>45</v>
@@ -8603,16 +8737,20 @@
         <v>45</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>448</v>
+        <v>203</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>449</v>
+        <v>417</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="M58" s="2"/>
-      <c r="N58" s="2"/>
+        <v>418</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>420</v>
+      </c>
       <c r="O58" t="s" s="2">
         <v>45</v>
       </c>
@@ -8636,13 +8774,13 @@
         <v>45</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>45</v>
+        <v>113</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>45</v>
+        <v>421</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>45</v>
+        <v>422</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>45</v>
@@ -8660,16 +8798,16 @@
         <v>45</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>447</v>
+        <v>415</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>451</v>
+        <v>45</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>67</v>
@@ -8678,24 +8816,24 @@
         <v>45</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>45</v>
+        <v>423</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>452</v>
+        <v>424</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>453</v>
+        <v>425</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>45</v>
+        <v>426</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>454</v>
+        <v>427</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8718,16 +8856,20 @@
         <v>45</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>448</v>
+        <v>428</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>455</v>
+        <v>429</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="M59" s="2"/>
-      <c r="N59" s="2"/>
+        <v>430</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>432</v>
+      </c>
       <c r="O59" t="s" s="2">
         <v>45</v>
       </c>
@@ -8775,16 +8917,16 @@
         <v>45</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>454</v>
+        <v>427</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>451</v>
+        <v>45</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>67</v>
@@ -8796,10 +8938,10 @@
         <v>45</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>452</v>
+        <v>433</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>457</v>
+        <v>434</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>45</v>
@@ -8810,7 +8952,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>458</v>
+        <v>435</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8821,7 +8963,7 @@
         <v>43</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>45</v>
@@ -8833,20 +8975,18 @@
         <v>45</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>459</v>
+        <v>436</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>460</v>
+        <v>437</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>462</v>
-      </c>
+        <v>438</v>
+      </c>
+      <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>45</v>
       </c>
@@ -8870,13 +9010,13 @@
         <v>45</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>463</v>
+        <v>439</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>464</v>
+        <v>440</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>45</v>
@@ -8894,7 +9034,7 @@
         <v>45</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>458</v>
+        <v>435</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>43</v>
@@ -8912,24 +9052,24 @@
         <v>45</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>465</v>
+        <v>441</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>466</v>
+        <v>442</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>383</v>
+        <v>443</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO60" t="s" s="2">
-        <v>45</v>
+        <v>444</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>467</v>
+        <v>445</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8940,7 +9080,7 @@
         <v>43</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>45</v>
@@ -8952,19 +9092,19 @@
         <v>45</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>468</v>
+        <v>446</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>469</v>
+        <v>447</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>470</v>
+        <v>448</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>471</v>
+        <v>449</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>45</v>
@@ -8992,10 +9132,10 @@
         <v>122</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>472</v>
+        <v>450</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>473</v>
+        <v>451</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>45</v>
@@ -9013,13 +9153,13 @@
         <v>45</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>467</v>
+        <v>445</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>45</v>
@@ -9031,13 +9171,13 @@
         <v>45</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>465</v>
+        <v>45</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>466</v>
+        <v>452</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>383</v>
+        <v>453</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>45</v>
@@ -9048,7 +9188,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>474</v>
+        <v>454</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9059,7 +9199,7 @@
         <v>43</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>45</v>
@@ -9071,18 +9211,18 @@
         <v>45</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>475</v>
+        <v>455</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>476</v>
+        <v>456</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="M62" s="2"/>
-      <c r="N62" t="s" s="2">
-        <v>478</v>
-      </c>
+        <v>457</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>45</v>
       </c>
@@ -9130,7 +9270,7 @@
         <v>45</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>474</v>
+        <v>454</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>43</v>
@@ -9148,24 +9288,24 @@
         <v>45</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>45</v>
+        <v>459</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>45</v>
+        <v>460</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>479</v>
+        <v>461</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO62" t="s" s="2">
-        <v>45</v>
+        <v>462</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>480</v>
+        <v>463</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9176,7 +9316,7 @@
         <v>43</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>45</v>
@@ -9188,15 +9328,17 @@
         <v>45</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>57</v>
+        <v>464</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>481</v>
+        <v>465</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="M63" s="2"/>
+        <v>466</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>467</v>
+      </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>45</v>
@@ -9245,7 +9387,7 @@
         <v>45</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>480</v>
+        <v>463</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>43</v>
@@ -9263,24 +9405,24 @@
         <v>45</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>45</v>
+        <v>468</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>452</v>
+        <v>469</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>483</v>
+        <v>470</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO63" t="s" s="2">
-        <v>45</v>
+        <v>471</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>484</v>
+        <v>472</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9300,21 +9442,23 @@
         <v>45</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>487</v>
+        <v>475</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="N64" s="2"/>
+        <v>476</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>477</v>
+      </c>
       <c r="O64" t="s" s="2">
         <v>45</v>
       </c>
@@ -9362,7 +9506,7 @@
         <v>45</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>484</v>
+        <v>472</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>43</v>
@@ -9374,7 +9518,7 @@
         <v>45</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>67</v>
+        <v>478</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>45</v>
@@ -9383,10 +9527,10 @@
         <v>45</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>489</v>
+        <v>479</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>45</v>
@@ -9397,7 +9541,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9408,7 +9552,7 @@
         <v>43</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>45</v>
@@ -9417,20 +9561,18 @@
         <v>45</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>492</v>
+        <v>57</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>493</v>
+        <v>69</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>495</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="M65" s="2"/>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>45</v>
@@ -9479,19 +9621,19 @@
         <v>45</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>491</v>
+        <v>71</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>45</v>
@@ -9500,10 +9642,10 @@
         <v>45</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>489</v>
+        <v>45</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>496</v>
+        <v>72</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>45</v>
@@ -9514,18 +9656,18 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>497</v>
+        <v>482</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>45</v>
@@ -9534,23 +9676,21 @@
         <v>45</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>431</v>
+        <v>75</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>498</v>
+        <v>76</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>499</v>
+        <v>77</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>501</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>45</v>
       </c>
@@ -9598,7 +9738,7 @@
         <v>45</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>497</v>
+        <v>82</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>43</v>
@@ -9610,7 +9750,7 @@
         <v>45</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>45</v>
@@ -9619,10 +9759,10 @@
         <v>45</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>502</v>
+        <v>45</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>503</v>
+        <v>72</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>45</v>
@@ -9633,39 +9773,43 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>504</v>
+        <v>483</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>45</v>
+        <v>484</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H67" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>69</v>
+        <v>485</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="M67" s="2"/>
-      <c r="N67" s="2"/>
+        <v>486</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>487</v>
+      </c>
       <c r="O67" t="s" s="2">
         <v>45</v>
       </c>
@@ -9713,19 +9857,19 @@
         <v>45</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>71</v>
+        <v>488</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>45</v>
@@ -9737,7 +9881,7 @@
         <v>45</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>72</v>
+        <v>155</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>45</v>
@@ -9748,18 +9892,18 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>505</v>
+        <v>489</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>45</v>
@@ -9771,17 +9915,15 @@
         <v>45</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>75</v>
+        <v>490</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>76</v>
+        <v>491</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>492</v>
+      </c>
+      <c r="M68" s="2"/>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
         <v>45</v>
@@ -9830,19 +9972,19 @@
         <v>45</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>82</v>
+        <v>489</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>45</v>
+        <v>493</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>45</v>
@@ -9851,10 +9993,10 @@
         <v>45</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>45</v>
+        <v>494</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>72</v>
+        <v>495</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>45</v>
@@ -9865,43 +10007,39 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>506</v>
+        <v>496</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>442</v>
+        <v>45</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H69" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>75</v>
+        <v>490</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>443</v>
+        <v>497</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>445</v>
-      </c>
+        <v>498</v>
+      </c>
+      <c r="M69" s="2"/>
+      <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
         <v>45</v>
       </c>
@@ -9949,19 +10087,19 @@
         <v>45</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>446</v>
+        <v>496</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>45</v>
+        <v>493</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>45</v>
@@ -9970,10 +10108,10 @@
         <v>45</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>45</v>
+        <v>494</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>155</v>
+        <v>499</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>45</v>
@@ -9984,7 +10122,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9992,7 +10130,7 @@
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F70" t="s" s="2">
         <v>55</v>
@@ -10004,22 +10142,22 @@
         <v>45</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>219</v>
+        <v>504</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>45</v>
@@ -10044,13 +10182,13 @@
         <v>45</v>
       </c>
       <c r="W70" t="s" s="2">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>220</v>
+        <v>505</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>221</v>
+        <v>506</v>
       </c>
       <c r="Z70" t="s" s="2">
         <v>45</v>
@@ -10068,10 +10206,10 @@
         <v>45</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>55</v>
@@ -10086,16 +10224,16 @@
         <v>45</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>224</v>
+        <v>508</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>225</v>
+        <v>425</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>226</v>
+        <v>45</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>45</v>
@@ -10103,7 +10241,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10114,7 +10252,7 @@
         <v>43</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>45</v>
@@ -10123,22 +10261,22 @@
         <v>45</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J71" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="N71" t="s" s="2">
         <v>513</v>
-      </c>
-      <c r="K71" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="L71" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>314</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>45</v>
@@ -10163,13 +10301,13 @@
         <v>45</v>
       </c>
       <c r="W71" t="s" s="2">
-        <v>45</v>
+        <v>122</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>45</v>
+        <v>514</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>45</v>
+        <v>515</v>
       </c>
       <c r="Z71" t="s" s="2">
         <v>45</v>
@@ -10187,13 +10325,13 @@
         <v>45</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>45</v>
@@ -10205,24 +10343,24 @@
         <v>45</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>317</v>
+        <v>508</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>318</v>
+        <v>425</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO71" t="s" s="2">
-        <v>319</v>
+        <v>45</v>
       </c>
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10245,7 +10383,7 @@
         <v>45</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>204</v>
+        <v>517</v>
       </c>
       <c r="K72" t="s" s="2">
         <v>518</v>
@@ -10253,11 +10391,9 @@
       <c r="L72" t="s" s="2">
         <v>519</v>
       </c>
-      <c r="M72" t="s" s="2">
+      <c r="M72" s="2"/>
+      <c r="N72" t="s" s="2">
         <v>520</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>368</v>
       </c>
       <c r="O72" t="s" s="2">
         <v>45</v>
@@ -10282,13 +10418,13 @@
         <v>45</v>
       </c>
       <c r="W72" t="s" s="2">
-        <v>113</v>
+        <v>45</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>369</v>
+        <v>45</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>370</v>
+        <v>45</v>
       </c>
       <c r="Z72" t="s" s="2">
         <v>45</v>
@@ -10306,7 +10442,7 @@
         <v>45</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>43</v>
@@ -10315,7 +10451,7 @@
         <v>55</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>371</v>
+        <v>45</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>67</v>
@@ -10327,10 +10463,10 @@
         <v>45</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>155</v>
+        <v>45</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>372</v>
+        <v>521</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>45</v>
@@ -10341,18 +10477,18 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>374</v>
+        <v>45</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>45</v>
@@ -10364,20 +10500,16 @@
         <v>45</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>204</v>
+        <v>57</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>375</v>
+        <v>523</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>378</v>
-      </c>
+        <v>524</v>
+      </c>
+      <c r="M73" s="2"/>
+      <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
         <v>45</v>
       </c>
@@ -10401,13 +10533,13 @@
         <v>45</v>
       </c>
       <c r="W73" t="s" s="2">
-        <v>113</v>
+        <v>45</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>379</v>
+        <v>45</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>380</v>
+        <v>45</v>
       </c>
       <c r="Z73" t="s" s="2">
         <v>45</v>
@@ -10425,13 +10557,13 @@
         <v>45</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>45</v>
@@ -10443,24 +10575,24 @@
         <v>45</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>381</v>
+        <v>45</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>382</v>
+        <v>494</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>383</v>
+        <v>525</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO73" t="s" s="2">
-        <v>384</v>
+        <v>45</v>
       </c>
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10471,7 +10603,7 @@
         <v>43</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>45</v>
@@ -10480,23 +10612,21 @@
         <v>45</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>45</v>
+        <v>527</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>435</v>
-      </c>
+        <v>530</v>
+      </c>
+      <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
         <v>45</v>
       </c>
@@ -10544,7 +10674,7 @@
         <v>45</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>43</v>
@@ -10565,20 +10695,1202 @@
         <v>45</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>437</v>
+        <v>531</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>438</v>
+        <v>532</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO74" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="75" hidden="true">
+      <c r="A75" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="B75" s="2"/>
+      <c r="C75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D75" s="2"/>
+      <c r="E75" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F75" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="N75" s="2"/>
+      <c r="O75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P75" s="2"/>
+      <c r="Q75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE75" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL75" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="AM75" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="AN75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO75" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="B76" s="2"/>
+      <c r="C76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D76" s="2"/>
+      <c r="E76" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F76" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="J76" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="O76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P76" s="2"/>
+      <c r="Q76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="AM76" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="AN76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO76" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="77" hidden="true">
+      <c r="A77" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="B77" s="2"/>
+      <c r="C77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D77" s="2"/>
+      <c r="E77" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F77" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J77" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="M77" s="2"/>
+      <c r="N77" s="2"/>
+      <c r="O77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P77" s="2"/>
+      <c r="Q77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE77" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF77" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM77" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AN77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO77" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="78" hidden="true">
+      <c r="A78" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="B78" s="2"/>
+      <c r="C78" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D78" s="2"/>
+      <c r="E78" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J78" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="N78" s="2"/>
+      <c r="O78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P78" s="2"/>
+      <c r="Q78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE78" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF78" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM78" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AN78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO78" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="79" hidden="true">
+      <c r="A79" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="B79" s="2"/>
+      <c r="C79" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="D79" s="2"/>
+      <c r="E79" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="I79" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="J79" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K79" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="L79" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="N79" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="O79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P79" s="2"/>
+      <c r="Q79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE79" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="AF79" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM79" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AN79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO79" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="B80" s="2"/>
+      <c r="C80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D80" s="2"/>
+      <c r="E80" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="F80" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G80" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I80" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="J80" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="K80" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="N80" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="O80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P80" s="2"/>
+      <c r="Q80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W80" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="X80" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="Y80" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="Z80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE80" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="AF80" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK80" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="AL80" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="AM80" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="AN80" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="AO80" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="B81" s="2"/>
+      <c r="C81" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D81" s="2"/>
+      <c r="E81" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F81" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G81" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="H81" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I81" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="J81" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="K81" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="L81" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="M81" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="N81" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="O81" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P81" s="2"/>
+      <c r="Q81" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R81" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S81" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T81" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U81" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V81" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W81" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="X81" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="Y81" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="Z81" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA81" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB81" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC81" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD81" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE81" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="AF81" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG81" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH81" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="AI81" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK81" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="AL81" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="AM81" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="AN81" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO81" t="s" s="2">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="B82" s="2"/>
+      <c r="C82" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D82" s="2"/>
+      <c r="E82" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F82" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G82" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="H82" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I82" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J82" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="K82" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="L82" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="N82" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="O82" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P82" s="2"/>
+      <c r="Q82" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R82" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S82" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T82" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U82" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V82" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W82" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="X82" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="Y82" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="Z82" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA82" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD82" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE82" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="AF82" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG82" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH82" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="AI82" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK82" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL82" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AM82" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="AN82" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO82" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="83" hidden="true">
+      <c r="A83" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="B83" s="2"/>
+      <c r="C83" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="D83" s="2"/>
+      <c r="E83" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F83" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G83" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H83" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I83" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J83" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="K83" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="L83" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="N83" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="O83" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P83" s="2"/>
+      <c r="Q83" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R83" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S83" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T83" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U83" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V83" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W83" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="X83" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="Y83" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="Z83" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA83" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB83" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC83" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD83" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE83" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="AF83" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG83" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH83" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI83" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ83" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK83" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="AL83" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="AM83" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="AN83" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO83" t="s" s="2">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="84" hidden="true">
+      <c r="A84" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="B84" s="2"/>
+      <c r="C84" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D84" s="2"/>
+      <c r="E84" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F84" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G84" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H84" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I84" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J84" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="K84" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="L84" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="M84" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="N84" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="O84" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P84" s="2"/>
+      <c r="Q84" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R84" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S84" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T84" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U84" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V84" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W84" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X84" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y84" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z84" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA84" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB84" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC84" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD84" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE84" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="AF84" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG84" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH84" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI84" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ84" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK84" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL84" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="AM84" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="AN84" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO84" t="s" s="2">
         <v>45</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO74">
+  <autoFilter ref="A1:AO84">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -10588,7 +11900,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI73">
+  <conditionalFormatting sqref="A2:AI83">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/docs/StructureDefinition-VA.MHV.bloodOxygenSat.xlsx
+++ b/docs/StructureDefinition-VA.MHV.bloodOxygenSat.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3132" uniqueCount="573">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3132" uniqueCount="572">
   <si>
     <t>Path</t>
   </si>
@@ -625,9 +625,6 @@
   </si>
   <si>
     <t>Need to track the status of individual results. Some results are finalized before the whole report is finalized.</t>
-  </si>
-  <si>
-    <t>final</t>
   </si>
   <si>
     <t>required</t>
@@ -4517,26 +4514,26 @@
         <v>45</v>
       </c>
       <c r="R22" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S22" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T22" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U22" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V22" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W22" t="s" s="2">
         <v>194</v>
-      </c>
-      <c r="S22" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T22" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U22" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V22" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W22" t="s" s="2">
-        <v>195</v>
       </c>
       <c r="X22" s="2"/>
       <c r="Y22" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>45</v>
@@ -4569,19 +4566,19 @@
         <v>67</v>
       </c>
       <c r="AJ22" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="AK22" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="AK22" t="s" s="2">
+      <c r="AL22" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="AL22" t="s" s="2">
+      <c r="AM22" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="AM22" t="s" s="2">
+      <c r="AN22" t="s" s="2">
         <v>200</v>
-      </c>
-      <c r="AN22" t="s" s="2">
-        <v>201</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>45</v>
@@ -4589,7 +4586,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4612,19 +4609,19 @@
         <v>45</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="K23" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="K23" t="s" s="2">
+      <c r="L23" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>45</v>
@@ -4634,7 +4631,7 @@
         <v>45</v>
       </c>
       <c r="R23" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>45</v>
@@ -4652,16 +4649,16 @@
         <v>136</v>
       </c>
       <c r="X23" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="Y23" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="Y23" t="s" s="2">
+      <c r="Z23" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA23" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="Z23" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA23" t="s" s="2">
-        <v>211</v>
       </c>
       <c r="AB23" s="2"/>
       <c r="AC23" t="s" s="2">
@@ -4671,7 +4668,7 @@
         <v>81</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>43</v>
@@ -4695,10 +4692,10 @@
         <v>45</v>
       </c>
       <c r="AM23" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="AN23" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="AN23" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>45</v>
@@ -4706,10 +4703,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C24" t="s" s="2">
         <v>45</v>
@@ -4731,19 +4728,19 @@
         <v>45</v>
       </c>
       <c r="J24" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="K24" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="K24" t="s" s="2">
+      <c r="L24" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>45</v>
@@ -4771,11 +4768,11 @@
         <v>136</v>
       </c>
       <c r="X24" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="Y24" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="Y24" t="s" s="2">
-        <v>210</v>
-      </c>
       <c r="Z24" t="s" s="2">
         <v>45</v>
       </c>
@@ -4792,7 +4789,7 @@
         <v>45</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>43</v>
@@ -4816,10 +4813,10 @@
         <v>45</v>
       </c>
       <c r="AM24" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="AN24" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="AN24" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>45</v>
@@ -4827,7 +4824,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4942,7 +4939,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -5059,7 +5056,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -5085,16 +5082,16 @@
         <v>109</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>45</v>
@@ -5143,7 +5140,7 @@
         <v>45</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>43</v>
@@ -5164,10 +5161,10 @@
         <v>45</v>
       </c>
       <c r="AL27" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="AM27" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="AM27" t="s" s="2">
-        <v>224</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>45</v>
@@ -5178,7 +5175,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5293,7 +5290,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5410,7 +5407,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5436,65 +5433,65 @@
         <v>97</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>230</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>231</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P30" s="2"/>
       <c r="Q30" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="R30" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S30" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T30" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U30" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V30" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W30" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X30" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y30" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z30" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA30" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB30" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD30" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE30" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="R30" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S30" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T30" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U30" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V30" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W30" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X30" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y30" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z30" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA30" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB30" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC30" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD30" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE30" t="s" s="2">
-        <v>233</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>43</v>
@@ -5515,10 +5512,10 @@
         <v>45</v>
       </c>
       <c r="AL30" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="AM30" t="s" s="2">
         <v>234</v>
-      </c>
-      <c r="AM30" t="s" s="2">
-        <v>235</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>45</v>
@@ -5529,7 +5526,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5555,13 +5552,13 @@
         <v>57</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>238</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>239</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -5611,7 +5608,7 @@
         <v>45</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>43</v>
@@ -5632,10 +5629,10 @@
         <v>45</v>
       </c>
       <c r="AL31" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="AM31" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="AM31" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>45</v>
@@ -5646,7 +5643,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5672,63 +5669,63 @@
         <v>132</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>244</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>245</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P32" s="2"/>
       <c r="Q32" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="R32" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S32" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T32" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U32" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V32" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W32" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X32" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y32" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z32" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA32" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB32" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD32" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE32" t="s" s="2">
         <v>247</v>
-      </c>
-      <c r="R32" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S32" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T32" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U32" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V32" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W32" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X32" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y32" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z32" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA32" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB32" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC32" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD32" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE32" t="s" s="2">
-        <v>248</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>43</v>
@@ -5749,10 +5746,10 @@
         <v>45</v>
       </c>
       <c r="AL32" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="AM32" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="AM32" t="s" s="2">
-        <v>250</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>45</v>
@@ -5763,7 +5760,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5789,14 +5786,14 @@
         <v>57</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>252</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>253</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>45</v>
@@ -5845,7 +5842,7 @@
         <v>45</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>43</v>
@@ -5866,10 +5863,10 @@
         <v>45</v>
       </c>
       <c r="AL33" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="AM33" t="s" s="2">
         <v>256</v>
-      </c>
-      <c r="AM33" t="s" s="2">
-        <v>257</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>45</v>
@@ -5880,7 +5877,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5903,19 +5900,19 @@
         <v>56</v>
       </c>
       <c r="J34" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="K34" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="K34" t="s" s="2">
+      <c r="L34" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="M34" t="s" s="2">
+      <c r="N34" t="s" s="2">
         <v>262</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>263</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>45</v>
@@ -5964,7 +5961,7 @@
         <v>45</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>43</v>
@@ -5985,10 +5982,10 @@
         <v>45</v>
       </c>
       <c r="AL34" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="AM34" t="s" s="2">
         <v>265</v>
-      </c>
-      <c r="AM34" t="s" s="2">
-        <v>266</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>45</v>
@@ -5999,7 +5996,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6025,16 +6022,16 @@
         <v>57</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="M35" t="s" s="2">
+      <c r="N35" t="s" s="2">
         <v>270</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>271</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>45</v>
@@ -6083,7 +6080,7 @@
         <v>45</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>43</v>
@@ -6104,10 +6101,10 @@
         <v>45</v>
       </c>
       <c r="AL35" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="AM35" t="s" s="2">
         <v>273</v>
-      </c>
-      <c r="AM35" t="s" s="2">
-        <v>274</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>45</v>
@@ -6118,11 +6115,11 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -6141,19 +6138,19 @@
         <v>56</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="M36" t="s" s="2">
+      <c r="N36" t="s" s="2">
         <v>279</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>280</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>45</v>
@@ -6181,11 +6178,11 @@
         <v>113</v>
       </c>
       <c r="X36" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="Y36" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="Y36" t="s" s="2">
-        <v>282</v>
-      </c>
       <c r="Z36" t="s" s="2">
         <v>45</v>
       </c>
@@ -6202,7 +6199,7 @@
         <v>45</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>55</v>
@@ -6217,27 +6214,27 @@
         <v>67</v>
       </c>
       <c r="AJ36" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="AK36" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="AK36" t="s" s="2">
+      <c r="AL36" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="AL36" t="s" s="2">
+      <c r="AM36" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="AM36" t="s" s="2">
+      <c r="AN36" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="AN36" t="s" s="2">
+      <c r="AO36" t="s" s="2">
         <v>287</v>
-      </c>
-      <c r="AO36" t="s" s="2">
-        <v>288</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6352,7 +6349,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6469,7 +6466,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6495,16 +6492,16 @@
         <v>109</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="M39" t="s" s="2">
+      <c r="N39" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>45</v>
@@ -6553,7 +6550,7 @@
         <v>45</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>43</v>
@@ -6574,10 +6571,10 @@
         <v>45</v>
       </c>
       <c r="AL39" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="AM39" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="AM39" t="s" s="2">
-        <v>224</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>45</v>
@@ -6588,7 +6585,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6614,16 +6611,16 @@
         <v>57</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="M40" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="M40" t="s" s="2">
+      <c r="N40" t="s" s="2">
         <v>270</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>271</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>45</v>
@@ -6672,7 +6669,7 @@
         <v>45</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>43</v>
@@ -6693,10 +6690,10 @@
         <v>45</v>
       </c>
       <c r="AL40" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="AM40" t="s" s="2">
         <v>273</v>
-      </c>
-      <c r="AM40" t="s" s="2">
-        <v>274</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>45</v>
@@ -6707,7 +6704,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6730,19 +6727,19 @@
         <v>56</v>
       </c>
       <c r="J41" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="K41" t="s" s="2">
         <v>294</v>
       </c>
-      <c r="K41" t="s" s="2">
+      <c r="L41" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="M41" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="M41" t="s" s="2">
+      <c r="N41" t="s" s="2">
         <v>297</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>298</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>45</v>
@@ -6791,7 +6788,7 @@
         <v>45</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>43</v>
@@ -6806,19 +6803,19 @@
         <v>67</v>
       </c>
       <c r="AJ41" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="AK41" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL41" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="AK41" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL41" t="s" s="2">
+      <c r="AM41" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="AM41" t="s" s="2">
+      <c r="AN41" t="s" s="2">
         <v>301</v>
-      </c>
-      <c r="AN41" t="s" s="2">
-        <v>302</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>45</v>
@@ -6826,7 +6823,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6849,16 +6846,16 @@
         <v>56</v>
       </c>
       <c r="J42" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="K42" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="K42" t="s" s="2">
+      <c r="L42" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>306</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>307</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -6908,7 +6905,7 @@
         <v>45</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>43</v>
@@ -6929,13 +6926,13 @@
         <v>45</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>45</v>
@@ -6943,11 +6940,11 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
@@ -6966,19 +6963,19 @@
         <v>56</v>
       </c>
       <c r="J43" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="K43" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="K43" t="s" s="2">
+      <c r="L43" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>313</v>
       </c>
-      <c r="M43" t="s" s="2">
+      <c r="N43" t="s" s="2">
         <v>314</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>315</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>45</v>
@@ -7027,7 +7024,7 @@
         <v>45</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>43</v>
@@ -7042,19 +7039,19 @@
         <v>67</v>
       </c>
       <c r="AJ43" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="AK43" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL43" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="AK43" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL43" t="s" s="2">
+      <c r="AM43" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="AM43" t="s" s="2">
+      <c r="AN43" t="s" s="2">
         <v>318</v>
-      </c>
-      <c r="AN43" t="s" s="2">
-        <v>319</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>45</v>
@@ -7062,11 +7059,11 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
@@ -7085,19 +7082,19 @@
         <v>56</v>
       </c>
       <c r="J44" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="K44" t="s" s="2">
         <v>322</v>
       </c>
-      <c r="K44" t="s" s="2">
+      <c r="L44" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="M44" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="M44" t="s" s="2">
+      <c r="N44" t="s" s="2">
         <v>325</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>326</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>45</v>
@@ -7134,17 +7131,17 @@
         <v>45</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AB44" s="2"/>
       <c r="AC44" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>43</v>
@@ -7153,25 +7150,25 @@
         <v>55</v>
       </c>
       <c r="AH44" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="AI44" t="s" s="2">
         <v>329</v>
       </c>
-      <c r="AI44" t="s" s="2">
+      <c r="AJ44" t="s" s="2">
         <v>330</v>
       </c>
-      <c r="AJ44" t="s" s="2">
+      <c r="AK44" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL44" t="s" s="2">
         <v>331</v>
       </c>
-      <c r="AK44" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL44" t="s" s="2">
+      <c r="AM44" t="s" s="2">
         <v>332</v>
       </c>
-      <c r="AM44" t="s" s="2">
+      <c r="AN44" t="s" s="2">
         <v>333</v>
-      </c>
-      <c r="AN44" t="s" s="2">
-        <v>334</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>45</v>
@@ -7179,13 +7176,13 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="B45" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="C45" t="s" s="2">
         <v>320</v>
-      </c>
-      <c r="B45" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="C45" t="s" s="2">
-        <v>321</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
@@ -7204,19 +7201,19 @@
         <v>56</v>
       </c>
       <c r="J45" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="K45" t="s" s="2">
         <v>322</v>
       </c>
-      <c r="K45" t="s" s="2">
+      <c r="L45" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="M45" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="M45" t="s" s="2">
+      <c r="N45" t="s" s="2">
         <v>325</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>326</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>45</v>
@@ -7265,7 +7262,7 @@
         <v>45</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>43</v>
@@ -7274,25 +7271,25 @@
         <v>55</v>
       </c>
       <c r="AH45" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="AI45" t="s" s="2">
         <v>329</v>
       </c>
-      <c r="AI45" t="s" s="2">
+      <c r="AJ45" t="s" s="2">
         <v>330</v>
       </c>
-      <c r="AJ45" t="s" s="2">
+      <c r="AK45" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL45" t="s" s="2">
         <v>331</v>
       </c>
-      <c r="AK45" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL45" t="s" s="2">
+      <c r="AM45" t="s" s="2">
         <v>332</v>
       </c>
-      <c r="AM45" t="s" s="2">
+      <c r="AN45" t="s" s="2">
         <v>333</v>
-      </c>
-      <c r="AN45" t="s" s="2">
-        <v>334</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>45</v>
@@ -7300,7 +7297,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7326,13 +7323,13 @@
         <v>91</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="L46" t="s" s="2">
+      <c r="M46" t="s" s="2">
         <v>338</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>339</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
@@ -7382,7 +7379,7 @@
         <v>45</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>43</v>
@@ -7403,13 +7400,13 @@
         <v>45</v>
       </c>
       <c r="AL46" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="AM46" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="AM46" t="s" s="2">
+      <c r="AN46" t="s" s="2">
         <v>341</v>
-      </c>
-      <c r="AN46" t="s" s="2">
-        <v>342</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>45</v>
@@ -7417,7 +7414,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7440,17 +7437,17 @@
         <v>56</v>
       </c>
       <c r="J47" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="K47" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="K47" t="s" s="2">
+      <c r="L47" t="s" s="2">
         <v>345</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>346</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>45</v>
@@ -7499,7 +7496,7 @@
         <v>45</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>43</v>
@@ -7514,19 +7511,19 @@
         <v>67</v>
       </c>
       <c r="AJ47" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="AK47" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL47" t="s" s="2">
         <v>348</v>
       </c>
-      <c r="AK47" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL47" t="s" s="2">
+      <c r="AM47" t="s" s="2">
         <v>349</v>
       </c>
-      <c r="AM47" t="s" s="2">
+      <c r="AN47" t="s" s="2">
         <v>350</v>
-      </c>
-      <c r="AN47" t="s" s="2">
-        <v>351</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>45</v>
@@ -7534,7 +7531,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7557,19 +7554,19 @@
         <v>56</v>
       </c>
       <c r="J48" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="K48" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="K48" t="s" s="2">
+      <c r="L48" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="M48" t="s" s="2">
         <v>354</v>
       </c>
-      <c r="L48" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="M48" t="s" s="2">
+      <c r="N48" t="s" s="2">
         <v>355</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>356</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>45</v>
@@ -7606,17 +7603,17 @@
         <v>45</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AB48" s="2"/>
       <c r="AC48" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>43</v>
@@ -7625,7 +7622,7 @@
         <v>55</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>67</v>
@@ -7634,27 +7631,27 @@
         <v>45</v>
       </c>
       <c r="AK48" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="AL48" t="s" s="2">
         <v>358</v>
       </c>
-      <c r="AL48" t="s" s="2">
+      <c r="AM48" t="s" s="2">
         <v>359</v>
       </c>
-      <c r="AM48" t="s" s="2">
+      <c r="AN48" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO48" t="s" s="2">
         <v>360</v>
-      </c>
-      <c r="AN48" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO48" t="s" s="2">
-        <v>361</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C49" t="s" s="2">
         <v>45</v>
@@ -7676,19 +7673,19 @@
         <v>56</v>
       </c>
       <c r="J49" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="K49" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="K49" t="s" s="2">
+      <c r="L49" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="M49" t="s" s="2">
         <v>354</v>
       </c>
-      <c r="L49" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="M49" t="s" s="2">
+      <c r="N49" t="s" s="2">
         <v>355</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>356</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>45</v>
@@ -7737,7 +7734,7 @@
         <v>45</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>43</v>
@@ -7746,7 +7743,7 @@
         <v>55</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>67</v>
@@ -7755,24 +7752,24 @@
         <v>45</v>
       </c>
       <c r="AK49" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="AL49" t="s" s="2">
         <v>358</v>
       </c>
-      <c r="AL49" t="s" s="2">
+      <c r="AM49" t="s" s="2">
         <v>359</v>
       </c>
-      <c r="AM49" t="s" s="2">
+      <c r="AN49" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO49" t="s" s="2">
         <v>360</v>
-      </c>
-      <c r="AN49" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO49" t="s" s="2">
-        <v>361</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7887,7 +7884,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -8004,7 +8001,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8027,19 +8024,19 @@
         <v>56</v>
       </c>
       <c r="J52" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="K52" t="s" s="2">
         <v>366</v>
       </c>
-      <c r="K52" t="s" s="2">
+      <c r="L52" t="s" s="2">
         <v>367</v>
       </c>
-      <c r="L52" t="s" s="2">
+      <c r="M52" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="M52" t="s" s="2">
+      <c r="N52" t="s" s="2">
         <v>369</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>370</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>45</v>
@@ -8088,7 +8085,7 @@
         <v>45</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>43</v>
@@ -8109,10 +8106,10 @@
         <v>45</v>
       </c>
       <c r="AL52" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="AM52" t="s" s="2">
         <v>372</v>
-      </c>
-      <c r="AM52" t="s" s="2">
-        <v>373</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>45</v>
@@ -8123,7 +8120,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8149,65 +8146,65 @@
         <v>132</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>375</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>376</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="O53" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P53" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="O53" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P53" t="s" s="2">
+      <c r="Q53" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R53" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S53" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T53" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="X53" t="s" s="2">
         <v>378</v>
       </c>
-      <c r="Q53" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R53" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S53" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T53" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U53" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V53" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W53" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="X53" t="s" s="2">
+      <c r="Y53" t="s" s="2">
         <v>379</v>
       </c>
-      <c r="Y53" t="s" s="2">
+      <c r="Z53" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE53" t="s" s="2">
         <v>380</v>
-      </c>
-      <c r="Z53" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA53" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB53" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC53" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD53" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE53" t="s" s="2">
-        <v>381</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>43</v>
@@ -8228,10 +8225,10 @@
         <v>45</v>
       </c>
       <c r="AL53" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="AM53" t="s" s="2">
         <v>382</v>
-      </c>
-      <c r="AM53" t="s" s="2">
-        <v>383</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>45</v>
@@ -8242,7 +8239,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8268,14 +8265,14 @@
         <v>57</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>385</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>386</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>45</v>
@@ -8285,46 +8282,46 @@
         <v>45</v>
       </c>
       <c r="R54" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="S54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE54" t="s" s="2">
         <v>388</v>
-      </c>
-      <c r="S54" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T54" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U54" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V54" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W54" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X54" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y54" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z54" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA54" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB54" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC54" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD54" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE54" t="s" s="2">
-        <v>389</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>43</v>
@@ -8345,10 +8342,10 @@
         <v>45</v>
       </c>
       <c r="AL54" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="AM54" t="s" s="2">
         <v>390</v>
-      </c>
-      <c r="AM54" t="s" s="2">
-        <v>391</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>45</v>
@@ -8359,7 +8356,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8385,14 +8382,14 @@
         <v>97</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>393</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>394</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>45</v>
@@ -8441,7 +8438,7 @@
         <v>45</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>43</v>
@@ -8450,7 +8447,7 @@
         <v>55</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>67</v>
@@ -8462,10 +8459,10 @@
         <v>45</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>45</v>
@@ -8476,7 +8473,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8502,16 +8499,16 @@
         <v>132</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>400</v>
       </c>
-      <c r="L56" t="s" s="2">
+      <c r="M56" t="s" s="2">
         <v>401</v>
       </c>
-      <c r="M56" t="s" s="2">
+      <c r="N56" t="s" s="2">
         <v>402</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>403</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>45</v>
@@ -8560,7 +8557,7 @@
         <v>45</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>43</v>
@@ -8581,10 +8578,10 @@
         <v>45</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>45</v>
@@ -8595,7 +8592,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8618,19 +8615,19 @@
         <v>45</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>407</v>
       </c>
-      <c r="L57" t="s" s="2">
+      <c r="M57" t="s" s="2">
         <v>408</v>
       </c>
-      <c r="M57" t="s" s="2">
+      <c r="N57" t="s" s="2">
         <v>409</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>410</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>45</v>
@@ -8658,11 +8655,11 @@
         <v>113</v>
       </c>
       <c r="X57" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="Y57" t="s" s="2">
         <v>411</v>
       </c>
-      <c r="Y57" t="s" s="2">
-        <v>412</v>
-      </c>
       <c r="Z57" t="s" s="2">
         <v>45</v>
       </c>
@@ -8679,7 +8676,7 @@
         <v>45</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>43</v>
@@ -8688,7 +8685,7 @@
         <v>55</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>67</v>
@@ -8703,7 +8700,7 @@
         <v>155</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>45</v>
@@ -8714,11 +8711,11 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
@@ -8737,19 +8734,19 @@
         <v>45</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>417</v>
       </c>
-      <c r="L58" t="s" s="2">
+      <c r="M58" t="s" s="2">
         <v>418</v>
       </c>
-      <c r="M58" t="s" s="2">
+      <c r="N58" t="s" s="2">
         <v>419</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>420</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>45</v>
@@ -8777,11 +8774,11 @@
         <v>113</v>
       </c>
       <c r="X58" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="Y58" t="s" s="2">
         <v>421</v>
       </c>
-      <c r="Y58" t="s" s="2">
-        <v>422</v>
-      </c>
       <c r="Z58" t="s" s="2">
         <v>45</v>
       </c>
@@ -8798,7 +8795,7 @@
         <v>45</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>43</v>
@@ -8816,24 +8813,24 @@
         <v>45</v>
       </c>
       <c r="AK58" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="AL58" t="s" s="2">
         <v>423</v>
       </c>
-      <c r="AL58" t="s" s="2">
+      <c r="AM58" t="s" s="2">
         <v>424</v>
       </c>
-      <c r="AM58" t="s" s="2">
+      <c r="AN58" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO58" t="s" s="2">
         <v>425</v>
-      </c>
-      <c r="AN58" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO58" t="s" s="2">
-        <v>426</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8856,19 +8853,19 @@
         <v>45</v>
       </c>
       <c r="J59" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="K59" t="s" s="2">
         <v>428</v>
       </c>
-      <c r="K59" t="s" s="2">
+      <c r="L59" t="s" s="2">
         <v>429</v>
       </c>
-      <c r="L59" t="s" s="2">
+      <c r="M59" t="s" s="2">
         <v>430</v>
       </c>
-      <c r="M59" t="s" s="2">
+      <c r="N59" t="s" s="2">
         <v>431</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>432</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>45</v>
@@ -8917,7 +8914,7 @@
         <v>45</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>43</v>
@@ -8938,10 +8935,10 @@
         <v>45</v>
       </c>
       <c r="AL59" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="AM59" t="s" s="2">
         <v>433</v>
-      </c>
-      <c r="AM59" t="s" s="2">
-        <v>434</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>45</v>
@@ -8952,7 +8949,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8975,16 +8972,16 @@
         <v>45</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>436</v>
       </c>
-      <c r="L60" t="s" s="2">
+      <c r="M60" t="s" s="2">
         <v>437</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>438</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
@@ -9013,11 +9010,11 @@
         <v>122</v>
       </c>
       <c r="X60" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="Y60" t="s" s="2">
         <v>439</v>
       </c>
-      <c r="Y60" t="s" s="2">
-        <v>440</v>
-      </c>
       <c r="Z60" t="s" s="2">
         <v>45</v>
       </c>
@@ -9034,7 +9031,7 @@
         <v>45</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>43</v>
@@ -9052,24 +9049,24 @@
         <v>45</v>
       </c>
       <c r="AK60" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="AL60" t="s" s="2">
         <v>441</v>
       </c>
-      <c r="AL60" t="s" s="2">
+      <c r="AM60" t="s" s="2">
         <v>442</v>
       </c>
-      <c r="AM60" t="s" s="2">
+      <c r="AN60" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO60" t="s" s="2">
         <v>443</v>
-      </c>
-      <c r="AN60" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO60" t="s" s="2">
-        <v>444</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -9092,19 +9089,19 @@
         <v>45</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="L61" t="s" s="2">
         <v>446</v>
       </c>
-      <c r="L61" t="s" s="2">
+      <c r="M61" t="s" s="2">
         <v>447</v>
       </c>
-      <c r="M61" t="s" s="2">
+      <c r="N61" t="s" s="2">
         <v>448</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>449</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>45</v>
@@ -9132,11 +9129,11 @@
         <v>122</v>
       </c>
       <c r="X61" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="Y61" t="s" s="2">
         <v>450</v>
       </c>
-      <c r="Y61" t="s" s="2">
-        <v>451</v>
-      </c>
       <c r="Z61" t="s" s="2">
         <v>45</v>
       </c>
@@ -9153,7 +9150,7 @@
         <v>45</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>43</v>
@@ -9174,10 +9171,10 @@
         <v>45</v>
       </c>
       <c r="AL61" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="AM61" t="s" s="2">
         <v>452</v>
-      </c>
-      <c r="AM61" t="s" s="2">
-        <v>453</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>45</v>
@@ -9188,7 +9185,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9211,16 +9208,16 @@
         <v>45</v>
       </c>
       <c r="J62" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="K62" t="s" s="2">
         <v>455</v>
       </c>
-      <c r="K62" t="s" s="2">
+      <c r="L62" t="s" s="2">
         <v>456</v>
       </c>
-      <c r="L62" t="s" s="2">
+      <c r="M62" t="s" s="2">
         <v>457</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>458</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
@@ -9270,7 +9267,7 @@
         <v>45</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>43</v>
@@ -9288,24 +9285,24 @@
         <v>45</v>
       </c>
       <c r="AK62" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="AL62" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="AL62" t="s" s="2">
+      <c r="AM62" t="s" s="2">
         <v>460</v>
       </c>
-      <c r="AM62" t="s" s="2">
+      <c r="AN62" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO62" t="s" s="2">
         <v>461</v>
-      </c>
-      <c r="AN62" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO62" t="s" s="2">
-        <v>462</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9328,16 +9325,16 @@
         <v>45</v>
       </c>
       <c r="J63" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="K63" t="s" s="2">
         <v>464</v>
       </c>
-      <c r="K63" t="s" s="2">
+      <c r="L63" t="s" s="2">
         <v>465</v>
       </c>
-      <c r="L63" t="s" s="2">
+      <c r="M63" t="s" s="2">
         <v>466</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>467</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
@@ -9387,7 +9384,7 @@
         <v>45</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>43</v>
@@ -9405,24 +9402,24 @@
         <v>45</v>
       </c>
       <c r="AK63" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="AL63" t="s" s="2">
         <v>468</v>
       </c>
-      <c r="AL63" t="s" s="2">
+      <c r="AM63" t="s" s="2">
         <v>469</v>
       </c>
-      <c r="AM63" t="s" s="2">
+      <c r="AN63" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO63" t="s" s="2">
         <v>470</v>
-      </c>
-      <c r="AN63" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO63" t="s" s="2">
-        <v>471</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9445,19 +9442,19 @@
         <v>45</v>
       </c>
       <c r="J64" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="K64" t="s" s="2">
         <v>473</v>
       </c>
-      <c r="K64" t="s" s="2">
+      <c r="L64" t="s" s="2">
         <v>474</v>
       </c>
-      <c r="L64" t="s" s="2">
+      <c r="M64" t="s" s="2">
         <v>475</v>
       </c>
-      <c r="M64" t="s" s="2">
+      <c r="N64" t="s" s="2">
         <v>476</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>477</v>
       </c>
       <c r="O64" t="s" s="2">
         <v>45</v>
@@ -9506,7 +9503,7 @@
         <v>45</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>43</v>
@@ -9518,19 +9515,19 @@
         <v>45</v>
       </c>
       <c r="AI64" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK64" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL64" t="s" s="2">
         <v>478</v>
       </c>
-      <c r="AJ64" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK64" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL64" t="s" s="2">
+      <c r="AM64" t="s" s="2">
         <v>479</v>
-      </c>
-      <c r="AM64" t="s" s="2">
-        <v>480</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>45</v>
@@ -9541,7 +9538,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9656,7 +9653,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9773,11 +9770,11 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
@@ -9799,16 +9796,16 @@
         <v>75</v>
       </c>
       <c r="K67" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="L67" t="s" s="2">
         <v>485</v>
-      </c>
-      <c r="L67" t="s" s="2">
-        <v>486</v>
       </c>
       <c r="M67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>45</v>
@@ -9857,7 +9854,7 @@
         <v>45</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>43</v>
@@ -9892,7 +9889,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9915,13 +9912,13 @@
         <v>45</v>
       </c>
       <c r="J68" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="K68" t="s" s="2">
         <v>490</v>
       </c>
-      <c r="K68" t="s" s="2">
+      <c r="L68" t="s" s="2">
         <v>491</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>492</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -9972,7 +9969,7 @@
         <v>45</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>43</v>
@@ -9981,7 +9978,7 @@
         <v>55</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>67</v>
@@ -9993,10 +9990,10 @@
         <v>45</v>
       </c>
       <c r="AL68" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="AM68" t="s" s="2">
         <v>494</v>
-      </c>
-      <c r="AM68" t="s" s="2">
-        <v>495</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>45</v>
@@ -10007,7 +10004,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10030,13 +10027,13 @@
         <v>45</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="K69" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="L69" t="s" s="2">
         <v>497</v>
-      </c>
-      <c r="L69" t="s" s="2">
-        <v>498</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -10087,7 +10084,7 @@
         <v>45</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>43</v>
@@ -10096,7 +10093,7 @@
         <v>55</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>67</v>
@@ -10108,10 +10105,10 @@
         <v>45</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>45</v>
@@ -10122,7 +10119,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10145,19 +10142,19 @@
         <v>45</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="K70" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="L70" t="s" s="2">
         <v>501</v>
       </c>
-      <c r="L70" t="s" s="2">
+      <c r="M70" t="s" s="2">
         <v>502</v>
       </c>
-      <c r="M70" t="s" s="2">
+      <c r="N70" t="s" s="2">
         <v>503</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>504</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>45</v>
@@ -10185,11 +10182,11 @@
         <v>136</v>
       </c>
       <c r="X70" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="Y70" t="s" s="2">
         <v>505</v>
       </c>
-      <c r="Y70" t="s" s="2">
-        <v>506</v>
-      </c>
       <c r="Z70" t="s" s="2">
         <v>45</v>
       </c>
@@ -10206,7 +10203,7 @@
         <v>45</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>43</v>
@@ -10224,13 +10221,13 @@
         <v>45</v>
       </c>
       <c r="AK70" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="AL70" t="s" s="2">
         <v>507</v>
       </c>
-      <c r="AL70" t="s" s="2">
-        <v>508</v>
-      </c>
       <c r="AM70" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>45</v>
@@ -10241,7 +10238,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10264,19 +10261,19 @@
         <v>45</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="K71" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="L71" t="s" s="2">
         <v>510</v>
       </c>
-      <c r="L71" t="s" s="2">
+      <c r="M71" t="s" s="2">
         <v>511</v>
       </c>
-      <c r="M71" t="s" s="2">
+      <c r="N71" t="s" s="2">
         <v>512</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>513</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>45</v>
@@ -10304,11 +10301,11 @@
         <v>122</v>
       </c>
       <c r="X71" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="Y71" t="s" s="2">
         <v>514</v>
       </c>
-      <c r="Y71" t="s" s="2">
-        <v>515</v>
-      </c>
       <c r="Z71" t="s" s="2">
         <v>45</v>
       </c>
@@ -10325,7 +10322,7 @@
         <v>45</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>43</v>
@@ -10343,13 +10340,13 @@
         <v>45</v>
       </c>
       <c r="AK71" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="AL71" t="s" s="2">
         <v>507</v>
       </c>
-      <c r="AL71" t="s" s="2">
-        <v>508</v>
-      </c>
       <c r="AM71" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>45</v>
@@ -10360,7 +10357,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10383,17 +10380,17 @@
         <v>45</v>
       </c>
       <c r="J72" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="K72" t="s" s="2">
         <v>517</v>
       </c>
-      <c r="K72" t="s" s="2">
+      <c r="L72" t="s" s="2">
         <v>518</v>
-      </c>
-      <c r="L72" t="s" s="2">
-        <v>519</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" t="s" s="2">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="O72" t="s" s="2">
         <v>45</v>
@@ -10442,7 +10439,7 @@
         <v>45</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>43</v>
@@ -10466,7 +10463,7 @@
         <v>45</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>45</v>
@@ -10477,7 +10474,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10503,10 +10500,10 @@
         <v>57</v>
       </c>
       <c r="K73" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="L73" t="s" s="2">
         <v>523</v>
-      </c>
-      <c r="L73" t="s" s="2">
-        <v>524</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -10557,7 +10554,7 @@
         <v>45</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>43</v>
@@ -10578,10 +10575,10 @@
         <v>45</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>45</v>
@@ -10592,7 +10589,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10615,16 +10612,16 @@
         <v>56</v>
       </c>
       <c r="J74" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="K74" t="s" s="2">
         <v>527</v>
       </c>
-      <c r="K74" t="s" s="2">
+      <c r="L74" t="s" s="2">
         <v>528</v>
       </c>
-      <c r="L74" t="s" s="2">
+      <c r="M74" t="s" s="2">
         <v>529</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>530</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
@@ -10674,7 +10671,7 @@
         <v>45</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>43</v>
@@ -10695,10 +10692,10 @@
         <v>45</v>
       </c>
       <c r="AL74" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="AM74" t="s" s="2">
         <v>531</v>
-      </c>
-      <c r="AM74" t="s" s="2">
-        <v>532</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>45</v>
@@ -10709,7 +10706,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10732,16 +10729,16 @@
         <v>56</v>
       </c>
       <c r="J75" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="K75" t="s" s="2">
         <v>534</v>
       </c>
-      <c r="K75" t="s" s="2">
+      <c r="L75" t="s" s="2">
         <v>535</v>
       </c>
-      <c r="L75" t="s" s="2">
+      <c r="M75" t="s" s="2">
         <v>536</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>537</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
@@ -10791,7 +10788,7 @@
         <v>45</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>43</v>
@@ -10812,10 +10809,10 @@
         <v>45</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>45</v>
@@ -10826,7 +10823,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10849,19 +10846,19 @@
         <v>56</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="K76" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="M76" t="s" s="2">
         <v>540</v>
       </c>
-      <c r="L76" t="s" s="2">
-        <v>540</v>
-      </c>
-      <c r="M76" t="s" s="2">
+      <c r="N76" t="s" s="2">
         <v>541</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>542</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>45</v>
@@ -10910,7 +10907,7 @@
         <v>45</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>43</v>
@@ -10922,19 +10919,19 @@
         <v>45</v>
       </c>
       <c r="AI76" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL76" t="s" s="2">
         <v>543</v>
       </c>
-      <c r="AJ76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL76" t="s" s="2">
+      <c r="AM76" t="s" s="2">
         <v>544</v>
-      </c>
-      <c r="AM76" t="s" s="2">
-        <v>545</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>45</v>
@@ -10945,7 +10942,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -11060,7 +11057,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -11177,11 +11174,11 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
@@ -11203,16 +11200,16 @@
         <v>75</v>
       </c>
       <c r="K79" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="L79" t="s" s="2">
         <v>485</v>
-      </c>
-      <c r="L79" t="s" s="2">
-        <v>486</v>
       </c>
       <c r="M79" t="s" s="2">
         <v>78</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="O79" t="s" s="2">
         <v>45</v>
@@ -11261,7 +11258,7 @@
         <v>45</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>43</v>
@@ -11296,7 +11293,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11319,19 +11316,19 @@
         <v>56</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="K80" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="L80" t="s" s="2">
         <v>550</v>
       </c>
-      <c r="L80" t="s" s="2">
+      <c r="M80" t="s" s="2">
         <v>551</v>
       </c>
-      <c r="M80" t="s" s="2">
+      <c r="N80" t="s" s="2">
         <v>552</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>553</v>
       </c>
       <c r="O80" t="s" s="2">
         <v>45</v>
@@ -11359,11 +11356,11 @@
         <v>113</v>
       </c>
       <c r="X80" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="Y80" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="Y80" t="s" s="2">
-        <v>282</v>
-      </c>
       <c r="Z80" t="s" s="2">
         <v>45</v>
       </c>
@@ -11380,7 +11377,7 @@
         <v>45</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>55</v>
@@ -11398,16 +11395,16 @@
         <v>45</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="AL80" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="AM80" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="AM80" t="s" s="2">
+      <c r="AN80" t="s" s="2">
         <v>286</v>
-      </c>
-      <c r="AN80" t="s" s="2">
-        <v>287</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>45</v>
@@ -11415,7 +11412,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11438,19 +11435,19 @@
         <v>56</v>
       </c>
       <c r="J81" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="K81" t="s" s="2">
         <v>556</v>
       </c>
-      <c r="K81" t="s" s="2">
+      <c r="L81" t="s" s="2">
         <v>557</v>
       </c>
-      <c r="L81" t="s" s="2">
+      <c r="M81" t="s" s="2">
         <v>558</v>
       </c>
-      <c r="M81" t="s" s="2">
-        <v>559</v>
-      </c>
       <c r="N81" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="O81" t="s" s="2">
         <v>45</v>
@@ -11475,14 +11472,14 @@
         <v>45</v>
       </c>
       <c r="W81" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="X81" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="Y81" t="s" s="2">
         <v>560</v>
       </c>
-      <c r="Y81" t="s" s="2">
-        <v>561</v>
-      </c>
       <c r="Z81" t="s" s="2">
         <v>45</v>
       </c>
@@ -11499,7 +11496,7 @@
         <v>45</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>43</v>
@@ -11508,7 +11505,7 @@
         <v>55</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>67</v>
@@ -11517,24 +11514,24 @@
         <v>45</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="AL81" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="AM81" t="s" s="2">
         <v>359</v>
       </c>
-      <c r="AM81" t="s" s="2">
+      <c r="AN81" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO81" t="s" s="2">
         <v>360</v>
-      </c>
-      <c r="AN81" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO81" t="s" s="2">
-        <v>361</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11557,19 +11554,19 @@
         <v>45</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="K82" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="L82" t="s" s="2">
         <v>565</v>
       </c>
-      <c r="L82" t="s" s="2">
+      <c r="M82" t="s" s="2">
         <v>566</v>
       </c>
-      <c r="M82" t="s" s="2">
-        <v>567</v>
-      </c>
       <c r="N82" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="O82" t="s" s="2">
         <v>45</v>
@@ -11597,11 +11594,11 @@
         <v>113</v>
       </c>
       <c r="X82" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="Y82" t="s" s="2">
         <v>411</v>
       </c>
-      <c r="Y82" t="s" s="2">
-        <v>412</v>
-      </c>
       <c r="Z82" t="s" s="2">
         <v>45</v>
       </c>
@@ -11618,7 +11615,7 @@
         <v>45</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>43</v>
@@ -11627,7 +11624,7 @@
         <v>55</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="AI82" t="s" s="2">
         <v>67</v>
@@ -11642,7 +11639,7 @@
         <v>155</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>45</v>
@@ -11653,11 +11650,11 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
@@ -11676,19 +11673,19 @@
         <v>45</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="K83" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="L83" t="s" s="2">
         <v>417</v>
       </c>
-      <c r="L83" t="s" s="2">
+      <c r="M83" t="s" s="2">
         <v>418</v>
       </c>
-      <c r="M83" t="s" s="2">
+      <c r="N83" t="s" s="2">
         <v>419</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>420</v>
       </c>
       <c r="O83" t="s" s="2">
         <v>45</v>
@@ -11716,11 +11713,11 @@
         <v>113</v>
       </c>
       <c r="X83" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="Y83" t="s" s="2">
         <v>421</v>
       </c>
-      <c r="Y83" t="s" s="2">
-        <v>422</v>
-      </c>
       <c r="Z83" t="s" s="2">
         <v>45</v>
       </c>
@@ -11737,7 +11734,7 @@
         <v>45</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>43</v>
@@ -11755,24 +11752,24 @@
         <v>45</v>
       </c>
       <c r="AK83" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="AL83" t="s" s="2">
         <v>423</v>
       </c>
-      <c r="AL83" t="s" s="2">
+      <c r="AM83" t="s" s="2">
         <v>424</v>
       </c>
-      <c r="AM83" t="s" s="2">
+      <c r="AN83" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO83" t="s" s="2">
         <v>425</v>
-      </c>
-      <c r="AN83" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO83" t="s" s="2">
-        <v>426</v>
       </c>
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11798,16 +11795,16 @@
         <v>45</v>
       </c>
       <c r="K84" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="L84" t="s" s="2">
         <v>571</v>
       </c>
-      <c r="L84" t="s" s="2">
-        <v>572</v>
-      </c>
       <c r="M84" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="N84" t="s" s="2">
         <v>476</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>477</v>
       </c>
       <c r="O84" t="s" s="2">
         <v>45</v>
@@ -11856,7 +11853,7 @@
         <v>45</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>43</v>
@@ -11877,10 +11874,10 @@
         <v>45</v>
       </c>
       <c r="AL84" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="AM84" t="s" s="2">
         <v>479</v>
-      </c>
-      <c r="AM84" t="s" s="2">
-        <v>480</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>45</v>

--- a/docs/StructureDefinition-VA.MHV.bloodOxygenSat.xlsx
+++ b/docs/StructureDefinition-VA.MHV.bloodOxygenSat.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3132" uniqueCount="572">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3132" uniqueCount="571">
   <si>
     <t>Path</t>
   </si>
@@ -665,14 +665,6 @@
   </si>
   <si>
     <t>Used for filtering what observations are retrieved and displayed.</t>
-  </si>
-  <si>
-    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
-  &lt;coding&gt;
-    &lt;system value="http://terminology.hl7.org/CodeSystem/observation-category"/&gt;
-    &lt;code value="vital-signs"/&gt;
-  &lt;/coding&gt;
-&lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
     <t>Codes for high level observation categories.</t>
@@ -4631,7 +4623,7 @@
         <v>45</v>
       </c>
       <c r="R23" t="s" s="2">
-        <v>207</v>
+        <v>45</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>45</v>
@@ -4649,16 +4641,16 @@
         <v>136</v>
       </c>
       <c r="X23" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="Y23" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="Y23" t="s" s="2">
+      <c r="Z23" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA23" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="Z23" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA23" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="AB23" s="2"/>
       <c r="AC23" t="s" s="2">
@@ -4692,10 +4684,10 @@
         <v>45</v>
       </c>
       <c r="AM23" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="AN23" t="s" s="2">
         <v>211</v>
-      </c>
-      <c r="AN23" t="s" s="2">
-        <v>212</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>45</v>
@@ -4706,7 +4698,7 @@
         <v>201</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C24" t="s" s="2">
         <v>45</v>
@@ -4768,10 +4760,10 @@
         <v>136</v>
       </c>
       <c r="X24" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="Y24" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="Y24" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>45</v>
@@ -4813,10 +4805,10 @@
         <v>45</v>
       </c>
       <c r="AM24" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="AN24" t="s" s="2">
         <v>211</v>
-      </c>
-      <c r="AN24" t="s" s="2">
-        <v>212</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>45</v>
@@ -4824,7 +4816,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4939,7 +4931,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -5056,7 +5048,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -5082,16 +5074,16 @@
         <v>109</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>219</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>220</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>45</v>
@@ -5140,7 +5132,7 @@
         <v>45</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>43</v>
@@ -5161,10 +5153,10 @@
         <v>45</v>
       </c>
       <c r="AL27" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AM27" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="AM27" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>45</v>
@@ -5175,7 +5167,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5290,7 +5282,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5407,7 +5399,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5433,65 +5425,65 @@
         <v>97</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>230</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P30" s="2"/>
       <c r="Q30" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="R30" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S30" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T30" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U30" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V30" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W30" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X30" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y30" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z30" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA30" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB30" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD30" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE30" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="R30" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S30" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T30" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U30" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V30" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W30" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X30" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y30" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z30" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA30" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB30" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC30" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD30" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE30" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>43</v>
@@ -5512,10 +5504,10 @@
         <v>45</v>
       </c>
       <c r="AL30" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="AM30" t="s" s="2">
         <v>233</v>
-      </c>
-      <c r="AM30" t="s" s="2">
-        <v>234</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>45</v>
@@ -5526,7 +5518,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5552,13 +5544,13 @@
         <v>57</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>238</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -5608,7 +5600,7 @@
         <v>45</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>43</v>
@@ -5629,10 +5621,10 @@
         <v>45</v>
       </c>
       <c r="AL31" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="AM31" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="AM31" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>45</v>
@@ -5643,7 +5635,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5669,63 +5661,63 @@
         <v>132</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>243</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>244</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P32" s="2"/>
       <c r="Q32" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="R32" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S32" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T32" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U32" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V32" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W32" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X32" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y32" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z32" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA32" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB32" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD32" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE32" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="R32" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S32" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T32" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U32" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V32" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W32" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X32" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y32" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z32" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA32" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB32" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC32" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD32" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE32" t="s" s="2">
-        <v>247</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>43</v>
@@ -5746,10 +5738,10 @@
         <v>45</v>
       </c>
       <c r="AL32" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="AM32" t="s" s="2">
         <v>248</v>
-      </c>
-      <c r="AM32" t="s" s="2">
-        <v>249</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>45</v>
@@ -5760,7 +5752,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5786,14 +5778,14 @@
         <v>57</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>251</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>252</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>45</v>
@@ -5842,7 +5834,7 @@
         <v>45</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>43</v>
@@ -5863,10 +5855,10 @@
         <v>45</v>
       </c>
       <c r="AL33" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="AM33" t="s" s="2">
         <v>255</v>
-      </c>
-      <c r="AM33" t="s" s="2">
-        <v>256</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>45</v>
@@ -5877,7 +5869,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5900,19 +5892,19 @@
         <v>56</v>
       </c>
       <c r="J34" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="K34" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="K34" t="s" s="2">
+      <c r="L34" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="M34" t="s" s="2">
+      <c r="N34" t="s" s="2">
         <v>261</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>262</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>45</v>
@@ -5961,7 +5953,7 @@
         <v>45</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>43</v>
@@ -5982,10 +5974,10 @@
         <v>45</v>
       </c>
       <c r="AL34" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="AM34" t="s" s="2">
         <v>264</v>
-      </c>
-      <c r="AM34" t="s" s="2">
-        <v>265</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>45</v>
@@ -5996,7 +5988,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6022,16 +6014,16 @@
         <v>57</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="M35" t="s" s="2">
+      <c r="N35" t="s" s="2">
         <v>269</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>270</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>45</v>
@@ -6080,7 +6072,7 @@
         <v>45</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>43</v>
@@ -6101,10 +6093,10 @@
         <v>45</v>
       </c>
       <c r="AL35" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="AM35" t="s" s="2">
         <v>272</v>
-      </c>
-      <c r="AM35" t="s" s="2">
-        <v>273</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>45</v>
@@ -6115,11 +6107,11 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -6141,16 +6133,16 @@
         <v>202</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="M36" t="s" s="2">
+      <c r="N36" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>279</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>45</v>
@@ -6178,11 +6170,11 @@
         <v>113</v>
       </c>
       <c r="X36" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="Y36" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="Y36" t="s" s="2">
-        <v>281</v>
-      </c>
       <c r="Z36" t="s" s="2">
         <v>45</v>
       </c>
@@ -6199,7 +6191,7 @@
         <v>45</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>55</v>
@@ -6214,27 +6206,27 @@
         <v>67</v>
       </c>
       <c r="AJ36" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="AK36" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="AK36" t="s" s="2">
+      <c r="AL36" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="AL36" t="s" s="2">
+      <c r="AM36" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="AM36" t="s" s="2">
+      <c r="AN36" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="AN36" t="s" s="2">
+      <c r="AO36" t="s" s="2">
         <v>286</v>
-      </c>
-      <c r="AO36" t="s" s="2">
-        <v>287</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6349,7 +6341,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6466,7 +6458,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6492,16 +6484,16 @@
         <v>109</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="M39" t="s" s="2">
+      <c r="N39" t="s" s="2">
         <v>219</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>220</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>45</v>
@@ -6550,7 +6542,7 @@
         <v>45</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>43</v>
@@ -6571,10 +6563,10 @@
         <v>45</v>
       </c>
       <c r="AL39" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AM39" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="AM39" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>45</v>
@@ -6585,7 +6577,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6611,16 +6603,16 @@
         <v>57</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="M40" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="M40" t="s" s="2">
+      <c r="N40" t="s" s="2">
         <v>269</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>270</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>45</v>
@@ -6669,7 +6661,7 @@
         <v>45</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>43</v>
@@ -6690,10 +6682,10 @@
         <v>45</v>
       </c>
       <c r="AL40" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="AM40" t="s" s="2">
         <v>272</v>
-      </c>
-      <c r="AM40" t="s" s="2">
-        <v>273</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>45</v>
@@ -6704,7 +6696,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6727,19 +6719,19 @@
         <v>56</v>
       </c>
       <c r="J41" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="K41" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="K41" t="s" s="2">
+      <c r="L41" t="s" s="2">
         <v>294</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="M41" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="M41" t="s" s="2">
+      <c r="N41" t="s" s="2">
         <v>296</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>297</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>45</v>
@@ -6788,7 +6780,7 @@
         <v>45</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>43</v>
@@ -6803,19 +6795,19 @@
         <v>67</v>
       </c>
       <c r="AJ41" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="AK41" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL41" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="AK41" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL41" t="s" s="2">
+      <c r="AM41" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="AM41" t="s" s="2">
+      <c r="AN41" t="s" s="2">
         <v>300</v>
-      </c>
-      <c r="AN41" t="s" s="2">
-        <v>301</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>45</v>
@@ -6823,7 +6815,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6846,16 +6838,16 @@
         <v>56</v>
       </c>
       <c r="J42" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="K42" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="K42" t="s" s="2">
+      <c r="L42" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>305</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>306</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -6905,7 +6897,7 @@
         <v>45</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>43</v>
@@ -6926,13 +6918,13 @@
         <v>45</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>45</v>
@@ -6940,11 +6932,11 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
@@ -6963,19 +6955,19 @@
         <v>56</v>
       </c>
       <c r="J43" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="K43" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="K43" t="s" s="2">
+      <c r="L43" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="M43" t="s" s="2">
+      <c r="N43" t="s" s="2">
         <v>313</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>314</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>45</v>
@@ -7024,7 +7016,7 @@
         <v>45</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>43</v>
@@ -7039,19 +7031,19 @@
         <v>67</v>
       </c>
       <c r="AJ43" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="AK43" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL43" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="AK43" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL43" t="s" s="2">
+      <c r="AM43" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="AM43" t="s" s="2">
+      <c r="AN43" t="s" s="2">
         <v>317</v>
-      </c>
-      <c r="AN43" t="s" s="2">
-        <v>318</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>45</v>
@@ -7059,11 +7051,11 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
@@ -7082,19 +7074,19 @@
         <v>56</v>
       </c>
       <c r="J44" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="K44" t="s" s="2">
         <v>321</v>
       </c>
-      <c r="K44" t="s" s="2">
+      <c r="L44" t="s" s="2">
         <v>322</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="M44" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="M44" t="s" s="2">
+      <c r="N44" t="s" s="2">
         <v>324</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>325</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>45</v>
@@ -7131,17 +7123,17 @@
         <v>45</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AB44" s="2"/>
       <c r="AC44" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>43</v>
@@ -7150,25 +7142,25 @@
         <v>55</v>
       </c>
       <c r="AH44" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="AI44" t="s" s="2">
         <v>328</v>
       </c>
-      <c r="AI44" t="s" s="2">
+      <c r="AJ44" t="s" s="2">
         <v>329</v>
       </c>
-      <c r="AJ44" t="s" s="2">
+      <c r="AK44" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL44" t="s" s="2">
         <v>330</v>
       </c>
-      <c r="AK44" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL44" t="s" s="2">
+      <c r="AM44" t="s" s="2">
         <v>331</v>
       </c>
-      <c r="AM44" t="s" s="2">
+      <c r="AN44" t="s" s="2">
         <v>332</v>
-      </c>
-      <c r="AN44" t="s" s="2">
-        <v>333</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>45</v>
@@ -7176,13 +7168,13 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="B45" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="C45" t="s" s="2">
         <v>319</v>
-      </c>
-      <c r="B45" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="C45" t="s" s="2">
-        <v>320</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
@@ -7201,19 +7193,19 @@
         <v>56</v>
       </c>
       <c r="J45" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="K45" t="s" s="2">
         <v>321</v>
       </c>
-      <c r="K45" t="s" s="2">
+      <c r="L45" t="s" s="2">
         <v>322</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="M45" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="M45" t="s" s="2">
+      <c r="N45" t="s" s="2">
         <v>324</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>325</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>45</v>
@@ -7262,7 +7254,7 @@
         <v>45</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>43</v>
@@ -7271,25 +7263,25 @@
         <v>55</v>
       </c>
       <c r="AH45" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="AI45" t="s" s="2">
         <v>328</v>
       </c>
-      <c r="AI45" t="s" s="2">
+      <c r="AJ45" t="s" s="2">
         <v>329</v>
       </c>
-      <c r="AJ45" t="s" s="2">
+      <c r="AK45" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL45" t="s" s="2">
         <v>330</v>
       </c>
-      <c r="AK45" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL45" t="s" s="2">
+      <c r="AM45" t="s" s="2">
         <v>331</v>
       </c>
-      <c r="AM45" t="s" s="2">
+      <c r="AN45" t="s" s="2">
         <v>332</v>
-      </c>
-      <c r="AN45" t="s" s="2">
-        <v>333</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>45</v>
@@ -7297,7 +7289,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7323,13 +7315,13 @@
         <v>91</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="L46" t="s" s="2">
+      <c r="M46" t="s" s="2">
         <v>337</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>338</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
@@ -7379,7 +7371,7 @@
         <v>45</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>43</v>
@@ -7400,13 +7392,13 @@
         <v>45</v>
       </c>
       <c r="AL46" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="AM46" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="AM46" t="s" s="2">
+      <c r="AN46" t="s" s="2">
         <v>340</v>
-      </c>
-      <c r="AN46" t="s" s="2">
-        <v>341</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>45</v>
@@ -7414,7 +7406,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7437,17 +7429,17 @@
         <v>56</v>
       </c>
       <c r="J47" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="K47" t="s" s="2">
         <v>343</v>
       </c>
-      <c r="K47" t="s" s="2">
+      <c r="L47" t="s" s="2">
         <v>344</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>345</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>45</v>
@@ -7496,7 +7488,7 @@
         <v>45</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>43</v>
@@ -7511,19 +7503,19 @@
         <v>67</v>
       </c>
       <c r="AJ47" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="AK47" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL47" t="s" s="2">
         <v>347</v>
       </c>
-      <c r="AK47" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL47" t="s" s="2">
+      <c r="AM47" t="s" s="2">
         <v>348</v>
       </c>
-      <c r="AM47" t="s" s="2">
+      <c r="AN47" t="s" s="2">
         <v>349</v>
-      </c>
-      <c r="AN47" t="s" s="2">
-        <v>350</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>45</v>
@@ -7531,7 +7523,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7554,19 +7546,19 @@
         <v>56</v>
       </c>
       <c r="J48" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="K48" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="K48" t="s" s="2">
+      <c r="L48" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="M48" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="L48" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="M48" t="s" s="2">
+      <c r="N48" t="s" s="2">
         <v>354</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>355</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>45</v>
@@ -7603,17 +7595,17 @@
         <v>45</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AB48" s="2"/>
       <c r="AC48" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>43</v>
@@ -7622,7 +7614,7 @@
         <v>55</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>67</v>
@@ -7631,27 +7623,27 @@
         <v>45</v>
       </c>
       <c r="AK48" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="AL48" t="s" s="2">
         <v>357</v>
       </c>
-      <c r="AL48" t="s" s="2">
+      <c r="AM48" t="s" s="2">
         <v>358</v>
       </c>
-      <c r="AM48" t="s" s="2">
+      <c r="AN48" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO48" t="s" s="2">
         <v>359</v>
-      </c>
-      <c r="AN48" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO48" t="s" s="2">
-        <v>360</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C49" t="s" s="2">
         <v>45</v>
@@ -7673,19 +7665,19 @@
         <v>56</v>
       </c>
       <c r="J49" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="K49" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="K49" t="s" s="2">
+      <c r="L49" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="M49" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="L49" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="M49" t="s" s="2">
+      <c r="N49" t="s" s="2">
         <v>354</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>355</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>45</v>
@@ -7734,7 +7726,7 @@
         <v>45</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>43</v>
@@ -7743,7 +7735,7 @@
         <v>55</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>67</v>
@@ -7752,24 +7744,24 @@
         <v>45</v>
       </c>
       <c r="AK49" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="AL49" t="s" s="2">
         <v>357</v>
       </c>
-      <c r="AL49" t="s" s="2">
+      <c r="AM49" t="s" s="2">
         <v>358</v>
       </c>
-      <c r="AM49" t="s" s="2">
+      <c r="AN49" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO49" t="s" s="2">
         <v>359</v>
-      </c>
-      <c r="AN49" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO49" t="s" s="2">
-        <v>360</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7884,7 +7876,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -8001,7 +7993,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8024,19 +8016,19 @@
         <v>56</v>
       </c>
       <c r="J52" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="K52" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="K52" t="s" s="2">
+      <c r="L52" t="s" s="2">
         <v>366</v>
       </c>
-      <c r="L52" t="s" s="2">
+      <c r="M52" t="s" s="2">
         <v>367</v>
       </c>
-      <c r="M52" t="s" s="2">
+      <c r="N52" t="s" s="2">
         <v>368</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>369</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>45</v>
@@ -8085,7 +8077,7 @@
         <v>45</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>43</v>
@@ -8106,10 +8098,10 @@
         <v>45</v>
       </c>
       <c r="AL52" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="AM52" t="s" s="2">
         <v>371</v>
-      </c>
-      <c r="AM52" t="s" s="2">
-        <v>372</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>45</v>
@@ -8120,7 +8112,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8146,20 +8138,20 @@
         <v>132</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>374</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>375</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="O53" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P53" t="s" s="2">
         <v>376</v>
-      </c>
-      <c r="O53" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P53" t="s" s="2">
-        <v>377</v>
       </c>
       <c r="Q53" t="s" s="2">
         <v>45</v>
@@ -8183,28 +8175,28 @@
         <v>194</v>
       </c>
       <c r="X53" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="Y53" t="s" s="2">
         <v>378</v>
       </c>
-      <c r="Y53" t="s" s="2">
+      <c r="Z53" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE53" t="s" s="2">
         <v>379</v>
-      </c>
-      <c r="Z53" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA53" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB53" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC53" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD53" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE53" t="s" s="2">
-        <v>380</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>43</v>
@@ -8225,10 +8217,10 @@
         <v>45</v>
       </c>
       <c r="AL53" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="AM53" t="s" s="2">
         <v>381</v>
-      </c>
-      <c r="AM53" t="s" s="2">
-        <v>382</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>45</v>
@@ -8239,7 +8231,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8265,14 +8257,14 @@
         <v>57</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>384</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>385</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>45</v>
@@ -8282,46 +8274,46 @@
         <v>45</v>
       </c>
       <c r="R54" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="S54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE54" t="s" s="2">
         <v>387</v>
-      </c>
-      <c r="S54" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T54" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U54" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V54" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W54" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X54" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y54" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z54" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA54" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB54" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC54" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD54" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE54" t="s" s="2">
-        <v>388</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>43</v>
@@ -8342,10 +8334,10 @@
         <v>45</v>
       </c>
       <c r="AL54" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="AM54" t="s" s="2">
         <v>389</v>
-      </c>
-      <c r="AM54" t="s" s="2">
-        <v>390</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>45</v>
@@ -8356,7 +8348,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8382,14 +8374,14 @@
         <v>97</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>392</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>393</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>45</v>
@@ -8438,7 +8430,7 @@
         <v>45</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>43</v>
@@ -8447,7 +8439,7 @@
         <v>55</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>67</v>
@@ -8459,10 +8451,10 @@
         <v>45</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>45</v>
@@ -8473,7 +8465,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8499,16 +8491,16 @@
         <v>132</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>399</v>
       </c>
-      <c r="L56" t="s" s="2">
+      <c r="M56" t="s" s="2">
         <v>400</v>
       </c>
-      <c r="M56" t="s" s="2">
+      <c r="N56" t="s" s="2">
         <v>401</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>402</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>45</v>
@@ -8557,7 +8549,7 @@
         <v>45</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>43</v>
@@ -8578,10 +8570,10 @@
         <v>45</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>45</v>
@@ -8592,7 +8584,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8618,16 +8610,16 @@
         <v>202</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>406</v>
       </c>
-      <c r="L57" t="s" s="2">
+      <c r="M57" t="s" s="2">
         <v>407</v>
       </c>
-      <c r="M57" t="s" s="2">
+      <c r="N57" t="s" s="2">
         <v>408</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>409</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>45</v>
@@ -8655,11 +8647,11 @@
         <v>113</v>
       </c>
       <c r="X57" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="Y57" t="s" s="2">
         <v>410</v>
       </c>
-      <c r="Y57" t="s" s="2">
-        <v>411</v>
-      </c>
       <c r="Z57" t="s" s="2">
         <v>45</v>
       </c>
@@ -8676,7 +8668,7 @@
         <v>45</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>43</v>
@@ -8685,7 +8677,7 @@
         <v>55</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>67</v>
@@ -8700,7 +8692,7 @@
         <v>155</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>45</v>
@@ -8711,11 +8703,11 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
@@ -8737,16 +8729,16 @@
         <v>202</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>416</v>
       </c>
-      <c r="L58" t="s" s="2">
+      <c r="M58" t="s" s="2">
         <v>417</v>
       </c>
-      <c r="M58" t="s" s="2">
+      <c r="N58" t="s" s="2">
         <v>418</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>419</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>45</v>
@@ -8774,11 +8766,11 @@
         <v>113</v>
       </c>
       <c r="X58" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="Y58" t="s" s="2">
         <v>420</v>
       </c>
-      <c r="Y58" t="s" s="2">
-        <v>421</v>
-      </c>
       <c r="Z58" t="s" s="2">
         <v>45</v>
       </c>
@@ -8795,7 +8787,7 @@
         <v>45</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>43</v>
@@ -8813,24 +8805,24 @@
         <v>45</v>
       </c>
       <c r="AK58" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="AL58" t="s" s="2">
         <v>422</v>
       </c>
-      <c r="AL58" t="s" s="2">
+      <c r="AM58" t="s" s="2">
         <v>423</v>
       </c>
-      <c r="AM58" t="s" s="2">
+      <c r="AN58" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO58" t="s" s="2">
         <v>424</v>
-      </c>
-      <c r="AN58" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO58" t="s" s="2">
-        <v>425</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8853,19 +8845,19 @@
         <v>45</v>
       </c>
       <c r="J59" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="K59" t="s" s="2">
         <v>427</v>
       </c>
-      <c r="K59" t="s" s="2">
+      <c r="L59" t="s" s="2">
         <v>428</v>
       </c>
-      <c r="L59" t="s" s="2">
+      <c r="M59" t="s" s="2">
         <v>429</v>
       </c>
-      <c r="M59" t="s" s="2">
+      <c r="N59" t="s" s="2">
         <v>430</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>431</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>45</v>
@@ -8914,7 +8906,7 @@
         <v>45</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>43</v>
@@ -8935,10 +8927,10 @@
         <v>45</v>
       </c>
       <c r="AL59" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="AM59" t="s" s="2">
         <v>432</v>
-      </c>
-      <c r="AM59" t="s" s="2">
-        <v>433</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>45</v>
@@ -8949,7 +8941,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8975,13 +8967,13 @@
         <v>202</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>435</v>
       </c>
-      <c r="L60" t="s" s="2">
+      <c r="M60" t="s" s="2">
         <v>436</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>437</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
@@ -9010,11 +9002,11 @@
         <v>122</v>
       </c>
       <c r="X60" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="Y60" t="s" s="2">
         <v>438</v>
       </c>
-      <c r="Y60" t="s" s="2">
-        <v>439</v>
-      </c>
       <c r="Z60" t="s" s="2">
         <v>45</v>
       </c>
@@ -9031,7 +9023,7 @@
         <v>45</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>43</v>
@@ -9049,24 +9041,24 @@
         <v>45</v>
       </c>
       <c r="AK60" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="AL60" t="s" s="2">
         <v>440</v>
       </c>
-      <c r="AL60" t="s" s="2">
+      <c r="AM60" t="s" s="2">
         <v>441</v>
       </c>
-      <c r="AM60" t="s" s="2">
+      <c r="AN60" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO60" t="s" s="2">
         <v>442</v>
-      </c>
-      <c r="AN60" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO60" t="s" s="2">
-        <v>443</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -9092,16 +9084,16 @@
         <v>202</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="L61" t="s" s="2">
         <v>445</v>
       </c>
-      <c r="L61" t="s" s="2">
+      <c r="M61" t="s" s="2">
         <v>446</v>
       </c>
-      <c r="M61" t="s" s="2">
+      <c r="N61" t="s" s="2">
         <v>447</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>448</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>45</v>
@@ -9129,11 +9121,11 @@
         <v>122</v>
       </c>
       <c r="X61" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="Y61" t="s" s="2">
         <v>449</v>
       </c>
-      <c r="Y61" t="s" s="2">
-        <v>450</v>
-      </c>
       <c r="Z61" t="s" s="2">
         <v>45</v>
       </c>
@@ -9150,7 +9142,7 @@
         <v>45</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>43</v>
@@ -9171,10 +9163,10 @@
         <v>45</v>
       </c>
       <c r="AL61" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="AM61" t="s" s="2">
         <v>451</v>
-      </c>
-      <c r="AM61" t="s" s="2">
-        <v>452</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>45</v>
@@ -9185,7 +9177,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9208,16 +9200,16 @@
         <v>45</v>
       </c>
       <c r="J62" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="K62" t="s" s="2">
         <v>454</v>
       </c>
-      <c r="K62" t="s" s="2">
+      <c r="L62" t="s" s="2">
         <v>455</v>
       </c>
-      <c r="L62" t="s" s="2">
+      <c r="M62" t="s" s="2">
         <v>456</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>457</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
@@ -9267,7 +9259,7 @@
         <v>45</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>43</v>
@@ -9285,24 +9277,24 @@
         <v>45</v>
       </c>
       <c r="AK62" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="AL62" t="s" s="2">
         <v>458</v>
       </c>
-      <c r="AL62" t="s" s="2">
+      <c r="AM62" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="AM62" t="s" s="2">
+      <c r="AN62" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO62" t="s" s="2">
         <v>460</v>
-      </c>
-      <c r="AN62" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO62" t="s" s="2">
-        <v>461</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9325,16 +9317,16 @@
         <v>45</v>
       </c>
       <c r="J63" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="K63" t="s" s="2">
         <v>463</v>
       </c>
-      <c r="K63" t="s" s="2">
+      <c r="L63" t="s" s="2">
         <v>464</v>
       </c>
-      <c r="L63" t="s" s="2">
+      <c r="M63" t="s" s="2">
         <v>465</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>466</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
@@ -9384,7 +9376,7 @@
         <v>45</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>43</v>
@@ -9402,24 +9394,24 @@
         <v>45</v>
       </c>
       <c r="AK63" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="AL63" t="s" s="2">
         <v>467</v>
       </c>
-      <c r="AL63" t="s" s="2">
+      <c r="AM63" t="s" s="2">
         <v>468</v>
       </c>
-      <c r="AM63" t="s" s="2">
+      <c r="AN63" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO63" t="s" s="2">
         <v>469</v>
-      </c>
-      <c r="AN63" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO63" t="s" s="2">
-        <v>470</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9442,19 +9434,19 @@
         <v>45</v>
       </c>
       <c r="J64" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="K64" t="s" s="2">
         <v>472</v>
       </c>
-      <c r="K64" t="s" s="2">
+      <c r="L64" t="s" s="2">
         <v>473</v>
       </c>
-      <c r="L64" t="s" s="2">
+      <c r="M64" t="s" s="2">
         <v>474</v>
       </c>
-      <c r="M64" t="s" s="2">
+      <c r="N64" t="s" s="2">
         <v>475</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>476</v>
       </c>
       <c r="O64" t="s" s="2">
         <v>45</v>
@@ -9503,7 +9495,7 @@
         <v>45</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>43</v>
@@ -9515,19 +9507,19 @@
         <v>45</v>
       </c>
       <c r="AI64" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK64" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL64" t="s" s="2">
         <v>477</v>
       </c>
-      <c r="AJ64" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK64" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL64" t="s" s="2">
+      <c r="AM64" t="s" s="2">
         <v>478</v>
-      </c>
-      <c r="AM64" t="s" s="2">
-        <v>479</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>45</v>
@@ -9538,7 +9530,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9653,7 +9645,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9770,11 +9762,11 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
@@ -9796,16 +9788,16 @@
         <v>75</v>
       </c>
       <c r="K67" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="L67" t="s" s="2">
         <v>484</v>
-      </c>
-      <c r="L67" t="s" s="2">
-        <v>485</v>
       </c>
       <c r="M67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>45</v>
@@ -9854,7 +9846,7 @@
         <v>45</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>43</v>
@@ -9889,7 +9881,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9912,13 +9904,13 @@
         <v>45</v>
       </c>
       <c r="J68" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="K68" t="s" s="2">
         <v>489</v>
       </c>
-      <c r="K68" t="s" s="2">
+      <c r="L68" t="s" s="2">
         <v>490</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>491</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -9969,7 +9961,7 @@
         <v>45</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>43</v>
@@ -9978,7 +9970,7 @@
         <v>55</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>67</v>
@@ -9990,10 +9982,10 @@
         <v>45</v>
       </c>
       <c r="AL68" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="AM68" t="s" s="2">
         <v>493</v>
-      </c>
-      <c r="AM68" t="s" s="2">
-        <v>494</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>45</v>
@@ -10004,7 +9996,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10027,13 +10019,13 @@
         <v>45</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="K69" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="L69" t="s" s="2">
         <v>496</v>
-      </c>
-      <c r="L69" t="s" s="2">
-        <v>497</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -10084,7 +10076,7 @@
         <v>45</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>43</v>
@@ -10093,7 +10085,7 @@
         <v>55</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>67</v>
@@ -10105,10 +10097,10 @@
         <v>45</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>45</v>
@@ -10119,7 +10111,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10145,16 +10137,16 @@
         <v>202</v>
       </c>
       <c r="K70" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="L70" t="s" s="2">
         <v>500</v>
       </c>
-      <c r="L70" t="s" s="2">
+      <c r="M70" t="s" s="2">
         <v>501</v>
       </c>
-      <c r="M70" t="s" s="2">
+      <c r="N70" t="s" s="2">
         <v>502</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>503</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>45</v>
@@ -10182,11 +10174,11 @@
         <v>136</v>
       </c>
       <c r="X70" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="Y70" t="s" s="2">
         <v>504</v>
       </c>
-      <c r="Y70" t="s" s="2">
-        <v>505</v>
-      </c>
       <c r="Z70" t="s" s="2">
         <v>45</v>
       </c>
@@ -10203,7 +10195,7 @@
         <v>45</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>43</v>
@@ -10221,13 +10213,13 @@
         <v>45</v>
       </c>
       <c r="AK70" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="AL70" t="s" s="2">
         <v>506</v>
       </c>
-      <c r="AL70" t="s" s="2">
-        <v>507</v>
-      </c>
       <c r="AM70" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>45</v>
@@ -10238,7 +10230,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10264,16 +10256,16 @@
         <v>202</v>
       </c>
       <c r="K71" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="L71" t="s" s="2">
         <v>509</v>
       </c>
-      <c r="L71" t="s" s="2">
+      <c r="M71" t="s" s="2">
         <v>510</v>
       </c>
-      <c r="M71" t="s" s="2">
+      <c r="N71" t="s" s="2">
         <v>511</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>512</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>45</v>
@@ -10301,11 +10293,11 @@
         <v>122</v>
       </c>
       <c r="X71" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="Y71" t="s" s="2">
         <v>513</v>
       </c>
-      <c r="Y71" t="s" s="2">
-        <v>514</v>
-      </c>
       <c r="Z71" t="s" s="2">
         <v>45</v>
       </c>
@@ -10322,7 +10314,7 @@
         <v>45</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>43</v>
@@ -10340,13 +10332,13 @@
         <v>45</v>
       </c>
       <c r="AK71" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="AL71" t="s" s="2">
         <v>506</v>
       </c>
-      <c r="AL71" t="s" s="2">
-        <v>507</v>
-      </c>
       <c r="AM71" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>45</v>
@@ -10357,7 +10349,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10380,17 +10372,17 @@
         <v>45</v>
       </c>
       <c r="J72" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="K72" t="s" s="2">
         <v>516</v>
       </c>
-      <c r="K72" t="s" s="2">
+      <c r="L72" t="s" s="2">
         <v>517</v>
-      </c>
-      <c r="L72" t="s" s="2">
-        <v>518</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" t="s" s="2">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="O72" t="s" s="2">
         <v>45</v>
@@ -10439,7 +10431,7 @@
         <v>45</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>43</v>
@@ -10463,7 +10455,7 @@
         <v>45</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>45</v>
@@ -10474,7 +10466,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10500,10 +10492,10 @@
         <v>57</v>
       </c>
       <c r="K73" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="L73" t="s" s="2">
         <v>522</v>
-      </c>
-      <c r="L73" t="s" s="2">
-        <v>523</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -10554,7 +10546,7 @@
         <v>45</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>43</v>
@@ -10575,10 +10567,10 @@
         <v>45</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>45</v>
@@ -10589,7 +10581,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10612,16 +10604,16 @@
         <v>56</v>
       </c>
       <c r="J74" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="K74" t="s" s="2">
         <v>526</v>
       </c>
-      <c r="K74" t="s" s="2">
+      <c r="L74" t="s" s="2">
         <v>527</v>
       </c>
-      <c r="L74" t="s" s="2">
+      <c r="M74" t="s" s="2">
         <v>528</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>529</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
@@ -10671,7 +10663,7 @@
         <v>45</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>43</v>
@@ -10692,10 +10684,10 @@
         <v>45</v>
       </c>
       <c r="AL74" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="AM74" t="s" s="2">
         <v>530</v>
-      </c>
-      <c r="AM74" t="s" s="2">
-        <v>531</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>45</v>
@@ -10706,7 +10698,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10729,16 +10721,16 @@
         <v>56</v>
       </c>
       <c r="J75" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="K75" t="s" s="2">
         <v>533</v>
       </c>
-      <c r="K75" t="s" s="2">
+      <c r="L75" t="s" s="2">
         <v>534</v>
       </c>
-      <c r="L75" t="s" s="2">
+      <c r="M75" t="s" s="2">
         <v>535</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>536</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
@@ -10788,7 +10780,7 @@
         <v>45</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>43</v>
@@ -10809,10 +10801,10 @@
         <v>45</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>45</v>
@@ -10823,7 +10815,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10846,19 +10838,19 @@
         <v>56</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="K76" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="M76" t="s" s="2">
         <v>539</v>
       </c>
-      <c r="L76" t="s" s="2">
-        <v>539</v>
-      </c>
-      <c r="M76" t="s" s="2">
+      <c r="N76" t="s" s="2">
         <v>540</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>541</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>45</v>
@@ -10907,7 +10899,7 @@
         <v>45</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>43</v>
@@ -10919,19 +10911,19 @@
         <v>45</v>
       </c>
       <c r="AI76" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL76" t="s" s="2">
         <v>542</v>
       </c>
-      <c r="AJ76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL76" t="s" s="2">
+      <c r="AM76" t="s" s="2">
         <v>543</v>
-      </c>
-      <c r="AM76" t="s" s="2">
-        <v>544</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>45</v>
@@ -10942,7 +10934,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -11057,7 +11049,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -11174,11 +11166,11 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
@@ -11200,16 +11192,16 @@
         <v>75</v>
       </c>
       <c r="K79" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="L79" t="s" s="2">
         <v>484</v>
-      </c>
-      <c r="L79" t="s" s="2">
-        <v>485</v>
       </c>
       <c r="M79" t="s" s="2">
         <v>78</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="O79" t="s" s="2">
         <v>45</v>
@@ -11258,7 +11250,7 @@
         <v>45</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>43</v>
@@ -11293,7 +11285,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11319,16 +11311,16 @@
         <v>202</v>
       </c>
       <c r="K80" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="L80" t="s" s="2">
         <v>549</v>
       </c>
-      <c r="L80" t="s" s="2">
+      <c r="M80" t="s" s="2">
         <v>550</v>
       </c>
-      <c r="M80" t="s" s="2">
+      <c r="N80" t="s" s="2">
         <v>551</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>552</v>
       </c>
       <c r="O80" t="s" s="2">
         <v>45</v>
@@ -11356,11 +11348,11 @@
         <v>113</v>
       </c>
       <c r="X80" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="Y80" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="Y80" t="s" s="2">
-        <v>281</v>
-      </c>
       <c r="Z80" t="s" s="2">
         <v>45</v>
       </c>
@@ -11377,7 +11369,7 @@
         <v>45</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>55</v>
@@ -11395,16 +11387,16 @@
         <v>45</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="AL80" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="AM80" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="AM80" t="s" s="2">
+      <c r="AN80" t="s" s="2">
         <v>285</v>
-      </c>
-      <c r="AN80" t="s" s="2">
-        <v>286</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>45</v>
@@ -11412,7 +11404,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11435,19 +11427,19 @@
         <v>56</v>
       </c>
       <c r="J81" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="K81" t="s" s="2">
         <v>555</v>
       </c>
-      <c r="K81" t="s" s="2">
+      <c r="L81" t="s" s="2">
         <v>556</v>
       </c>
-      <c r="L81" t="s" s="2">
+      <c r="M81" t="s" s="2">
         <v>557</v>
       </c>
-      <c r="M81" t="s" s="2">
-        <v>558</v>
-      </c>
       <c r="N81" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="O81" t="s" s="2">
         <v>45</v>
@@ -11475,11 +11467,11 @@
         <v>194</v>
       </c>
       <c r="X81" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="Y81" t="s" s="2">
         <v>559</v>
       </c>
-      <c r="Y81" t="s" s="2">
-        <v>560</v>
-      </c>
       <c r="Z81" t="s" s="2">
         <v>45</v>
       </c>
@@ -11496,7 +11488,7 @@
         <v>45</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>43</v>
@@ -11505,7 +11497,7 @@
         <v>55</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>67</v>
@@ -11514,24 +11506,24 @@
         <v>45</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="AL81" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="AM81" t="s" s="2">
         <v>358</v>
       </c>
-      <c r="AM81" t="s" s="2">
+      <c r="AN81" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO81" t="s" s="2">
         <v>359</v>
-      </c>
-      <c r="AN81" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO81" t="s" s="2">
-        <v>360</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11557,16 +11549,16 @@
         <v>202</v>
       </c>
       <c r="K82" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="L82" t="s" s="2">
         <v>564</v>
       </c>
-      <c r="L82" t="s" s="2">
+      <c r="M82" t="s" s="2">
         <v>565</v>
       </c>
-      <c r="M82" t="s" s="2">
-        <v>566</v>
-      </c>
       <c r="N82" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="O82" t="s" s="2">
         <v>45</v>
@@ -11594,11 +11586,11 @@
         <v>113</v>
       </c>
       <c r="X82" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="Y82" t="s" s="2">
         <v>410</v>
       </c>
-      <c r="Y82" t="s" s="2">
-        <v>411</v>
-      </c>
       <c r="Z82" t="s" s="2">
         <v>45</v>
       </c>
@@ -11615,7 +11607,7 @@
         <v>45</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>43</v>
@@ -11624,7 +11616,7 @@
         <v>55</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="AI82" t="s" s="2">
         <v>67</v>
@@ -11639,7 +11631,7 @@
         <v>155</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>45</v>
@@ -11650,11 +11642,11 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
@@ -11676,16 +11668,16 @@
         <v>202</v>
       </c>
       <c r="K83" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="L83" t="s" s="2">
         <v>416</v>
       </c>
-      <c r="L83" t="s" s="2">
+      <c r="M83" t="s" s="2">
         <v>417</v>
       </c>
-      <c r="M83" t="s" s="2">
+      <c r="N83" t="s" s="2">
         <v>418</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>419</v>
       </c>
       <c r="O83" t="s" s="2">
         <v>45</v>
@@ -11713,11 +11705,11 @@
         <v>113</v>
       </c>
       <c r="X83" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="Y83" t="s" s="2">
         <v>420</v>
       </c>
-      <c r="Y83" t="s" s="2">
-        <v>421</v>
-      </c>
       <c r="Z83" t="s" s="2">
         <v>45</v>
       </c>
@@ -11734,7 +11726,7 @@
         <v>45</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>43</v>
@@ -11752,24 +11744,24 @@
         <v>45</v>
       </c>
       <c r="AK83" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="AL83" t="s" s="2">
         <v>422</v>
       </c>
-      <c r="AL83" t="s" s="2">
+      <c r="AM83" t="s" s="2">
         <v>423</v>
       </c>
-      <c r="AM83" t="s" s="2">
+      <c r="AN83" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO83" t="s" s="2">
         <v>424</v>
-      </c>
-      <c r="AN83" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO83" t="s" s="2">
-        <v>425</v>
       </c>
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11795,16 +11787,16 @@
         <v>45</v>
       </c>
       <c r="K84" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="L84" t="s" s="2">
         <v>570</v>
       </c>
-      <c r="L84" t="s" s="2">
-        <v>571</v>
-      </c>
       <c r="M84" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="N84" t="s" s="2">
         <v>475</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>476</v>
       </c>
       <c r="O84" t="s" s="2">
         <v>45</v>
@@ -11853,7 +11845,7 @@
         <v>45</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>43</v>
@@ -11874,10 +11866,10 @@
         <v>45</v>
       </c>
       <c r="AL84" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="AM84" t="s" s="2">
         <v>478</v>
-      </c>
-      <c r="AM84" t="s" s="2">
-        <v>479</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>45</v>

--- a/docs/StructureDefinition-VA.MHV.bloodOxygenSat.xlsx
+++ b/docs/StructureDefinition-VA.MHV.bloodOxygenSat.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$84</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$86</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3132" uniqueCount="571">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3208" uniqueCount="577">
   <si>
     <t>Path</t>
   </si>
@@ -1671,10 +1671,31 @@
     <t>When using this element, an observation will typically have either a value or a set of related resources, although both may be present in some cases.  For a discussion on the ways Observations can assembled in groups together, see [Notes](http://hl7.org/fhir/observation.html#obsgrouping) below.  Note that a system may calculate results from [QuestionnaireResponse](http://hl7.org/fhir/questionnaireresponse.html)  into a final score and represent the score as an Observation.</t>
   </si>
   <si>
+    <t xml:space="preserve">profile:resource}
+</t>
+  </si>
+  <si>
+    <t>allow a heart-rate observation and/or respiration rate that is related to this</t>
+  </si>
+  <si>
     <t>Relationships established by OBX-4 usage</t>
   </si>
   <si>
     <t>outBoundRelationship</t>
+  </si>
+  <si>
+    <t>heartRate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(https://johnmoehrke.github.io/MHV-PGHD/StructureDefinition/VA.MHV.heartRate)
+</t>
+  </si>
+  <si>
+    <t>respirationRate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(https://johnmoehrke.github.io/MHV-PGHD/StructureDefinition/VA.MHV.respirationRate)
+</t>
   </si>
   <si>
     <t>Observation.derivedFrom</t>
@@ -1950,7 +1971,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO84"/>
+  <dimension ref="A1:AO86"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1986,7 +2007,7 @@
     <col min="25" max="25" width="51.34375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.921875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="68.30078125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="40.19140625" customWidth="true" bestFit="true" hidden="true"/>
@@ -10592,10 +10613,10 @@
         <v>43</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>45</v>
@@ -10651,16 +10672,16 @@
         <v>45</v>
       </c>
       <c r="AA74" t="s" s="2">
-        <v>45</v>
+        <v>529</v>
       </c>
       <c r="AB74" t="s" s="2">
-        <v>45</v>
+        <v>530</v>
       </c>
       <c r="AC74" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD74" t="s" s="2">
-        <v>45</v>
+        <v>326</v>
       </c>
       <c r="AE74" t="s" s="2">
         <v>524</v>
@@ -10684,10 +10705,10 @@
         <v>45</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>45</v>
@@ -10698,9 +10719,11 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>531</v>
-      </c>
-      <c r="B75" s="2"/>
+        <v>524</v>
+      </c>
+      <c r="B75" t="s" s="2">
+        <v>533</v>
+      </c>
       <c r="C75" t="s" s="2">
         <v>45</v>
       </c>
@@ -10709,7 +10732,7 @@
         <v>43</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>45</v>
@@ -10721,16 +10744,16 @@
         <v>56</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
@@ -10780,7 +10803,7 @@
         <v>45</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>43</v>
@@ -10801,10 +10824,10 @@
         <v>45</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>45</v>
@@ -10813,11 +10836,13 @@
         <v>45</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>537</v>
-      </c>
-      <c r="B76" s="2"/>
+        <v>524</v>
+      </c>
+      <c r="B76" t="s" s="2">
+        <v>535</v>
+      </c>
       <c r="C76" t="s" s="2">
         <v>45</v>
       </c>
@@ -10826,10 +10851,10 @@
         <v>43</v>
       </c>
       <c r="F76" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>45</v>
@@ -10838,20 +10863,18 @@
         <v>56</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>471</v>
+        <v>536</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>538</v>
+        <v>526</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>538</v>
+        <v>527</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>539</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>540</v>
-      </c>
+        <v>528</v>
+      </c>
+      <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
         <v>45</v>
       </c>
@@ -10899,7 +10922,7 @@
         <v>45</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>537</v>
+        <v>524</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>43</v>
@@ -10911,7 +10934,7 @@
         <v>45</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>541</v>
+        <v>67</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>45</v>
@@ -10920,10 +10943,10 @@
         <v>45</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>542</v>
+        <v>531</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>543</v>
+        <v>532</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>45</v>
@@ -10934,7 +10957,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10945,7 +10968,7 @@
         <v>43</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>45</v>
@@ -10954,18 +10977,20 @@
         <v>45</v>
       </c>
       <c r="I77" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>57</v>
+        <v>538</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>69</v>
+        <v>539</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="M77" s="2"/>
+        <v>540</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>541</v>
+      </c>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
         <v>45</v>
@@ -11014,19 +11039,19 @@
         <v>45</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>71</v>
+        <v>537</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>45</v>
@@ -11035,10 +11060,10 @@
         <v>45</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>45</v>
+        <v>531</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>72</v>
+        <v>542</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>45</v>
@@ -11047,43 +11072,45 @@
         <v>45</v>
       </c>
     </row>
-    <row r="78" hidden="true">
+    <row r="78">
       <c r="A78" t="s" s="2">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F78" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I78" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>75</v>
+        <v>471</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>76</v>
+        <v>544</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>77</v>
+        <v>544</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="N78" s="2"/>
+        <v>545</v>
+      </c>
+      <c r="N78" t="s" s="2">
+        <v>546</v>
+      </c>
       <c r="O78" t="s" s="2">
         <v>45</v>
       </c>
@@ -11131,7 +11158,7 @@
         <v>45</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>82</v>
+        <v>543</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>43</v>
@@ -11143,7 +11170,7 @@
         <v>45</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>83</v>
+        <v>547</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>45</v>
@@ -11152,10 +11179,10 @@
         <v>45</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>45</v>
+        <v>548</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>72</v>
+        <v>549</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>45</v>
@@ -11166,43 +11193,39 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
-        <v>482</v>
+        <v>45</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F79" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G79" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H79" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="I79" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>483</v>
+        <v>69</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>485</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="M79" s="2"/>
+      <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
         <v>45</v>
       </c>
@@ -11250,19 +11273,19 @@
         <v>45</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>486</v>
+        <v>71</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH79" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>45</v>
@@ -11274,7 +11297,7 @@
         <v>45</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>155</v>
+        <v>72</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>45</v>
@@ -11283,45 +11306,43 @@
         <v>45</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F80" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I80" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>202</v>
+        <v>75</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>548</v>
+        <v>76</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>549</v>
+        <v>77</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>550</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>551</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
         <v>45</v>
       </c>
@@ -11345,13 +11366,13 @@
         <v>45</v>
       </c>
       <c r="W80" t="s" s="2">
-        <v>113</v>
+        <v>45</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>279</v>
+        <v>45</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>280</v>
+        <v>45</v>
       </c>
       <c r="Z80" t="s" s="2">
         <v>45</v>
@@ -11369,77 +11390,77 @@
         <v>45</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>547</v>
+        <v>82</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH80" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM80" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AN80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO80" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="81" hidden="true">
+      <c r="A81" t="s" s="2">
         <v>552</v>
-      </c>
-      <c r="AL80" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="AM80" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="AN80" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="AO80" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="s" s="2">
-        <v>553</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
-        <v>45</v>
+        <v>482</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F81" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G81" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H81" t="s" s="2">
         <v>56</v>
-      </c>
-      <c r="H81" t="s" s="2">
-        <v>45</v>
       </c>
       <c r="I81" t="s" s="2">
         <v>56</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>554</v>
+        <v>75</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>555</v>
+        <v>483</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>556</v>
+        <v>484</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>557</v>
+        <v>78</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>354</v>
+        <v>485</v>
       </c>
       <c r="O81" t="s" s="2">
         <v>45</v>
@@ -11464,13 +11485,13 @@
         <v>45</v>
       </c>
       <c r="W81" t="s" s="2">
-        <v>194</v>
+        <v>45</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>558</v>
+        <v>45</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>559</v>
+        <v>45</v>
       </c>
       <c r="Z81" t="s" s="2">
         <v>45</v>
@@ -11488,42 +11509,42 @@
         <v>45</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>553</v>
+        <v>486</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>560</v>
+        <v>45</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="AJ81" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>561</v>
+        <v>45</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>357</v>
+        <v>45</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>358</v>
+        <v>155</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO81" t="s" s="2">
-        <v>359</v>
+        <v>45</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>562</v>
+        <v>553</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11531,7 +11552,7 @@
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F82" t="s" s="2">
         <v>55</v>
@@ -11543,22 +11564,22 @@
         <v>45</v>
       </c>
       <c r="I82" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J82" t="s" s="2">
         <v>202</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>563</v>
+        <v>554</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>565</v>
+        <v>556</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>408</v>
+        <v>557</v>
       </c>
       <c r="O82" t="s" s="2">
         <v>45</v>
@@ -11586,10 +11607,10 @@
         <v>113</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>409</v>
+        <v>279</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>410</v>
+        <v>280</v>
       </c>
       <c r="Z82" t="s" s="2">
         <v>45</v>
@@ -11607,16 +11628,16 @@
         <v>45</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>562</v>
+        <v>553</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>55</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>566</v>
+        <v>45</v>
       </c>
       <c r="AI82" t="s" s="2">
         <v>67</v>
@@ -11625,59 +11646,59 @@
         <v>45</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>45</v>
+        <v>558</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>155</v>
+        <v>283</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>412</v>
+        <v>284</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>45</v>
+        <v>285</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="83" hidden="true">
+    <row r="83">
       <c r="A83" t="s" s="2">
-        <v>567</v>
+        <v>559</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
-        <v>414</v>
+        <v>45</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F83" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I83" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>202</v>
+        <v>560</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>415</v>
+        <v>561</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>416</v>
+        <v>562</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>417</v>
+        <v>563</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>418</v>
+        <v>354</v>
       </c>
       <c r="O83" t="s" s="2">
         <v>45</v>
@@ -11702,13 +11723,13 @@
         <v>45</v>
       </c>
       <c r="W83" t="s" s="2">
-        <v>113</v>
+        <v>194</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>419</v>
+        <v>564</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>420</v>
+        <v>565</v>
       </c>
       <c r="Z83" t="s" s="2">
         <v>45</v>
@@ -11726,16 +11747,16 @@
         <v>45</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>567</v>
+        <v>559</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>45</v>
+        <v>566</v>
       </c>
       <c r="AI83" t="s" s="2">
         <v>67</v>
@@ -11744,22 +11765,22 @@
         <v>45</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>421</v>
+        <v>567</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>422</v>
+        <v>357</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>423</v>
+        <v>358</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO83" t="s" s="2">
-        <v>424</v>
+        <v>359</v>
       </c>
     </row>
-    <row r="84" hidden="true">
+    <row r="84">
       <c r="A84" t="s" s="2">
         <v>568</v>
       </c>
@@ -11772,10 +11793,10 @@
         <v>43</v>
       </c>
       <c r="F84" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>45</v>
@@ -11784,7 +11805,7 @@
         <v>45</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>45</v>
+        <v>202</v>
       </c>
       <c r="K84" t="s" s="2">
         <v>569</v>
@@ -11793,10 +11814,10 @@
         <v>570</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>474</v>
+        <v>571</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>475</v>
+        <v>408</v>
       </c>
       <c r="O84" t="s" s="2">
         <v>45</v>
@@ -11821,13 +11842,13 @@
         <v>45</v>
       </c>
       <c r="W84" t="s" s="2">
-        <v>45</v>
+        <v>113</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>45</v>
+        <v>409</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>45</v>
+        <v>410</v>
       </c>
       <c r="Z84" t="s" s="2">
         <v>45</v>
@@ -11851,10 +11872,10 @@
         <v>43</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>45</v>
+        <v>572</v>
       </c>
       <c r="AI84" t="s" s="2">
         <v>67</v>
@@ -11866,20 +11887,258 @@
         <v>45</v>
       </c>
       <c r="AL84" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AM84" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="AN84" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO84" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="85" hidden="true">
+      <c r="A85" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="B85" s="2"/>
+      <c r="C85" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="D85" s="2"/>
+      <c r="E85" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F85" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G85" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H85" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I85" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J85" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="K85" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="L85" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="M85" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="N85" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="O85" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P85" s="2"/>
+      <c r="Q85" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R85" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S85" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T85" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U85" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V85" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W85" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="X85" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="Y85" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="Z85" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA85" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB85" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC85" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD85" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE85" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="AF85" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG85" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH85" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI85" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ85" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK85" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="AL85" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="AM85" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="AN85" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO85" t="s" s="2">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="86" hidden="true">
+      <c r="A86" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="B86" s="2"/>
+      <c r="C86" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D86" s="2"/>
+      <c r="E86" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F86" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G86" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H86" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I86" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J86" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="K86" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="L86" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="M86" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="N86" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="O86" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P86" s="2"/>
+      <c r="Q86" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R86" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S86" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T86" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U86" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V86" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W86" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X86" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y86" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z86" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA86" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB86" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC86" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD86" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE86" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="AF86" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG86" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH86" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI86" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ86" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK86" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL86" t="s" s="2">
         <v>477</v>
       </c>
-      <c r="AM84" t="s" s="2">
+      <c r="AM86" t="s" s="2">
         <v>478</v>
       </c>
-      <c r="AN84" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO84" t="s" s="2">
+      <c r="AN86" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO86" t="s" s="2">
         <v>45</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO84">
+  <autoFilter ref="A1:AO86">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -11889,7 +12148,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI83">
+  <conditionalFormatting sqref="A2:AI85">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/docs/StructureDefinition-VA.MHV.bloodOxygenSat.xlsx
+++ b/docs/StructureDefinition-VA.MHV.bloodOxygenSat.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3208" uniqueCount="577">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3209" uniqueCount="577">
   <si>
     <t>Path</t>
   </si>
@@ -919,6 +919,36 @@
     <t>Observation.code.coding</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:$this}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
+    <t>ox1</t>
+  </si>
+  <si>
+    <t>&lt;valueCoding xmlns="http://hl7.org/fhir"&gt;
+  &lt;system value="http://loinc.org"/&gt;
+  &lt;code value="59408-5"/&gt;
+  &lt;display value="Oxygen saturation in Arterial blood by Pulse oximetry"/&gt;
+&lt;/valueCoding&gt;</t>
+  </si>
+  <si>
+    <t>ox2</t>
+  </si>
+  <si>
+    <t>&lt;valueCoding xmlns="http://hl7.org/fhir"&gt;
+  &lt;system value="http://loinc.org"/&gt;
+  &lt;code value="2708-6"/&gt;
+  &lt;display value="Oxygen saturation in Arterial blood"/&gt;
+&lt;/valueCoding&gt;</t>
+  </si>
+  <si>
     <t>Observation.code.text</t>
   </si>
   <si>
@@ -1032,9 +1062,6 @@
   <si>
     <t xml:space="preserve">type:$this}
 </t>
-  </si>
-  <si>
-    <t>closed</t>
   </si>
   <si>
     <t xml:space="preserve">vs-1
@@ -1658,7 +1685,7 @@
     <t>Observation.hasMember</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(QuestionnaireResponse|MolecularSequence|vitalsigns)
+    <t xml:space="preserve">Reference(https://johnmoehrke.github.io/MHV-PGHD/StructureDefinition/VA.MHV.heartRate|https://johnmoehrke.github.io/MHV-PGHD/StructureDefinition/VA.MHV.respirationRate)
 </t>
   </si>
   <si>
@@ -1671,31 +1698,10 @@
     <t>When using this element, an observation will typically have either a value or a set of related resources, although both may be present in some cases.  For a discussion on the ways Observations can assembled in groups together, see [Notes](http://hl7.org/fhir/observation.html#obsgrouping) below.  Note that a system may calculate results from [QuestionnaireResponse](http://hl7.org/fhir/questionnaireresponse.html)  into a final score and represent the score as an Observation.</t>
   </si>
   <si>
-    <t xml:space="preserve">profile:resource}
-</t>
-  </si>
-  <si>
-    <t>allow a heart-rate observation and/or respiration rate that is related to this</t>
-  </si>
-  <si>
     <t>Relationships established by OBX-4 usage</t>
   </si>
   <si>
     <t>outBoundRelationship</t>
-  </si>
-  <si>
-    <t>heartRate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(https://johnmoehrke.github.io/MHV-PGHD/StructureDefinition/VA.MHV.heartRate)
-</t>
-  </si>
-  <si>
-    <t>respirationRate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(https://johnmoehrke.github.io/MHV-PGHD/StructureDefinition/VA.MHV.respirationRate)
-</t>
   </si>
   <si>
     <t>Observation.derivedFrom</t>
@@ -2007,7 +2013,7 @@
     <col min="25" max="25" width="51.34375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.921875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="68.30078125" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="40.19140625" customWidth="true" bestFit="true" hidden="true"/>
@@ -4610,7 +4616,7 @@
         <v>55</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>56</v>
@@ -6487,10 +6493,10 @@
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>43</v>
+        <v>290</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>44</v>
+        <v>290</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>45</v>
@@ -6551,16 +6557,14 @@
         <v>45</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB39" t="s" s="2">
-        <v>45</v>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="AB39" s="2"/>
       <c r="AC39" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>45</v>
+        <v>292</v>
       </c>
       <c r="AE39" t="s" s="2">
         <v>220</v>
@@ -6598,15 +6602,17 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="B40" s="2"/>
+        <v>289</v>
+      </c>
+      <c r="B40" t="s" s="2">
+        <v>293</v>
+      </c>
       <c r="C40" t="s" s="2">
         <v>45</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F40" t="s" s="2">
         <v>55</v>
@@ -6621,19 +6627,19 @@
         <v>56</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>57</v>
+        <v>109</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>266</v>
+        <v>216</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>267</v>
+        <v>217</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>268</v>
+        <v>218</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>269</v>
+        <v>219</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>45</v>
@@ -6643,7 +6649,7 @@
         <v>45</v>
       </c>
       <c r="R40" t="s" s="2">
-        <v>45</v>
+        <v>294</v>
       </c>
       <c r="S40" t="s" s="2">
         <v>45</v>
@@ -6682,13 +6688,13 @@
         <v>45</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>270</v>
+        <v>220</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>45</v>
@@ -6703,10 +6709,10 @@
         <v>45</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>271</v>
+        <v>221</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>45</v>
@@ -6715,11 +6721,13 @@
         <v>45</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="B41" s="2"/>
+        <v>289</v>
+      </c>
+      <c r="B41" t="s" s="2">
+        <v>295</v>
+      </c>
       <c r="C41" t="s" s="2">
         <v>45</v>
       </c>
@@ -6731,7 +6739,7 @@
         <v>55</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>45</v>
@@ -6740,19 +6748,19 @@
         <v>56</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>292</v>
+        <v>109</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>293</v>
+        <v>216</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>294</v>
+        <v>217</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>295</v>
+        <v>218</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>296</v>
+        <v>219</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>45</v>
@@ -6762,7 +6770,7 @@
         <v>45</v>
       </c>
       <c r="R41" t="s" s="2">
-        <v>45</v>
+        <v>296</v>
       </c>
       <c r="S41" t="s" s="2">
         <v>45</v>
@@ -6801,13 +6809,13 @@
         <v>45</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>291</v>
+        <v>220</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>45</v>
@@ -6816,19 +6824,19 @@
         <v>67</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>297</v>
+        <v>45</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>298</v>
+        <v>221</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>299</v>
+        <v>222</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>300</v>
+        <v>45</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>45</v>
@@ -6836,7 +6844,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6847,7 +6855,7 @@
         <v>43</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>45</v>
@@ -6859,18 +6867,20 @@
         <v>56</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>302</v>
+        <v>57</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>303</v>
+        <v>266</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>304</v>
+        <v>267</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="N42" s="2"/>
+        <v>268</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>269</v>
+      </c>
       <c r="O42" t="s" s="2">
         <v>45</v>
       </c>
@@ -6918,13 +6928,13 @@
         <v>45</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>301</v>
+        <v>270</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>45</v>
@@ -6939,35 +6949,35 @@
         <v>45</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>306</v>
+        <v>272</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>300</v>
+        <v>45</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="43" hidden="true">
+    <row r="43">
       <c r="A43" t="s" s="2">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>308</v>
+        <v>45</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>45</v>
@@ -6976,19 +6986,19 @@
         <v>56</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>45</v>
@@ -7037,7 +7047,7 @@
         <v>45</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>43</v>
@@ -7052,19 +7062,19 @@
         <v>67</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>45</v>
@@ -7072,21 +7082,21 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>319</v>
+        <v>45</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>45</v>
@@ -7095,20 +7105,18 @@
         <v>56</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>324</v>
-      </c>
+        <v>312</v>
+      </c>
+      <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>45</v>
       </c>
@@ -7144,68 +7152,68 @@
         <v>45</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="AB44" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>45</v>
+      </c>
       <c r="AC44" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>326</v>
+        <v>45</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>327</v>
+        <v>45</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>328</v>
+        <v>67</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>329</v>
+        <v>45</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>330</v>
+        <v>283</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>331</v>
+        <v>313</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>332</v>
+        <v>307</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="B45" t="s" s="2">
-        <v>333</v>
-      </c>
+        <v>314</v>
+      </c>
+      <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>45</v>
@@ -7214,19 +7222,19 @@
         <v>56</v>
       </c>
       <c r="J45" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="K45" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="L45" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="N45" t="s" s="2">
         <v>320</v>
-      </c>
-      <c r="K45" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>324</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>45</v>
@@ -7275,7 +7283,7 @@
         <v>45</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>43</v>
@@ -7284,25 +7292,25 @@
         <v>55</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>327</v>
+        <v>45</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>328</v>
+        <v>67</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>45</v>
@@ -7310,21 +7318,21 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>45</v>
+        <v>326</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>45</v>
@@ -7333,18 +7341,20 @@
         <v>56</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>91</v>
+        <v>327</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="N46" s="2"/>
+        <v>330</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>331</v>
+      </c>
       <c r="O46" t="s" s="2">
         <v>45</v>
       </c>
@@ -7380,19 +7390,17 @@
         <v>45</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB46" t="s" s="2">
-        <v>45</v>
-      </c>
+        <v>332</v>
+      </c>
+      <c r="AB46" s="2"/>
       <c r="AC46" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>45</v>
+        <v>292</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>43</v>
@@ -7401,47 +7409,49 @@
         <v>55</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>45</v>
+        <v>333</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>67</v>
+        <v>334</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>45</v>
+        <v>335</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL46" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="AM46" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="AN46" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="AM46" t="s" s="2">
+      <c r="AO46" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="B47" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="AN46" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="AO46" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="47" hidden="true">
-      <c r="A47" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>45</v>
+        <v>326</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>45</v>
@@ -7450,17 +7460,19 @@
         <v>56</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>342</v>
+        <v>327</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>343</v>
+        <v>328</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="M47" s="2"/>
+        <v>329</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>330</v>
+      </c>
       <c r="N47" t="s" s="2">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>45</v>
@@ -7509,34 +7521,34 @@
         <v>45</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>341</v>
+        <v>325</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>45</v>
+        <v>333</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>67</v>
+        <v>334</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>45</v>
@@ -7544,7 +7556,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7555,10 +7567,10 @@
         <v>43</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>45</v>
@@ -7567,20 +7579,18 @@
         <v>56</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>351</v>
+        <v>91</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>354</v>
-      </c>
+        <v>343</v>
+      </c>
+      <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>45</v>
       </c>
@@ -7616,17 +7626,19 @@
         <v>45</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="AB48" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>45</v>
+      </c>
       <c r="AC48" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>326</v>
+        <v>45</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>43</v>
@@ -7635,7 +7647,7 @@
         <v>55</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>355</v>
+        <v>45</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>67</v>
@@ -7644,28 +7656,26 @@
         <v>45</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>356</v>
+        <v>45</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>357</v>
+        <v>344</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>358</v>
+        <v>345</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>45</v>
+        <v>346</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>359</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="B49" t="s" s="2">
-        <v>360</v>
-      </c>
+        <v>347</v>
+      </c>
+      <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
         <v>45</v>
       </c>
@@ -7674,10 +7684,10 @@
         <v>43</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>45</v>
@@ -7686,19 +7696,17 @@
         <v>56</v>
       </c>
       <c r="J49" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="K49" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="M49" s="2"/>
+      <c r="N49" t="s" s="2">
         <v>351</v>
-      </c>
-      <c r="K49" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>354</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>45</v>
@@ -7747,42 +7755,42 @@
         <v>45</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>355</v>
+        <v>45</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>67</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>45</v>
+        <v>352</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>356</v>
+        <v>45</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>45</v>
+        <v>355</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>359</v>
+        <v>45</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7796,25 +7804,29 @@
         <v>55</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>57</v>
+        <v>357</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>69</v>
+        <v>358</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="M50" s="2"/>
-      <c r="N50" s="2"/>
+        <v>358</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>360</v>
+      </c>
       <c r="O50" t="s" s="2">
         <v>45</v>
       </c>
@@ -7850,19 +7862,17 @@
         <v>45</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB50" t="s" s="2">
-        <v>45</v>
-      </c>
+        <v>332</v>
+      </c>
+      <c r="AB50" s="2"/>
       <c r="AC50" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD50" t="s" s="2">
-        <v>45</v>
+        <v>292</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>71</v>
+        <v>356</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>43</v>
@@ -7871,67 +7881,71 @@
         <v>55</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>45</v>
+        <v>361</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>45</v>
+        <v>362</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>45</v>
+        <v>363</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>72</v>
+        <v>364</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>45</v>
+        <v>365</v>
       </c>
     </row>
-    <row r="51" hidden="true">
+    <row r="51">
       <c r="A51" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="B51" s="2"/>
+        <v>356</v>
+      </c>
+      <c r="B51" t="s" s="2">
+        <v>366</v>
+      </c>
       <c r="C51" t="s" s="2">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>75</v>
+        <v>357</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>76</v>
+        <v>358</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>77</v>
+        <v>358</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="N51" s="2"/>
+        <v>359</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>360</v>
+      </c>
       <c r="O51" t="s" s="2">
         <v>45</v>
       </c>
@@ -7967,54 +7981,54 @@
         <v>45</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="AC51" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>82</v>
+        <v>356</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>45</v>
+        <v>361</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>45</v>
+        <v>362</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>45</v>
+        <v>363</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>72</v>
+        <v>364</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>45</v>
+        <v>365</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8034,23 +8048,19 @@
         <v>45</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>364</v>
+        <v>57</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>365</v>
+        <v>69</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>368</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>45</v>
       </c>
@@ -8098,7 +8108,7 @@
         <v>45</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>369</v>
+        <v>71</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>43</v>
@@ -8110,7 +8120,7 @@
         <v>45</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>45</v>
@@ -8119,10 +8129,10 @@
         <v>45</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>370</v>
+        <v>45</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>371</v>
+        <v>72</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>45</v>
@@ -8133,47 +8143,45 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>132</v>
+        <v>75</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>373</v>
+        <v>76</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="M53" s="2"/>
-      <c r="N53" t="s" s="2">
-        <v>375</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="P53" t="s" s="2">
-        <v>376</v>
-      </c>
+      <c r="P53" s="2"/>
       <c r="Q53" t="s" s="2">
         <v>45</v>
       </c>
@@ -8193,43 +8201,43 @@
         <v>45</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>194</v>
+        <v>45</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>377</v>
+        <v>45</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>378</v>
+        <v>45</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="AC53" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>379</v>
+        <v>82</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>45</v>
@@ -8238,10 +8246,10 @@
         <v>45</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>380</v>
+        <v>45</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>381</v>
+        <v>72</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>45</v>
@@ -8252,7 +8260,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>382</v>
+        <v>369</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8275,17 +8283,19 @@
         <v>56</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>57</v>
+        <v>370</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="M54" s="2"/>
+        <v>372</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>373</v>
+      </c>
       <c r="N54" t="s" s="2">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>45</v>
@@ -8295,7 +8305,7 @@
         <v>45</v>
       </c>
       <c r="R54" t="s" s="2">
-        <v>386</v>
+        <v>45</v>
       </c>
       <c r="S54" t="s" s="2">
         <v>45</v>
@@ -8334,7 +8344,7 @@
         <v>45</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>43</v>
@@ -8355,10 +8365,10 @@
         <v>45</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>45</v>
@@ -8369,7 +8379,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>390</v>
+        <v>378</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8386,28 +8396,30 @@
         <v>45</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="I55" t="s" s="2">
         <v>56</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>97</v>
+        <v>132</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>392</v>
+        <v>380</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" t="s" s="2">
-        <v>393</v>
+        <v>381</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="P55" s="2"/>
+      <c r="P55" t="s" s="2">
+        <v>382</v>
+      </c>
       <c r="Q55" t="s" s="2">
         <v>45</v>
       </c>
@@ -8427,13 +8439,13 @@
         <v>45</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>45</v>
+        <v>194</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>45</v>
+        <v>383</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>45</v>
+        <v>384</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>45</v>
@@ -8451,7 +8463,7 @@
         <v>45</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>43</v>
@@ -8460,7 +8472,7 @@
         <v>55</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>395</v>
+        <v>45</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>67</v>
@@ -8472,10 +8484,10 @@
         <v>45</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>45</v>
@@ -8486,7 +8498,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8509,19 +8521,17 @@
         <v>56</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>132</v>
+        <v>57</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>400</v>
-      </c>
+        <v>390</v>
+      </c>
+      <c r="M56" s="2"/>
       <c r="N56" t="s" s="2">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>45</v>
@@ -8531,7 +8541,7 @@
         <v>45</v>
       </c>
       <c r="R56" t="s" s="2">
-        <v>45</v>
+        <v>392</v>
       </c>
       <c r="S56" t="s" s="2">
         <v>45</v>
@@ -8570,7 +8580,7 @@
         <v>45</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>43</v>
@@ -8591,10 +8601,10 @@
         <v>45</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>45</v>
@@ -8603,9 +8613,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8616,31 +8626,29 @@
         <v>43</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G57" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I57" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="H57" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I57" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="J57" t="s" s="2">
-        <v>202</v>
+        <v>97</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>407</v>
-      </c>
+        <v>398</v>
+      </c>
+      <c r="M57" s="2"/>
       <c r="N57" t="s" s="2">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>45</v>
@@ -8665,13 +8673,13 @@
         <v>45</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>113</v>
+        <v>45</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>409</v>
+        <v>45</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>410</v>
+        <v>45</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>45</v>
@@ -8689,7 +8697,7 @@
         <v>45</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>43</v>
@@ -8698,7 +8706,7 @@
         <v>55</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>67</v>
@@ -8710,10 +8718,10 @@
         <v>45</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>155</v>
+        <v>394</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>45</v>
@@ -8724,18 +8732,18 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>414</v>
+        <v>45</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>45</v>
@@ -8744,22 +8752,22 @@
         <v>45</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>202</v>
+        <v>132</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>416</v>
+        <v>405</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>417</v>
+        <v>406</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>418</v>
+        <v>407</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>45</v>
@@ -8784,13 +8792,13 @@
         <v>45</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>113</v>
+        <v>45</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>419</v>
+        <v>45</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>420</v>
+        <v>45</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>45</v>
@@ -8808,13 +8816,13 @@
         <v>45</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>45</v>
@@ -8826,24 +8834,24 @@
         <v>45</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>421</v>
+        <v>45</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>422</v>
+        <v>394</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>423</v>
+        <v>409</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>424</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="59" hidden="true">
+    <row r="59">
       <c r="A59" t="s" s="2">
-        <v>425</v>
+        <v>410</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8854,10 +8862,10 @@
         <v>43</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>45</v>
@@ -8866,19 +8874,19 @@
         <v>45</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>426</v>
+        <v>202</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>427</v>
+        <v>411</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>428</v>
+        <v>412</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>429</v>
+        <v>413</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>430</v>
+        <v>414</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>45</v>
@@ -8903,13 +8911,13 @@
         <v>45</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>45</v>
+        <v>113</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>45</v>
+        <v>415</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>45</v>
+        <v>416</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>45</v>
@@ -8927,16 +8935,16 @@
         <v>45</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>425</v>
+        <v>410</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>45</v>
+        <v>417</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>67</v>
@@ -8948,10 +8956,10 @@
         <v>45</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>431</v>
+        <v>155</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>432</v>
+        <v>418</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>45</v>
@@ -8962,11 +8970,11 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>433</v>
+        <v>419</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>45</v>
+        <v>420</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
@@ -8988,15 +8996,17 @@
         <v>202</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="N60" s="2"/>
+        <v>423</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>424</v>
+      </c>
       <c r="O60" t="s" s="2">
         <v>45</v>
       </c>
@@ -9020,13 +9030,13 @@
         <v>45</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>437</v>
+        <v>425</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>438</v>
+        <v>426</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>45</v>
@@ -9044,13 +9054,13 @@
         <v>45</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>433</v>
+        <v>419</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>45</v>
@@ -9062,24 +9072,24 @@
         <v>45</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>439</v>
+        <v>427</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO60" t="s" s="2">
-        <v>442</v>
+        <v>430</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>443</v>
+        <v>431</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -9090,7 +9100,7 @@
         <v>43</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>45</v>
@@ -9102,19 +9112,19 @@
         <v>45</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>202</v>
+        <v>432</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>444</v>
+        <v>433</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>445</v>
+        <v>434</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>446</v>
+        <v>435</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>447</v>
+        <v>436</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>45</v>
@@ -9139,13 +9149,13 @@
         <v>45</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>122</v>
+        <v>45</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>448</v>
+        <v>45</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>449</v>
+        <v>45</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>45</v>
@@ -9163,13 +9173,13 @@
         <v>45</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>443</v>
+        <v>431</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>45</v>
@@ -9184,10 +9194,10 @@
         <v>45</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>450</v>
+        <v>437</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>451</v>
+        <v>438</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>45</v>
@@ -9198,7 +9208,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>452</v>
+        <v>439</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9221,16 +9231,16 @@
         <v>45</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>453</v>
+        <v>202</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>454</v>
+        <v>440</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>455</v>
+        <v>441</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>456</v>
+        <v>442</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
@@ -9256,13 +9266,13 @@
         <v>45</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>45</v>
+        <v>122</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>45</v>
+        <v>443</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>45</v>
+        <v>444</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>45</v>
@@ -9280,7 +9290,7 @@
         <v>45</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>452</v>
+        <v>439</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>43</v>
@@ -9298,24 +9308,24 @@
         <v>45</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>457</v>
+        <v>445</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>458</v>
+        <v>446</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>459</v>
+        <v>447</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO62" t="s" s="2">
-        <v>460</v>
+        <v>448</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9338,18 +9348,20 @@
         <v>45</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>462</v>
+        <v>202</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>463</v>
+        <v>450</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>464</v>
+        <v>451</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="N63" s="2"/>
+        <v>452</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>453</v>
+      </c>
       <c r="O63" t="s" s="2">
         <v>45</v>
       </c>
@@ -9373,13 +9385,13 @@
         <v>45</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>45</v>
+        <v>122</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>45</v>
+        <v>454</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>45</v>
+        <v>455</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>45</v>
@@ -9397,7 +9409,7 @@
         <v>45</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>43</v>
@@ -9415,24 +9427,24 @@
         <v>45</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>466</v>
+        <v>45</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>467</v>
+        <v>456</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>468</v>
+        <v>457</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO63" t="s" s="2">
-        <v>469</v>
+        <v>45</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9455,20 +9467,18 @@
         <v>45</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>473</v>
+        <v>461</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>475</v>
-      </c>
+        <v>462</v>
+      </c>
+      <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>45</v>
       </c>
@@ -9516,42 +9526,42 @@
         <v>45</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>476</v>
+        <v>67</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>45</v>
+        <v>463</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>477</v>
+        <v>464</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>478</v>
+        <v>465</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO64" t="s" s="2">
-        <v>45</v>
+        <v>466</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>479</v>
+        <v>467</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9562,7 +9572,7 @@
         <v>43</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>45</v>
@@ -9574,15 +9584,17 @@
         <v>45</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>57</v>
+        <v>468</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>69</v>
+        <v>469</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="M65" s="2"/>
+        <v>470</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>471</v>
+      </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>45</v>
@@ -9631,7 +9643,7 @@
         <v>45</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>71</v>
+        <v>467</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>43</v>
@@ -9643,41 +9655,41 @@
         <v>45</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>45</v>
+        <v>472</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>45</v>
+        <v>473</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>72</v>
+        <v>474</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO65" t="s" s="2">
-        <v>45</v>
+        <v>475</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>45</v>
@@ -9689,18 +9701,20 @@
         <v>45</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>75</v>
+        <v>477</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>76</v>
+        <v>478</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>77</v>
+        <v>479</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="N66" s="2"/>
+        <v>480</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>481</v>
+      </c>
       <c r="O66" t="s" s="2">
         <v>45</v>
       </c>
@@ -9748,7 +9762,7 @@
         <v>45</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>82</v>
+        <v>476</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>43</v>
@@ -9760,7 +9774,7 @@
         <v>45</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>83</v>
+        <v>482</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>45</v>
@@ -9769,10 +9783,10 @@
         <v>45</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>45</v>
+        <v>483</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>72</v>
+        <v>484</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>45</v>
@@ -9783,43 +9797,39 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>482</v>
+        <v>45</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H67" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>483</v>
+        <v>69</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>485</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="M67" s="2"/>
+      <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
         <v>45</v>
       </c>
@@ -9867,19 +9877,19 @@
         <v>45</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>486</v>
+        <v>71</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>45</v>
@@ -9891,7 +9901,7 @@
         <v>45</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>155</v>
+        <v>72</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>45</v>
@@ -9902,18 +9912,18 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>45</v>
@@ -9925,15 +9935,17 @@
         <v>45</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>488</v>
+        <v>75</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>489</v>
+        <v>76</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="M68" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
         <v>45</v>
@@ -9982,19 +9994,19 @@
         <v>45</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>487</v>
+        <v>82</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>491</v>
+        <v>45</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>45</v>
@@ -10003,10 +10015,10 @@
         <v>45</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>492</v>
+        <v>45</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>493</v>
+        <v>72</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>45</v>
@@ -10017,39 +10029,43 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>45</v>
+        <v>488</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H69" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>488</v>
+        <v>75</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="M69" s="2"/>
-      <c r="N69" s="2"/>
+        <v>490</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>491</v>
+      </c>
       <c r="O69" t="s" s="2">
         <v>45</v>
       </c>
@@ -10097,19 +10113,19 @@
         <v>45</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>491</v>
+        <v>45</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>45</v>
@@ -10118,10 +10134,10 @@
         <v>45</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>492</v>
+        <v>45</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>497</v>
+        <v>155</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>45</v>
@@ -10132,7 +10148,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10155,20 +10171,16 @@
         <v>45</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>202</v>
+        <v>494</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>502</v>
-      </c>
+        <v>496</v>
+      </c>
+      <c r="M70" s="2"/>
+      <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
         <v>45</v>
       </c>
@@ -10192,13 +10204,13 @@
         <v>45</v>
       </c>
       <c r="W70" t="s" s="2">
-        <v>136</v>
+        <v>45</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>503</v>
+        <v>45</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>504</v>
+        <v>45</v>
       </c>
       <c r="Z70" t="s" s="2">
         <v>45</v>
@@ -10216,7 +10228,7 @@
         <v>45</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>43</v>
@@ -10225,7 +10237,7 @@
         <v>55</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>45</v>
+        <v>497</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>67</v>
@@ -10234,13 +10246,13 @@
         <v>45</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>505</v>
+        <v>45</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>423</v>
+        <v>499</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>45</v>
@@ -10251,7 +10263,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10262,7 +10274,7 @@
         <v>43</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>45</v>
@@ -10274,20 +10286,16 @@
         <v>45</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>202</v>
+        <v>494</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>511</v>
-      </c>
+        <v>502</v>
+      </c>
+      <c r="M71" s="2"/>
+      <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
         <v>45</v>
       </c>
@@ -10311,13 +10319,13 @@
         <v>45</v>
       </c>
       <c r="W71" t="s" s="2">
-        <v>122</v>
+        <v>45</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>512</v>
+        <v>45</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>513</v>
+        <v>45</v>
       </c>
       <c r="Z71" t="s" s="2">
         <v>45</v>
@@ -10335,16 +10343,16 @@
         <v>45</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>45</v>
+        <v>497</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>67</v>
@@ -10353,13 +10361,13 @@
         <v>45</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>505</v>
+        <v>45</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>423</v>
+        <v>503</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>45</v>
@@ -10370,7 +10378,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>514</v>
+        <v>504</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10393,17 +10401,19 @@
         <v>45</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>515</v>
+        <v>202</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>516</v>
+        <v>505</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="M72" s="2"/>
+        <v>506</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>507</v>
+      </c>
       <c r="N72" t="s" s="2">
-        <v>518</v>
+        <v>508</v>
       </c>
       <c r="O72" t="s" s="2">
         <v>45</v>
@@ -10428,13 +10438,13 @@
         <v>45</v>
       </c>
       <c r="W72" t="s" s="2">
-        <v>45</v>
+        <v>136</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>45</v>
+        <v>509</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>45</v>
+        <v>510</v>
       </c>
       <c r="Z72" t="s" s="2">
         <v>45</v>
@@ -10452,7 +10462,7 @@
         <v>45</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>514</v>
+        <v>504</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>43</v>
@@ -10470,13 +10480,13 @@
         <v>45</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>45</v>
+        <v>511</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>45</v>
+        <v>512</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>519</v>
+        <v>429</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>45</v>
@@ -10487,7 +10497,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10498,7 +10508,7 @@
         <v>43</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>45</v>
@@ -10510,16 +10520,20 @@
         <v>45</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>57</v>
+        <v>202</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="M73" s="2"/>
-      <c r="N73" s="2"/>
+        <v>515</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>517</v>
+      </c>
       <c r="O73" t="s" s="2">
         <v>45</v>
       </c>
@@ -10543,13 +10557,13 @@
         <v>45</v>
       </c>
       <c r="W73" t="s" s="2">
-        <v>45</v>
+        <v>122</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>45</v>
+        <v>518</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>45</v>
+        <v>519</v>
       </c>
       <c r="Z73" t="s" s="2">
         <v>45</v>
@@ -10567,13 +10581,13 @@
         <v>45</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>45</v>
@@ -10585,13 +10599,13 @@
         <v>45</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>45</v>
+        <v>511</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>492</v>
+        <v>512</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>523</v>
+        <v>429</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>45</v>
@@ -10602,7 +10616,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10613,30 +10627,30 @@
         <v>43</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>527</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>528</v>
-      </c>
-      <c r="N74" s="2"/>
+        <v>523</v>
+      </c>
+      <c r="M74" s="2"/>
+      <c r="N74" t="s" s="2">
+        <v>524</v>
+      </c>
       <c r="O74" t="s" s="2">
         <v>45</v>
       </c>
@@ -10672,25 +10686,25 @@
         <v>45</v>
       </c>
       <c r="AA74" t="s" s="2">
-        <v>529</v>
+        <v>45</v>
       </c>
       <c r="AB74" t="s" s="2">
-        <v>530</v>
+        <v>45</v>
       </c>
       <c r="AC74" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD74" t="s" s="2">
-        <v>326</v>
+        <v>45</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>45</v>
@@ -10705,10 +10719,10 @@
         <v>45</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>531</v>
+        <v>45</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>45</v>
@@ -10719,11 +10733,9 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>524</v>
-      </c>
-      <c r="B75" t="s" s="2">
-        <v>533</v>
-      </c>
+        <v>526</v>
+      </c>
+      <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
         <v>45</v>
       </c>
@@ -10741,20 +10753,18 @@
         <v>45</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>534</v>
+        <v>57</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>527</v>
-      </c>
-      <c r="M75" t="s" s="2">
         <v>528</v>
       </c>
+      <c r="M75" s="2"/>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
         <v>45</v>
@@ -10803,13 +10813,13 @@
         <v>45</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>45</v>
@@ -10824,10 +10834,10 @@
         <v>45</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>531</v>
+        <v>498</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>45</v>
@@ -10836,13 +10846,11 @@
         <v>45</v>
       </c>
     </row>
-    <row r="76" hidden="true">
+    <row r="76">
       <c r="A76" t="s" s="2">
-        <v>524</v>
-      </c>
-      <c r="B76" t="s" s="2">
-        <v>535</v>
-      </c>
+        <v>530</v>
+      </c>
+      <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
         <v>45</v>
       </c>
@@ -10851,10 +10859,10 @@
         <v>43</v>
       </c>
       <c r="F76" t="s" s="2">
-        <v>55</v>
+        <v>290</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>45</v>
@@ -10863,16 +10871,16 @@
         <v>56</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>526</v>
+        <v>532</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>527</v>
+        <v>533</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
@@ -10922,7 +10930,7 @@
         <v>45</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>43</v>
@@ -10943,10 +10951,10 @@
         <v>45</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>45</v>
@@ -11060,7 +11068,7 @@
         <v>45</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>542</v>
@@ -11097,7 +11105,7 @@
         <v>56</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="K78" t="s" s="2">
         <v>544</v>
@@ -11429,7 +11437,7 @@
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
@@ -11451,16 +11459,16 @@
         <v>75</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="M81" t="s" s="2">
         <v>78</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="O81" t="s" s="2">
         <v>45</v>
@@ -11509,7 +11517,7 @@
         <v>45</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>43</v>
@@ -11698,7 +11706,7 @@
         <v>563</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="O83" t="s" s="2">
         <v>45</v>
@@ -11768,16 +11776,16 @@
         <v>567</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO83" t="s" s="2">
-        <v>359</v>
+        <v>365</v>
       </c>
     </row>
     <row r="84">
@@ -11817,7 +11825,7 @@
         <v>571</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="O84" t="s" s="2">
         <v>45</v>
@@ -11845,10 +11853,10 @@
         <v>113</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="Z84" t="s" s="2">
         <v>45</v>
@@ -11890,7 +11898,7 @@
         <v>155</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>45</v>
@@ -11905,7 +11913,7 @@
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
@@ -11927,16 +11935,16 @@
         <v>202</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="O85" t="s" s="2">
         <v>45</v>
@@ -11964,10 +11972,10 @@
         <v>113</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="Z85" t="s" s="2">
         <v>45</v>
@@ -12003,19 +12011,19 @@
         <v>45</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO85" t="s" s="2">
-        <v>424</v>
+        <v>430</v>
       </c>
     </row>
     <row r="86" hidden="true">
@@ -12052,10 +12060,10 @@
         <v>576</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="O86" t="s" s="2">
         <v>45</v>
@@ -12125,10 +12133,10 @@
         <v>45</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>45</v>

--- a/docs/StructureDefinition-VA.MHV.bloodOxygenSat.xlsx
+++ b/docs/StructureDefinition-VA.MHV.bloodOxygenSat.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.6-beta</t>
+    <t>0.2.7-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -93,7 +93,7 @@
   - FHIR Core R4 also adds 2708-6
 - must have effectiveDateTime
 - must have a valueQuantity with UCUM '%' units
-  * must be between 50% &lt; n &lt; 100%
+  * must be between 50% &lt;= n &lt;= 100%
 - must have status at final or preliminary
 - must point at the patient
 - may have a hasMember of a blood-pressure and/or respiration-rate

--- a/docs/StructureDefinition-VA.MHV.bloodOxygenSat.xlsx
+++ b/docs/StructureDefinition-VA.MHV.bloodOxygenSat.xlsx
@@ -78,7 +78,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>World</t>
+    <t>United States of America</t>
   </si>
   <si>
     <t>Description</t>

--- a/docs/StructureDefinition-VA.MHV.bloodOxygenSat.xlsx
+++ b/docs/StructureDefinition-VA.MHV.bloodOxygenSat.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.7-beta</t>
+    <t>0.2.8-beta</t>
   </si>
   <si>
     <t>Name</t>

--- a/docs/StructureDefinition-VA.MHV.bloodOxygenSat.xlsx
+++ b/docs/StructureDefinition-VA.MHV.bloodOxygenSat.xlsx
@@ -81,7 +81,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>World</t>
+    <t>United States of America</t>
   </si>
   <si>
     <t>Description</t>

--- a/docs/StructureDefinition-VA.MHV.bloodOxygenSat.xlsx
+++ b/docs/StructureDefinition-VA.MHV.bloodOxygenSat.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.8-beta</t>
+    <t>0.2.9-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -99,7 +99,7 @@
   * must be between 50% &lt;= n &lt;= 100%
 - must have status at final or preliminary
 - must point at the patient
-- may have a hasMember of a blood-pressure and/or respiration-rate
+- may have a hasMember of a heart-rate and/or respiration-rate
 - may have a note (comment)
 - once created will or might have an id, versionId, lastUpdated, text, and identifier
 - DSTU2 use comment rather than note</t>

--- a/docs/StructureDefinition-VA.MHV.bloodOxygenSat.xlsx
+++ b/docs/StructureDefinition-VA.MHV.bloodOxygenSat.xlsx
@@ -94,7 +94,8 @@
 - must have LOINC#59408-5 code AND LOINC#2708-6
   - Argonaut and VCM use 59408-5
   - FHIR Core R4 also adds 2708-6
-- must have effectiveDateTime
+- must have effectiveDateTime 
+  - others might use effectivePeriod
 - must have a valueQuantity with UCUM '%' units
   * must be between 50% &lt;= n &lt;= 100%
 - must have status at final or preliminary

--- a/docs/StructureDefinition-VA.MHV.bloodOxygenSat.xlsx
+++ b/docs/StructureDefinition-VA.MHV.bloodOxygenSat.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3335" uniqueCount="638">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3335" uniqueCount="639">
   <si>
     <t>Property</t>
   </si>
@@ -282,6 +282,10 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
   </si>
   <si>
     <t>FHIR Vital Signs Profile</t>
@@ -2573,16 +2577,16 @@
         <v>82</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -2647,16 +2651,16 @@
         <v>82</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AO2" t="s" s="2">
         <v>82</v>
@@ -2667,10 +2671,10 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -2681,7 +2685,7 @@
         <v>80</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>82</v>
@@ -2690,19 +2694,19 @@
         <v>82</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -2752,13 +2756,13 @@
         <v>82</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>82</v>
@@ -2787,10 +2791,10 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2801,7 +2805,7 @@
         <v>80</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>82</v>
@@ -2810,16 +2814,16 @@
         <v>82</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -2870,19 +2874,19 @@
         <v>82</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>82</v>
@@ -2905,10 +2909,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2919,7 +2923,7 @@
         <v>80</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>82</v>
@@ -2931,13 +2935,13 @@
         <v>82</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -2988,13 +2992,13 @@
         <v>82</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>82</v>
@@ -3012,7 +3016,7 @@
         <v>82</v>
       </c>
       <c r="AN5" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AO5" t="s" s="2">
         <v>82</v>
@@ -3023,14 +3027,14 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
@@ -3049,16 +3053,16 @@
         <v>82</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -3096,19 +3100,19 @@
         <v>82</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AD6" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>80</v>
@@ -3120,7 +3124,7 @@
         <v>82</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>82</v>
@@ -3132,7 +3136,7 @@
         <v>82</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AO6" t="s" s="2">
         <v>82</v>
@@ -3143,10 +3147,10 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -3157,7 +3161,7 @@
         <v>80</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>82</v>
@@ -3166,19 +3170,19 @@
         <v>82</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -3228,19 +3232,19 @@
         <v>82</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>82</v>
@@ -3263,10 +3267,10 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -3277,7 +3281,7 @@
         <v>80</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>82</v>
@@ -3286,19 +3290,19 @@
         <v>82</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -3348,19 +3352,19 @@
         <v>82</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>82</v>
@@ -3383,10 +3387,10 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -3397,7 +3401,7 @@
         <v>80</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>82</v>
@@ -3406,19 +3410,19 @@
         <v>82</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -3468,19 +3472,19 @@
         <v>82</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI9" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>82</v>
@@ -3503,10 +3507,10 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -3526,19 +3530,19 @@
         <v>82</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
@@ -3588,7 +3592,7 @@
         <v>82</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>80</v>
@@ -3600,7 +3604,7 @@
         <v>82</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>82</v>
@@ -3623,10 +3627,10 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -3646,19 +3650,19 @@
         <v>82</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -3684,13 +3688,13 @@
         <v>82</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AA11" t="s" s="2">
         <v>82</v>
@@ -3708,7 +3712,7 @@
         <v>82</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>80</v>
@@ -3720,7 +3724,7 @@
         <v>82</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>82</v>
@@ -3743,10 +3747,10 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3754,10 +3758,10 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>82</v>
@@ -3766,19 +3770,19 @@
         <v>82</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -3789,7 +3793,7 @@
         <v>82</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="T12" t="s" s="2">
         <v>82</v>
@@ -3804,13 +3808,13 @@
         <v>82</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>82</v>
@@ -3828,7 +3832,7 @@
         <v>82</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>80</v>
@@ -3840,7 +3844,7 @@
         <v>82</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>82</v>
@@ -3863,10 +3867,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3883,22 +3887,22 @@
         <v>82</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3948,19 +3952,19 @@
         <v>82</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>82</v>
@@ -3983,10 +3987,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -4009,16 +4013,16 @@
         <v>82</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -4044,13 +4048,13 @@
         <v>82</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>82</v>
@@ -4068,19 +4072,19 @@
         <v>82</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>82</v>
@@ -4103,21 +4107,21 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>82</v>
@@ -4129,16 +4133,16 @@
         <v>82</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -4188,19 +4192,19 @@
         <v>82</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>82</v>
@@ -4212,7 +4216,7 @@
         <v>82</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AO15" t="s" s="2">
         <v>82</v>
@@ -4223,14 +4227,14 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -4249,16 +4253,16 @@
         <v>82</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -4308,7 +4312,7 @@
         <v>82</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>80</v>
@@ -4332,7 +4336,7 @@
         <v>82</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>82</v>
@@ -4343,10 +4347,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -4369,13 +4373,13 @@
         <v>82</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -4426,7 +4430,7 @@
         <v>82</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>80</v>
@@ -4438,7 +4442,7 @@
         <v>82</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>82</v>
@@ -4461,10 +4465,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4481,19 +4485,19 @@
         <v>82</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J18" t="s" s="2">
         <v>82</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -4544,7 +4548,7 @@
         <v>82</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>80</v>
@@ -4556,7 +4560,7 @@
         <v>82</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>82</v>
@@ -4579,10 +4583,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4602,20 +4606,20 @@
         <v>82</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>82</v>
@@ -4664,7 +4668,7 @@
         <v>82</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>80</v>
@@ -4676,22 +4680,22 @@
         <v>82</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AP19" t="s" s="2">
         <v>82</v>
@@ -4699,14 +4703,14 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
@@ -4722,20 +4726,20 @@
         <v>82</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>82</v>
@@ -4784,7 +4788,7 @@
         <v>82</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>80</v>
@@ -4796,19 +4800,19 @@
         <v>82</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>82</v>
@@ -4819,14 +4823,14 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
@@ -4842,19 +4846,19 @@
         <v>82</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4904,7 +4908,7 @@
         <v>82</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>80</v>
@@ -4916,19 +4920,19 @@
         <v>82</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>82</v>
@@ -4939,10 +4943,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4950,34 +4954,34 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>82</v>
@@ -5002,11 +5006,11 @@
         <v>82</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Y22" s="2"/>
       <c r="Z22" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>82</v>
@@ -5024,34 +5028,34 @@
         <v>82</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AP22" t="s" s="2">
         <v>82</v>
@@ -5059,10 +5063,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -5070,13 +5074,13 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>82</v>
@@ -5085,19 +5089,19 @@
         <v>82</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>82</v>
@@ -5122,29 +5126,29 @@
         <v>82</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AC23" s="2"/>
       <c r="AD23" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>80</v>
@@ -5156,7 +5160,7 @@
         <v>82</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>82</v>
@@ -5168,10 +5172,10 @@
         <v>82</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AP23" t="s" s="2">
         <v>82</v>
@@ -5179,26 +5183,26 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D24" t="s" s="2">
         <v>82</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>82</v>
@@ -5207,19 +5211,19 @@
         <v>82</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>82</v>
@@ -5244,13 +5248,13 @@
         <v>82</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>82</v>
@@ -5268,7 +5272,7 @@
         <v>82</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>80</v>
@@ -5280,7 +5284,7 @@
         <v>82</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>82</v>
@@ -5292,10 +5296,10 @@
         <v>82</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AP24" t="s" s="2">
         <v>82</v>
@@ -5303,10 +5307,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5317,7 +5321,7 @@
         <v>80</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>82</v>
@@ -5329,13 +5333,13 @@
         <v>82</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -5386,13 +5390,13 @@
         <v>82</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>82</v>
@@ -5410,7 +5414,7 @@
         <v>82</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>82</v>
@@ -5421,14 +5425,14 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
@@ -5447,16 +5451,16 @@
         <v>82</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -5494,19 +5498,19 @@
         <v>82</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AD26" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>80</v>
@@ -5518,7 +5522,7 @@
         <v>82</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>82</v>
@@ -5530,7 +5534,7 @@
         <v>82</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>82</v>
@@ -5541,10 +5545,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5552,34 +5556,34 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>82</v>
@@ -5628,7 +5632,7 @@
         <v>82</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
@@ -5640,7 +5644,7 @@
         <v>82</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>82</v>
@@ -5649,10 +5653,10 @@
         <v>82</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>82</v>
@@ -5663,10 +5667,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5677,7 +5681,7 @@
         <v>80</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>82</v>
@@ -5689,13 +5693,13 @@
         <v>82</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -5746,13 +5750,13 @@
         <v>82</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>82</v>
@@ -5770,7 +5774,7 @@
         <v>82</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>82</v>
@@ -5781,14 +5785,14 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
@@ -5807,16 +5811,16 @@
         <v>82</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5854,19 +5858,19 @@
         <v>82</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AD29" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>80</v>
@@ -5878,7 +5882,7 @@
         <v>82</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>82</v>
@@ -5890,7 +5894,7 @@
         <v>82</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>82</v>
@@ -5901,10 +5905,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5912,41 +5916,41 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="S30" t="s" s="2">
         <v>82</v>
@@ -5988,19 +5992,19 @@
         <v>82</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>82</v>
@@ -6009,10 +6013,10 @@
         <v>82</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>82</v>
@@ -6023,10 +6027,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -6037,7 +6041,7 @@
         <v>80</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>82</v>
@@ -6046,19 +6050,19 @@
         <v>82</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -6108,19 +6112,19 @@
         <v>82</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>82</v>
@@ -6129,10 +6133,10 @@
         <v>82</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>82</v>
@@ -6143,10 +6147,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -6154,39 +6158,39 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S32" t="s" s="2">
         <v>82</v>
@@ -6228,19 +6232,19 @@
         <v>82</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>82</v>
@@ -6249,10 +6253,10 @@
         <v>82</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>82</v>
@@ -6263,10 +6267,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6277,7 +6281,7 @@
         <v>80</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>82</v>
@@ -6286,20 +6290,20 @@
         <v>82</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>82</v>
@@ -6348,19 +6352,19 @@
         <v>82</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>82</v>
@@ -6369,10 +6373,10 @@
         <v>82</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>82</v>
@@ -6383,10 +6387,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6397,7 +6401,7 @@
         <v>80</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>82</v>
@@ -6406,22 +6410,22 @@
         <v>82</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>82</v>
@@ -6470,19 +6474,19 @@
         <v>82</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>82</v>
@@ -6491,10 +6495,10 @@
         <v>82</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>82</v>
@@ -6505,10 +6509,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6519,7 +6523,7 @@
         <v>80</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>82</v>
@@ -6528,22 +6532,22 @@
         <v>82</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>82</v>
@@ -6592,19 +6596,19 @@
         <v>82</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>82</v>
@@ -6613,10 +6617,10 @@
         <v>82</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>82</v>
@@ -6627,45 +6631,45 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>82</v>
@@ -6690,13 +6694,13 @@
         <v>82</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>82</v>
@@ -6714,45 +6718,45 @@
         <v>82</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AP36" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6763,7 +6767,7 @@
         <v>80</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>82</v>
@@ -6775,13 +6779,13 @@
         <v>82</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -6832,13 +6836,13 @@
         <v>82</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>82</v>
@@ -6856,7 +6860,7 @@
         <v>82</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>82</v>
@@ -6867,14 +6871,14 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
@@ -6893,16 +6897,16 @@
         <v>82</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -6940,19 +6944,19 @@
         <v>82</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AD38" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
@@ -6964,7 +6968,7 @@
         <v>82</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>82</v>
@@ -6976,7 +6980,7 @@
         <v>82</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>82</v>
@@ -6987,10 +6991,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6998,10 +7002,10 @@
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>82</v>
@@ -7010,22 +7014,22 @@
         <v>82</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>82</v>
@@ -7062,17 +7066,17 @@
         <v>82</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AC39" s="2"/>
       <c r="AD39" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
@@ -7084,7 +7088,7 @@
         <v>82</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>82</v>
@@ -7093,10 +7097,10 @@
         <v>82</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>82</v>
@@ -7107,23 +7111,23 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D40" t="s" s="2">
         <v>82</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>82</v>
@@ -7132,22 +7136,22 @@
         <v>82</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>82</v>
@@ -7157,7 +7161,7 @@
         <v>82</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="T40" t="s" s="2">
         <v>82</v>
@@ -7196,7 +7200,7 @@
         <v>82</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
@@ -7208,7 +7212,7 @@
         <v>82</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>82</v>
@@ -7217,10 +7221,10 @@
         <v>82</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>82</v>
@@ -7231,23 +7235,23 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C41" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D41" t="s" s="2">
         <v>82</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>82</v>
@@ -7256,22 +7260,22 @@
         <v>82</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>82</v>
@@ -7281,7 +7285,7 @@
         <v>82</v>
       </c>
       <c r="S41" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="T41" t="s" s="2">
         <v>82</v>
@@ -7320,7 +7324,7 @@
         <v>82</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
@@ -7332,7 +7336,7 @@
         <v>82</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>82</v>
@@ -7341,10 +7345,10 @@
         <v>82</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>82</v>
@@ -7355,10 +7359,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7369,7 +7373,7 @@
         <v>80</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>82</v>
@@ -7378,22 +7382,22 @@
         <v>82</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>82</v>
@@ -7442,19 +7446,19 @@
         <v>82</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>82</v>
@@ -7463,10 +7467,10 @@
         <v>82</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>82</v>
@@ -7477,10 +7481,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7488,34 +7492,34 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>82</v>
@@ -7564,34 +7568,34 @@
         <v>82</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AP43" t="s" s="2">
         <v>82</v>
@@ -7599,10 +7603,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7622,19 +7626,19 @@
         <v>82</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -7684,7 +7688,7 @@
         <v>82</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
@@ -7696,7 +7700,7 @@
         <v>82</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>82</v>
@@ -7705,13 +7709,13 @@
         <v>82</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AP44" t="s" s="2">
         <v>82</v>
@@ -7719,14 +7723,14 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
@@ -7742,22 +7746,22 @@
         <v>82</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>82</v>
@@ -7806,34 +7810,34 @@
         <v>82</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AP45" t="s" s="2">
         <v>82</v>
@@ -7841,45 +7845,45 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I46" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>82</v>
@@ -7916,44 +7920,44 @@
         <v>82</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AC46" s="2"/>
       <c r="AD46" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AP46" t="s" s="2">
         <v>82</v>
@@ -7961,47 +7965,47 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C47" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D47" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I47" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>82</v>
@@ -8050,34 +8054,34 @@
         <v>82</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AP47" t="s" s="2">
         <v>82</v>
@@ -8085,10 +8089,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -8108,19 +8112,19 @@
         <v>82</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -8170,19 +8174,19 @@
         <v>82</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>82</v>
@@ -8191,13 +8195,13 @@
         <v>82</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AP48" t="s" s="2">
         <v>82</v>
@@ -8205,10 +8209,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8228,20 +8232,20 @@
         <v>82</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>82</v>
@@ -8290,7 +8294,7 @@
         <v>82</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
@@ -8302,22 +8306,22 @@
         <v>82</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AP49" t="s" s="2">
         <v>82</v>
@@ -8325,10 +8329,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8339,31 +8343,31 @@
         <v>80</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I50" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>82</v>
@@ -8400,58 +8404,58 @@
         <v>82</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AC50" s="2"/>
       <c r="AD50" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP50" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C51" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D51" t="s" s="2">
         <v>82</v>
@@ -8461,31 +8465,31 @@
         <v>80</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I51" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>82</v>
@@ -8534,45 +8538,45 @@
         <v>82</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP51" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8583,7 +8587,7 @@
         <v>80</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>82</v>
@@ -8595,13 +8599,13 @@
         <v>82</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -8652,13 +8656,13 @@
         <v>82</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>82</v>
@@ -8676,7 +8680,7 @@
         <v>82</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>82</v>
@@ -8687,14 +8691,14 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -8713,16 +8717,16 @@
         <v>82</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -8760,19 +8764,19 @@
         <v>82</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AC53" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AD53" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
@@ -8784,7 +8788,7 @@
         <v>82</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>82</v>
@@ -8796,7 +8800,7 @@
         <v>82</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>82</v>
@@ -8807,10 +8811,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8821,7 +8825,7 @@
         <v>80</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>82</v>
@@ -8830,22 +8834,22 @@
         <v>82</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>82</v>
@@ -8861,10 +8865,10 @@
         <v>82</v>
       </c>
       <c r="U54" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="V54" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="W54" t="s" s="2">
         <v>82</v>
@@ -8894,19 +8898,19 @@
         <v>82</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>82</v>
@@ -8915,10 +8919,10 @@
         <v>82</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>82</v>
@@ -8929,10 +8933,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8943,35 +8947,35 @@
         <v>80</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q55" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="R55" t="s" s="2">
         <v>82</v>
@@ -8992,13 +8996,13 @@
         <v>82</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>82</v>
@@ -9016,19 +9020,19 @@
         <v>82</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>82</v>
@@ -9037,10 +9041,10 @@
         <v>82</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>82</v>
@@ -9051,10 +9055,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -9065,7 +9069,7 @@
         <v>80</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>82</v>
@@ -9074,20 +9078,20 @@
         <v>82</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>82</v>
@@ -9097,7 +9101,7 @@
         <v>82</v>
       </c>
       <c r="S56" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="T56" t="s" s="2">
         <v>82</v>
@@ -9136,19 +9140,19 @@
         <v>82</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>82</v>
@@ -9157,10 +9161,10 @@
         <v>82</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>82</v>
@@ -9171,10 +9175,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -9185,7 +9189,7 @@
         <v>80</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>82</v>
@@ -9194,20 +9198,20 @@
         <v>82</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>82</v>
@@ -9256,19 +9260,19 @@
         <v>82</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>82</v>
@@ -9277,10 +9281,10 @@
         <v>82</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>82</v>
@@ -9291,10 +9295,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9305,7 +9309,7 @@
         <v>80</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>82</v>
@@ -9314,22 +9318,22 @@
         <v>82</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>82</v>
@@ -9378,19 +9382,19 @@
         <v>82</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>82</v>
@@ -9399,10 +9403,10 @@
         <v>82</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>82</v>
@@ -9413,10 +9417,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9430,7 +9434,7 @@
         <v>80</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I59" t="s" s="2">
         <v>82</v>
@@ -9439,19 +9443,19 @@
         <v>82</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="O59" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>82</v>
@@ -9476,13 +9480,13 @@
         <v>82</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>82</v>
@@ -9500,19 +9504,19 @@
         <v>82</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>82</v>
@@ -9521,10 +9525,10 @@
         <v>82</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>82</v>
@@ -9535,14 +9539,14 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
@@ -9561,19 +9565,19 @@
         <v>82</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>82</v>
@@ -9598,13 +9602,13 @@
         <v>82</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>82</v>
@@ -9622,7 +9626,7 @@
         <v>82</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>80</v>
@@ -9634,33 +9638,33 @@
         <v>82</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP60" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9671,7 +9675,7 @@
         <v>80</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>82</v>
@@ -9683,19 +9687,19 @@
         <v>82</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>82</v>
@@ -9744,7 +9748,7 @@
         <v>82</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
@@ -9756,7 +9760,7 @@
         <v>82</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>82</v>
@@ -9765,10 +9769,10 @@
         <v>82</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>82</v>
@@ -9779,10 +9783,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9805,16 +9809,16 @@
         <v>82</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -9840,13 +9844,13 @@
         <v>82</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>82</v>
@@ -9864,45 +9868,45 @@
         <v>82</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP62" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9925,19 +9929,19 @@
         <v>82</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="O63" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>82</v>
@@ -9962,13 +9966,13 @@
         <v>82</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>82</v>
@@ -9986,19 +9990,19 @@
         <v>82</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>82</v>
@@ -10007,10 +10011,10 @@
         <v>82</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>82</v>
@@ -10021,10 +10025,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -10047,16 +10051,16 @@
         <v>82</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -10106,45 +10110,45 @@
         <v>82</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP64" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -10167,16 +10171,16 @@
         <v>82</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -10226,45 +10230,45 @@
         <v>82</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP65" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10287,19 +10291,19 @@
         <v>82</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="O66" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>82</v>
@@ -10348,7 +10352,7 @@
         <v>82</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>80</v>
@@ -10360,7 +10364,7 @@
         <v>82</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>82</v>
@@ -10369,10 +10373,10 @@
         <v>82</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>82</v>
@@ -10383,10 +10387,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10397,7 +10401,7 @@
         <v>80</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>82</v>
@@ -10409,13 +10413,13 @@
         <v>82</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -10466,13 +10470,13 @@
         <v>82</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>82</v>
@@ -10490,7 +10494,7 @@
         <v>82</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>82</v>
@@ -10501,14 +10505,14 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
@@ -10527,16 +10531,16 @@
         <v>82</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
@@ -10586,7 +10590,7 @@
         <v>82</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>80</v>
@@ -10598,7 +10602,7 @@
         <v>82</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>82</v>
@@ -10610,7 +10614,7 @@
         <v>82</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>82</v>
@@ -10621,14 +10625,14 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
@@ -10641,25 +10645,25 @@
         <v>82</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O69" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>82</v>
@@ -10708,7 +10712,7 @@
         <v>82</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>80</v>
@@ -10720,7 +10724,7 @@
         <v>82</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>82</v>
@@ -10732,7 +10736,7 @@
         <v>82</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>82</v>
@@ -10743,10 +10747,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10757,7 +10761,7 @@
         <v>80</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>82</v>
@@ -10769,13 +10773,13 @@
         <v>82</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -10826,19 +10830,19 @@
         <v>82</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>82</v>
@@ -10847,10 +10851,10 @@
         <v>82</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>82</v>
@@ -10861,10 +10865,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10875,7 +10879,7 @@
         <v>80</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>82</v>
@@ -10887,13 +10891,13 @@
         <v>82</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -10944,19 +10948,19 @@
         <v>82</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>82</v>
@@ -10965,10 +10969,10 @@
         <v>82</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>82</v>
@@ -10979,10 +10983,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10993,7 +10997,7 @@
         <v>80</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>82</v>
@@ -11005,19 +11009,19 @@
         <v>82</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="O72" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>82</v>
@@ -11042,13 +11046,13 @@
         <v>82</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="Z72" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>82</v>
@@ -11066,31 +11070,31 @@
         <v>82</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>82</v>
@@ -11101,10 +11105,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11127,19 +11131,19 @@
         <v>82</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="O73" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>82</v>
@@ -11164,13 +11168,13 @@
         <v>82</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="Z73" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="AA73" t="s" s="2">
         <v>82</v>
@@ -11188,7 +11192,7 @@
         <v>82</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>80</v>
@@ -11200,19 +11204,19 @@
         <v>82</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>82</v>
@@ -11223,10 +11227,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11237,7 +11241,7 @@
         <v>80</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>82</v>
@@ -11249,17 +11253,17 @@
         <v>82</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>82</v>
@@ -11308,19 +11312,19 @@
         <v>82</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>82</v>
@@ -11332,7 +11336,7 @@
         <v>82</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>82</v>
@@ -11343,10 +11347,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11357,7 +11361,7 @@
         <v>80</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>82</v>
@@ -11369,13 +11373,13 @@
         <v>82</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
@@ -11426,19 +11430,19 @@
         <v>82</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>82</v>
@@ -11447,10 +11451,10 @@
         <v>82</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>82</v>
@@ -11461,10 +11465,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11475,28 +11479,28 @@
         <v>80</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H76" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I76" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
@@ -11546,7 +11550,7 @@
         <v>82</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>80</v>
@@ -11558,7 +11562,7 @@
         <v>82</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>82</v>
@@ -11567,10 +11571,10 @@
         <v>82</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>82</v>
@@ -11581,10 +11585,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11604,19 +11608,19 @@
         <v>82</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
@@ -11666,7 +11670,7 @@
         <v>82</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>80</v>
@@ -11678,7 +11682,7 @@
         <v>82</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>82</v>
@@ -11687,10 +11691,10 @@
         <v>82</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>82</v>
@@ -11701,10 +11705,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11718,28 +11722,28 @@
         <v>80</v>
       </c>
       <c r="H78" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I78" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="O78" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>82</v>
@@ -11788,7 +11792,7 @@
         <v>82</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>80</v>
@@ -11800,7 +11804,7 @@
         <v>82</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>82</v>
@@ -11809,10 +11813,10 @@
         <v>82</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>82</v>
@@ -11823,10 +11827,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11837,7 +11841,7 @@
         <v>80</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>82</v>
@@ -11849,13 +11853,13 @@
         <v>82</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -11906,13 +11910,13 @@
         <v>82</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>82</v>
@@ -11930,7 +11934,7 @@
         <v>82</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>82</v>
@@ -11941,14 +11945,14 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
@@ -11967,16 +11971,16 @@
         <v>82</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
@@ -12026,7 +12030,7 @@
         <v>82</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>80</v>
@@ -12038,7 +12042,7 @@
         <v>82</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>82</v>
@@ -12050,7 +12054,7 @@
         <v>82</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>82</v>
@@ -12061,14 +12065,14 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
@@ -12081,25 +12085,25 @@
         <v>82</v>
       </c>
       <c r="I81" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O81" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>82</v>
@@ -12148,7 +12152,7 @@
         <v>82</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>80</v>
@@ -12160,7 +12164,7 @@
         <v>82</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>82</v>
@@ -12172,7 +12176,7 @@
         <v>82</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>82</v>
@@ -12183,10 +12187,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -12194,34 +12198,34 @@
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H82" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I82" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="O82" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>82</v>
@@ -12246,13 +12250,13 @@
         <v>82</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Z82" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AA82" t="s" s="2">
         <v>82</v>
@@ -12270,34 +12274,34 @@
         <v>82</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI82" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AO82" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AP82" t="s" s="2">
         <v>82</v>
@@ -12305,10 +12309,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12319,31 +12323,31 @@
         <v>80</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H83" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I83" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="O83" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>82</v>
@@ -12368,13 +12372,13 @@
         <v>82</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="Z83" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="AA83" t="s" s="2">
         <v>82</v>
@@ -12392,45 +12396,45 @@
         <v>82</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP83" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12441,10 +12445,10 @@
         <v>80</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H84" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I84" t="s" s="2">
         <v>82</v>
@@ -12453,19 +12457,19 @@
         <v>82</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="O84" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="P84" t="s" s="2">
         <v>82</v>
@@ -12490,13 +12494,13 @@
         <v>82</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="Z84" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AA84" t="s" s="2">
         <v>82</v>
@@ -12514,19 +12518,19 @@
         <v>82</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>82</v>
@@ -12535,10 +12539,10 @@
         <v>82</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>82</v>
@@ -12549,14 +12553,14 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" t="s" s="2">
@@ -12575,19 +12579,19 @@
         <v>82</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="O85" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>82</v>
@@ -12612,13 +12616,13 @@
         <v>82</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="Z85" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AA85" t="s" s="2">
         <v>82</v>
@@ -12636,7 +12640,7 @@
         <v>82</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>80</v>
@@ -12648,33 +12652,33 @@
         <v>82</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP85" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12700,16 +12704,16 @@
         <v>82</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="O86" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="P86" t="s" s="2">
         <v>82</v>
@@ -12758,7 +12762,7 @@
         <v>82</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>80</v>
@@ -12770,7 +12774,7 @@
         <v>82</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>82</v>
@@ -12779,10 +12783,10 @@
         <v>82</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>82</v>

--- a/docs/StructureDefinition-VA.MHV.bloodOxygenSat.xlsx
+++ b/docs/StructureDefinition-VA.MHV.bloodOxygenSat.xlsx
@@ -87,7 +87,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>A profile on the Observation that declares how MHV will Read/Create/Update in PGHD for blood Oxygen Saturation measurements (aka Pulse Ox).
+    <t>A profile on the Observation that declares how MHV will Read/Create in PGHD for blood Oxygen Saturation measurements (aka Pulse Ox).
 This profile is consistent with FHIR core Vital-Signs for Oxygen Saturation
 - must be marked with MHV app tag
 - must have vital-signs category

--- a/docs/StructureDefinition-VA.MHV.bloodOxygenSat.xlsx
+++ b/docs/StructureDefinition-VA.MHV.bloodOxygenSat.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$86</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$85</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3335" uniqueCount="639">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3296" uniqueCount="631">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.9-beta</t>
+    <t>0.2.10-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -102,6 +102,7 @@
 - must point at the patient
 - may have a hasMember of a heart-rate and/or respiration-rate
 - may have a note (comment)
+- MHV captures Oxygen Setting, but this is not captured or stored in PGHD
 - once created will or might have an id, versionId, lastUpdated, text, and identifier
 - DSTU2 use comment rather than note</t>
   </si>
@@ -297,6 +298,10 @@
     <t>Used for simple observations such as device measurements, laboratory atomic results, vital signs, height, weight, smoking status, comments, etc.  Other resources are used to provide context for observations such as laboratory reports, etc.</t>
   </si>
   <si>
+    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}vs-2:If there is no component or hasMember element then either a value[x] or a data absent reason must be present. {(component.empty() and hasMember.empty()) implies (dataAbsentReason.exists() or value.exists())}</t>
+  </si>
+  <si>
     <t>Event</t>
   </si>
   <si>
@@ -454,7 +459,7 @@
     <t>Identifies where the resource comes from</t>
   </si>
   <si>
-    <t>A uri that identifies the source system of the resource. This provides a minimal amount of [Provenance](http://hl7.org/fhir/R4/provenance.html#) information that can be used to track or differentiate the source of information in the resource. The source may identify another FHIR server, document, message, database, etc.</t>
+    <t>A uri that identifies the source system of the resource. This provides a minimal amount of [Provenance](provenance.html#) information that can be used to track or differentiate the source of information in the resource. The source may identify another FHIR server, document, message, database, etc.</t>
   </si>
   <si>
     <t>In the provenance resource, this corresponds to Provenance.entity.what[x]. The exact use of the source (and the implied Provenance.entity.role) is left to implementer discretion. Only one nominated source is allowed; for additional provenance details, a full Provenance resource should be used. 
@@ -474,7 +479,7 @@
     <t>Profiles this resource claims to conform to</t>
   </si>
   <si>
-    <t>A list of profiles (references to [StructureDefinition](http://hl7.org/fhir/R4/structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](http://hl7.org/fhir/R4/structuredefinition-definitions.html#StructureDefinition.url).</t>
+    <t>A list of profiles (references to [StructureDefinition](structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](structuredefinition-definitions.html#StructureDefinition.url).</t>
   </si>
   <si>
     <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>
@@ -1239,7 +1244,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-vs-1:if Observation.effective[x] is dateTime and has a value then that value shall be precise to the day {($this as dateTime).toString().length() &gt;= 8}</t>
+vs-1:if Observation.effective[x] is dateTime and has a value then that value shall be precise to the day {$this is dateTime implies $this.toString().length() &gt;= 10}</t>
   </si>
   <si>
     <t>Event.occurrence[x]</t>
@@ -1341,25 +1346,10 @@
     <t>363714003 |Interprets|</t>
   </si>
   <si>
-    <t>Observation.value[x]:valueQuantity</t>
-  </si>
-  <si>
-    <t>valueQuantity</t>
-  </si>
-  <si>
-    <t>Observation.value[x]:valueQuantity.id</t>
-  </si>
-  <si>
     <t>Observation.value[x].id</t>
   </si>
   <si>
-    <t>Observation.value[x]:valueQuantity.extension</t>
-  </si>
-  <si>
     <t>Observation.value[x].extension</t>
-  </si>
-  <si>
-    <t>Observation.value[x]:valueQuantity.value</t>
   </si>
   <si>
     <t>Observation.value[x].value</t>
@@ -1404,9 +1394,6 @@
     <t>PQ.value, CO.value, MO.value, IVL.high or IVL.low depending on the value</t>
   </si>
   <si>
-    <t>Observation.value[x]:valueQuantity.comparator</t>
-  </si>
-  <si>
     <t>Observation.value[x].comparator</t>
   </si>
   <si>
@@ -1437,9 +1424,6 @@
     <t>IVL properties</t>
   </si>
   <si>
-    <t>Observation.value[x]:valueQuantity.unit</t>
-  </si>
-  <si>
     <t>Observation.value[x].unit</t>
   </si>
   <si>
@@ -1462,9 +1446,6 @@
   </si>
   <si>
     <t>PQ.unit</t>
-  </si>
-  <si>
-    <t>Observation.value[x]:valueQuantity.system</t>
   </si>
   <si>
     <t>Observation.value[x].system</t>
@@ -1487,9 +1468,6 @@
   </si>
   <si>
     <t>CO.codeSystem, PQ.translation.codeSystem</t>
-  </si>
-  <si>
-    <t>Observation.value[x]:valueQuantity.code</t>
   </si>
   <si>
     <t>Observation.value[x].code</t>
@@ -2161,10 +2139,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -2369,7 +2347,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP86"/>
+  <dimension ref="A1:AP85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2648,19 +2626,19 @@
         <v>82</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AO2" t="s" s="2">
         <v>82</v>
@@ -2671,10 +2649,10 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -2685,7 +2663,7 @@
         <v>80</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>82</v>
@@ -2694,19 +2672,19 @@
         <v>82</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -2756,13 +2734,13 @@
         <v>82</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>82</v>
@@ -2791,10 +2769,10 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2805,7 +2783,7 @@
         <v>80</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>82</v>
@@ -2814,16 +2792,16 @@
         <v>82</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -2874,19 +2852,19 @@
         <v>82</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>82</v>
@@ -2909,10 +2887,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2923,7 +2901,7 @@
         <v>80</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>82</v>
@@ -2935,13 +2913,13 @@
         <v>82</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -2992,13 +2970,13 @@
         <v>82</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>82</v>
@@ -3016,7 +2994,7 @@
         <v>82</v>
       </c>
       <c r="AN5" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AO5" t="s" s="2">
         <v>82</v>
@@ -3027,14 +3005,14 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
@@ -3053,16 +3031,16 @@
         <v>82</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -3100,19 +3078,19 @@
         <v>82</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AD6" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>80</v>
@@ -3124,7 +3102,7 @@
         <v>82</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>82</v>
@@ -3136,7 +3114,7 @@
         <v>82</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AO6" t="s" s="2">
         <v>82</v>
@@ -3147,10 +3125,10 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -3161,7 +3139,7 @@
         <v>80</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>82</v>
@@ -3170,19 +3148,19 @@
         <v>82</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -3232,19 +3210,19 @@
         <v>82</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>82</v>
@@ -3267,10 +3245,10 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -3281,7 +3259,7 @@
         <v>80</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>82</v>
@@ -3290,19 +3268,19 @@
         <v>82</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -3352,19 +3330,19 @@
         <v>82</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>82</v>
@@ -3387,10 +3365,10 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -3401,7 +3379,7 @@
         <v>80</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>82</v>
@@ -3410,19 +3388,19 @@
         <v>82</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -3472,19 +3450,19 @@
         <v>82</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI9" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>82</v>
@@ -3507,10 +3485,10 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -3530,19 +3508,19 @@
         <v>82</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
@@ -3592,7 +3570,7 @@
         <v>82</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>80</v>
@@ -3604,7 +3582,7 @@
         <v>82</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>82</v>
@@ -3627,10 +3605,10 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -3650,19 +3628,19 @@
         <v>82</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -3688,13 +3666,13 @@
         <v>82</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AA11" t="s" s="2">
         <v>82</v>
@@ -3712,7 +3690,7 @@
         <v>82</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>80</v>
@@ -3724,7 +3702,7 @@
         <v>82</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>82</v>
@@ -3747,10 +3725,10 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3758,10 +3736,10 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>82</v>
@@ -3770,19 +3748,19 @@
         <v>82</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -3793,7 +3771,7 @@
         <v>82</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="T12" t="s" s="2">
         <v>82</v>
@@ -3808,13 +3786,13 @@
         <v>82</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>82</v>
@@ -3832,7 +3810,7 @@
         <v>82</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>80</v>
@@ -3844,7 +3822,7 @@
         <v>82</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>82</v>
@@ -3867,10 +3845,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3887,22 +3865,22 @@
         <v>82</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3952,19 +3930,19 @@
         <v>82</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>82</v>
@@ -3987,10 +3965,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -4013,16 +3991,16 @@
         <v>82</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -4048,13 +4026,13 @@
         <v>82</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>82</v>
@@ -4072,19 +4050,19 @@
         <v>82</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>82</v>
@@ -4107,21 +4085,21 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>82</v>
@@ -4133,16 +4111,16 @@
         <v>82</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -4192,19 +4170,19 @@
         <v>82</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>82</v>
@@ -4216,7 +4194,7 @@
         <v>82</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AO15" t="s" s="2">
         <v>82</v>
@@ -4227,14 +4205,14 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -4253,16 +4231,16 @@
         <v>82</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -4312,7 +4290,7 @@
         <v>82</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>80</v>
@@ -4336,7 +4314,7 @@
         <v>82</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>82</v>
@@ -4347,10 +4325,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -4373,13 +4351,13 @@
         <v>82</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -4430,7 +4408,7 @@
         <v>82</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>80</v>
@@ -4442,7 +4420,7 @@
         <v>82</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>82</v>
@@ -4465,10 +4443,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4485,19 +4463,19 @@
         <v>82</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J18" t="s" s="2">
         <v>82</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -4548,7 +4526,7 @@
         <v>82</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>80</v>
@@ -4560,7 +4538,7 @@
         <v>82</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>82</v>
@@ -4583,10 +4561,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4606,20 +4584,20 @@
         <v>82</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>82</v>
@@ -4668,7 +4646,7 @@
         <v>82</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>80</v>
@@ -4680,22 +4658,22 @@
         <v>82</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AP19" t="s" s="2">
         <v>82</v>
@@ -4703,14 +4681,14 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
@@ -4726,20 +4704,20 @@
         <v>82</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>82</v>
@@ -4788,7 +4766,7 @@
         <v>82</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>80</v>
@@ -4800,19 +4778,19 @@
         <v>82</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>82</v>
@@ -4823,14 +4801,14 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
@@ -4846,19 +4824,19 @@
         <v>82</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4908,7 +4886,7 @@
         <v>82</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>80</v>
@@ -4920,19 +4898,19 @@
         <v>82</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>82</v>
@@ -4943,10 +4921,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4954,34 +4932,34 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>82</v>
@@ -5006,11 +4984,11 @@
         <v>82</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Y22" s="2"/>
       <c r="Z22" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>82</v>
@@ -5028,34 +5006,34 @@
         <v>82</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AP22" t="s" s="2">
         <v>82</v>
@@ -5063,10 +5041,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -5074,13 +5052,13 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>82</v>
@@ -5089,19 +5067,19 @@
         <v>82</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>82</v>
@@ -5126,29 +5104,29 @@
         <v>82</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AC23" s="2"/>
       <c r="AD23" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>80</v>
@@ -5160,7 +5138,7 @@
         <v>82</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>82</v>
@@ -5172,10 +5150,10 @@
         <v>82</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AP23" t="s" s="2">
         <v>82</v>
@@ -5183,26 +5161,26 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D24" t="s" s="2">
         <v>82</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>82</v>
@@ -5211,19 +5189,19 @@
         <v>82</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>82</v>
@@ -5248,13 +5226,13 @@
         <v>82</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>82</v>
@@ -5272,7 +5250,7 @@
         <v>82</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>80</v>
@@ -5284,7 +5262,7 @@
         <v>82</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>82</v>
@@ -5296,10 +5274,10 @@
         <v>82</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AP24" t="s" s="2">
         <v>82</v>
@@ -5307,10 +5285,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5321,7 +5299,7 @@
         <v>80</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>82</v>
@@ -5333,13 +5311,13 @@
         <v>82</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -5390,13 +5368,13 @@
         <v>82</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>82</v>
@@ -5414,7 +5392,7 @@
         <v>82</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>82</v>
@@ -5425,14 +5403,14 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
@@ -5451,16 +5429,16 @@
         <v>82</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -5498,19 +5476,19 @@
         <v>82</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AD26" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>80</v>
@@ -5522,7 +5500,7 @@
         <v>82</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>82</v>
@@ -5534,7 +5512,7 @@
         <v>82</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>82</v>
@@ -5545,10 +5523,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5556,34 +5534,34 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>82</v>
@@ -5632,7 +5610,7 @@
         <v>82</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
@@ -5644,7 +5622,7 @@
         <v>82</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>82</v>
@@ -5653,10 +5631,10 @@
         <v>82</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>82</v>
@@ -5667,10 +5645,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5681,7 +5659,7 @@
         <v>80</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>82</v>
@@ -5693,13 +5671,13 @@
         <v>82</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -5750,13 +5728,13 @@
         <v>82</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>82</v>
@@ -5774,7 +5752,7 @@
         <v>82</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>82</v>
@@ -5785,14 +5763,14 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
@@ -5811,16 +5789,16 @@
         <v>82</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5858,19 +5836,19 @@
         <v>82</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AD29" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>80</v>
@@ -5882,7 +5860,7 @@
         <v>82</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>82</v>
@@ -5894,7 +5872,7 @@
         <v>82</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>82</v>
@@ -5905,10 +5883,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5916,41 +5894,41 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="S30" t="s" s="2">
         <v>82</v>
@@ -5992,19 +5970,19 @@
         <v>82</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>82</v>
@@ -6013,10 +5991,10 @@
         <v>82</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>82</v>
@@ -6027,10 +6005,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -6041,7 +6019,7 @@
         <v>80</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>82</v>
@@ -6050,19 +6028,19 @@
         <v>82</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -6112,19 +6090,19 @@
         <v>82</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>82</v>
@@ -6133,10 +6111,10 @@
         <v>82</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>82</v>
@@ -6147,10 +6125,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -6158,39 +6136,39 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S32" t="s" s="2">
         <v>82</v>
@@ -6232,19 +6210,19 @@
         <v>82</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>82</v>
@@ -6253,10 +6231,10 @@
         <v>82</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>82</v>
@@ -6267,10 +6245,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6281,7 +6259,7 @@
         <v>80</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>82</v>
@@ -6290,20 +6268,20 @@
         <v>82</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>82</v>
@@ -6352,19 +6330,19 @@
         <v>82</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>82</v>
@@ -6373,10 +6351,10 @@
         <v>82</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>82</v>
@@ -6387,10 +6365,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6401,7 +6379,7 @@
         <v>80</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>82</v>
@@ -6410,22 +6388,22 @@
         <v>82</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>82</v>
@@ -6474,19 +6452,19 @@
         <v>82</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>82</v>
@@ -6495,10 +6473,10 @@
         <v>82</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>82</v>
@@ -6509,10 +6487,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6523,7 +6501,7 @@
         <v>80</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>82</v>
@@ -6532,22 +6510,22 @@
         <v>82</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>82</v>
@@ -6596,19 +6574,19 @@
         <v>82</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>82</v>
@@ -6617,10 +6595,10 @@
         <v>82</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>82</v>
@@ -6631,45 +6609,45 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>82</v>
@@ -6694,13 +6672,13 @@
         <v>82</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>82</v>
@@ -6718,45 +6696,45 @@
         <v>82</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AP36" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6767,7 +6745,7 @@
         <v>80</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>82</v>
@@ -6779,13 +6757,13 @@
         <v>82</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -6836,13 +6814,13 @@
         <v>82</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>82</v>
@@ -6860,7 +6838,7 @@
         <v>82</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>82</v>
@@ -6871,14 +6849,14 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
@@ -6897,16 +6875,16 @@
         <v>82</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -6944,19 +6922,19 @@
         <v>82</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AD38" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
@@ -6968,7 +6946,7 @@
         <v>82</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>82</v>
@@ -6980,7 +6958,7 @@
         <v>82</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>82</v>
@@ -6991,10 +6969,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -7002,10 +6980,10 @@
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>82</v>
@@ -7014,22 +6992,22 @@
         <v>82</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>82</v>
@@ -7066,17 +7044,17 @@
         <v>82</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AC39" s="2"/>
       <c r="AD39" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
@@ -7088,7 +7066,7 @@
         <v>82</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>82</v>
@@ -7097,10 +7075,10 @@
         <v>82</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>82</v>
@@ -7111,23 +7089,23 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D40" t="s" s="2">
         <v>82</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>82</v>
@@ -7136,22 +7114,22 @@
         <v>82</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>82</v>
@@ -7161,7 +7139,7 @@
         <v>82</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="T40" t="s" s="2">
         <v>82</v>
@@ -7200,7 +7178,7 @@
         <v>82</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
@@ -7212,7 +7190,7 @@
         <v>82</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>82</v>
@@ -7221,10 +7199,10 @@
         <v>82</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>82</v>
@@ -7235,23 +7213,23 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C41" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D41" t="s" s="2">
         <v>82</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>82</v>
@@ -7260,22 +7238,22 @@
         <v>82</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>82</v>
@@ -7285,7 +7263,7 @@
         <v>82</v>
       </c>
       <c r="S41" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="T41" t="s" s="2">
         <v>82</v>
@@ -7324,7 +7302,7 @@
         <v>82</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
@@ -7336,7 +7314,7 @@
         <v>82</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>82</v>
@@ -7345,10 +7323,10 @@
         <v>82</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>82</v>
@@ -7359,10 +7337,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7373,7 +7351,7 @@
         <v>80</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>82</v>
@@ -7382,22 +7360,22 @@
         <v>82</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>82</v>
@@ -7446,19 +7424,19 @@
         <v>82</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>82</v>
@@ -7467,10 +7445,10 @@
         <v>82</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>82</v>
@@ -7481,10 +7459,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7492,34 +7470,34 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>82</v>
@@ -7568,34 +7546,34 @@
         <v>82</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AP43" t="s" s="2">
         <v>82</v>
@@ -7603,10 +7581,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7626,19 +7604,19 @@
         <v>82</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -7688,7 +7666,7 @@
         <v>82</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
@@ -7700,7 +7678,7 @@
         <v>82</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>82</v>
@@ -7709,13 +7687,13 @@
         <v>82</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AP44" t="s" s="2">
         <v>82</v>
@@ -7723,14 +7701,14 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
@@ -7746,22 +7724,22 @@
         <v>82</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>82</v>
@@ -7810,34 +7788,34 @@
         <v>82</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AP45" t="s" s="2">
         <v>82</v>
@@ -7845,45 +7823,45 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I46" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>82</v>
@@ -7920,44 +7898,44 @@
         <v>82</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AC46" s="2"/>
       <c r="AD46" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AP46" t="s" s="2">
         <v>82</v>
@@ -7965,47 +7943,47 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C47" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D47" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I47" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>82</v>
@@ -8054,34 +8032,34 @@
         <v>82</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AP47" t="s" s="2">
         <v>82</v>
@@ -8089,10 +8067,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -8112,19 +8090,19 @@
         <v>82</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -8174,19 +8152,19 @@
         <v>82</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>82</v>
@@ -8195,13 +8173,13 @@
         <v>82</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AP48" t="s" s="2">
         <v>82</v>
@@ -8209,10 +8187,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8232,20 +8210,20 @@
         <v>82</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>82</v>
@@ -8294,7 +8272,7 @@
         <v>82</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
@@ -8306,22 +8284,22 @@
         <v>82</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AP49" t="s" s="2">
         <v>82</v>
@@ -8329,10 +8307,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8343,31 +8321,31 @@
         <v>80</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I50" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>82</v>
@@ -8404,59 +8382,59 @@
         <v>82</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="AC50" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="AD50" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>341</v>
+        <v>82</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP50" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="C51" t="s" s="2">
         <v>419</v>
       </c>
+      <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
         <v>82</v>
       </c>
@@ -8465,32 +8443,28 @@
         <v>80</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I51" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>409</v>
+        <v>107</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>410</v>
+        <v>108</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="O51" t="s" s="2">
-        <v>412</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="N51" s="2"/>
+      <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>82</v>
       </c>
@@ -8538,37 +8512,37 @@
         <v>82</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>408</v>
+        <v>110</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>413</v>
+        <v>82</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>414</v>
+        <v>82</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>415</v>
+        <v>82</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>416</v>
+        <v>111</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP51" t="s" s="2">
-        <v>417</v>
+        <v>82</v>
       </c>
     </row>
     <row r="52" hidden="true">
@@ -8576,18 +8550,18 @@
         <v>420</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>82</v>
@@ -8599,15 +8573,17 @@
         <v>82</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="N52" s="2"/>
+        <v>116</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>117</v>
+      </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>82</v>
@@ -8644,31 +8620,31 @@
         <v>82</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>82</v>
+        <v>118</v>
       </c>
       <c r="AC52" t="s" s="2">
-        <v>82</v>
+        <v>119</v>
       </c>
       <c r="AD52" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>82</v>
+        <v>120</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>82</v>
+        <v>122</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>82</v>
@@ -8680,7 +8656,7 @@
         <v>82</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>82</v>
@@ -8691,21 +8667,21 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>112</v>
+        <v>82</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>82</v>
@@ -8714,21 +8690,23 @@
         <v>82</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>113</v>
+        <v>422</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>114</v>
+        <v>423</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>115</v>
+        <v>424</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="O53" s="2"/>
+        <v>425</v>
+      </c>
+      <c r="O53" t="s" s="2">
+        <v>426</v>
+      </c>
       <c r="P53" t="s" s="2">
         <v>82</v>
       </c>
@@ -8743,10 +8721,10 @@
         <v>82</v>
       </c>
       <c r="U53" t="s" s="2">
-        <v>82</v>
+        <v>427</v>
       </c>
       <c r="V53" t="s" s="2">
-        <v>82</v>
+        <v>428</v>
       </c>
       <c r="W53" t="s" s="2">
         <v>82</v>
@@ -8764,31 +8742,31 @@
         <v>82</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>117</v>
+        <v>82</v>
       </c>
       <c r="AC53" t="s" s="2">
-        <v>118</v>
+        <v>82</v>
       </c>
       <c r="AD53" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>119</v>
+        <v>82</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>120</v>
+        <v>429</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>82</v>
@@ -8797,10 +8775,10 @@
         <v>82</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>82</v>
+        <v>430</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>110</v>
+        <v>431</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>82</v>
@@ -8811,10 +8789,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>424</v>
+        <v>432</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>425</v>
+        <v>432</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8825,92 +8803,92 @@
         <v>80</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="J54" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="N54" s="2"/>
+      <c r="O54" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="P54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q54" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="R54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH54" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="K54" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="P54" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q54" s="2"/>
-      <c r="R54" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S54" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T54" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U54" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="V54" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="W54" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X54" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y54" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z54" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA54" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB54" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC54" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD54" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE54" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF54" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="AG54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH54" t="s" s="2">
-        <v>92</v>
-      </c>
       <c r="AI54" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>82</v>
@@ -8919,10 +8897,10 @@
         <v>82</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>82</v>
@@ -8933,10 +8911,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8947,41 +8925,39 @@
         <v>80</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>169</v>
+        <v>107</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="Q55" t="s" s="2">
-        <v>441</v>
-      </c>
+      <c r="Q55" s="2"/>
       <c r="R55" t="s" s="2">
         <v>82</v>
       </c>
       <c r="S55" t="s" s="2">
-        <v>82</v>
+        <v>446</v>
       </c>
       <c r="T55" t="s" s="2">
         <v>82</v>
@@ -8996,13 +8972,13 @@
         <v>82</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>231</v>
+        <v>82</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>442</v>
+        <v>82</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>443</v>
+        <v>82</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>82</v>
@@ -9020,19 +8996,19 @@
         <v>82</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>82</v>
@@ -9041,10 +9017,10 @@
         <v>82</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>82</v>
@@ -9055,10 +9031,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -9069,7 +9045,7 @@
         <v>80</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>82</v>
@@ -9078,20 +9054,20 @@
         <v>82</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>106</v>
+        <v>135</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>82</v>
@@ -9101,7 +9077,7 @@
         <v>82</v>
       </c>
       <c r="S56" t="s" s="2">
-        <v>452</v>
+        <v>82</v>
       </c>
       <c r="T56" t="s" s="2">
         <v>82</v>
@@ -9140,19 +9116,19 @@
         <v>82</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>82</v>
+        <v>455</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>82</v>
@@ -9161,10 +9137,10 @@
         <v>82</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>82</v>
@@ -9175,7 +9151,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B57" t="s" s="2">
         <v>457</v>
@@ -9189,7 +9165,7 @@
         <v>80</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>82</v>
@@ -9198,10 +9174,10 @@
         <v>82</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>134</v>
+        <v>170</v>
       </c>
       <c r="L57" t="s" s="2">
         <v>458</v>
@@ -9209,9 +9185,11 @@
       <c r="M57" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="N57" s="2"/>
+      <c r="N57" t="s" s="2">
+        <v>460</v>
+      </c>
       <c r="O57" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>82</v>
@@ -9260,19 +9238,19 @@
         <v>82</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>462</v>
+        <v>82</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>82</v>
@@ -9281,7 +9259,7 @@
         <v>82</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>463</v>
@@ -9298,7 +9276,7 @@
         <v>464</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9309,31 +9287,31 @@
         <v>80</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="I58" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>169</v>
+        <v>240</v>
       </c>
       <c r="L58" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="M58" t="s" s="2">
         <v>466</v>
       </c>
-      <c r="M58" t="s" s="2">
+      <c r="N58" t="s" s="2">
         <v>467</v>
       </c>
-      <c r="N58" t="s" s="2">
+      <c r="O58" t="s" s="2">
         <v>468</v>
-      </c>
-      <c r="O58" t="s" s="2">
-        <v>469</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>82</v>
@@ -9358,13 +9336,13 @@
         <v>82</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>82</v>
+        <v>151</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>82</v>
+        <v>469</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>82</v>
+        <v>470</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>82</v>
@@ -9382,19 +9360,19 @@
         <v>82</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>82</v>
+        <v>471</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>82</v>
@@ -9403,10 +9381,10 @@
         <v>82</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>454</v>
+        <v>193</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>82</v>
@@ -9417,14 +9395,14 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>82</v>
+        <v>474</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
@@ -9434,7 +9412,7 @@
         <v>80</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I59" t="s" s="2">
         <v>82</v>
@@ -9443,19 +9421,19 @@
         <v>82</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="O59" t="s" s="2">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>82</v>
@@ -9480,13 +9458,13 @@
         <v>82</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>82</v>
@@ -9504,56 +9482,56 @@
         <v>82</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>479</v>
+        <v>82</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>82</v>
+        <v>481</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>192</v>
+        <v>482</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP59" t="s" s="2">
-        <v>82</v>
+        <v>484</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>482</v>
+        <v>82</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>82</v>
@@ -9565,19 +9543,19 @@
         <v>82</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>239</v>
+        <v>486</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>82</v>
@@ -9602,13 +9580,13 @@
         <v>82</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>150</v>
+        <v>82</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>487</v>
+        <v>82</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>488</v>
+        <v>82</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>82</v>
@@ -9626,7 +9604,7 @@
         <v>82</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>80</v>
@@ -9638,25 +9616,25 @@
         <v>82</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>489</v>
+        <v>82</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP60" t="s" s="2">
-        <v>492</v>
+        <v>82</v>
       </c>
     </row>
     <row r="61" hidden="true">
@@ -9675,7 +9653,7 @@
         <v>80</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>82</v>
@@ -9687,20 +9665,18 @@
         <v>82</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="L61" t="s" s="2">
         <v>494</v>
       </c>
-      <c r="L61" t="s" s="2">
+      <c r="M61" t="s" s="2">
         <v>495</v>
       </c>
-      <c r="M61" t="s" s="2">
+      <c r="N61" t="s" s="2">
         <v>496</v>
       </c>
-      <c r="N61" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="O61" t="s" s="2">
-        <v>498</v>
-      </c>
+      <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>82</v>
       </c>
@@ -9724,13 +9700,13 @@
         <v>82</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>82</v>
+        <v>160</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>82</v>
+        <v>497</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>82</v>
+        <v>498</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>82</v>
@@ -9754,39 +9730,39 @@
         <v>80</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>82</v>
+        <v>499</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP61" t="s" s="2">
-        <v>82</v>
+        <v>502</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9809,18 +9785,20 @@
         <v>82</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="O62" s="2"/>
+        <v>506</v>
+      </c>
+      <c r="O62" t="s" s="2">
+        <v>507</v>
+      </c>
       <c r="P62" t="s" s="2">
         <v>82</v>
       </c>
@@ -9844,13 +9822,13 @@
         <v>82</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>82</v>
@@ -9868,45 +9846,45 @@
         <v>82</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>507</v>
+        <v>82</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP62" t="s" s="2">
-        <v>510</v>
+        <v>82</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9929,20 +9907,18 @@
         <v>82</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>239</v>
+        <v>513</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="O63" t="s" s="2">
-        <v>515</v>
-      </c>
+        <v>516</v>
+      </c>
+      <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>82</v>
       </c>
@@ -9966,49 +9942,49 @@
         <v>82</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>159</v>
+        <v>82</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>516</v>
+        <v>82</v>
       </c>
       <c r="Z63" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK63" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL63" t="s" s="2">
         <v>517</v>
-      </c>
-      <c r="AA63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF63" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="AG63" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH63" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ63" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL63" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>518</v>
@@ -10020,15 +9996,15 @@
         <v>82</v>
       </c>
       <c r="AP63" t="s" s="2">
-        <v>82</v>
+        <v>520</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -10051,16 +10027,16 @@
         <v>82</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -10110,45 +10086,45 @@
         <v>82</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP64" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -10171,18 +10147,20 @@
         <v>82</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>533</v>
-      </c>
-      <c r="O65" s="2"/>
+        <v>534</v>
+      </c>
+      <c r="O65" t="s" s="2">
+        <v>535</v>
+      </c>
       <c r="P65" t="s" s="2">
         <v>82</v>
       </c>
@@ -10230,45 +10208,45 @@
         <v>82</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>104</v>
+        <v>536</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>534</v>
+        <v>82</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP65" t="s" s="2">
-        <v>537</v>
+        <v>82</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10279,7 +10257,7 @@
         <v>80</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>82</v>
@@ -10291,20 +10269,16 @@
         <v>82</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>539</v>
+        <v>107</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>540</v>
+        <v>108</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>541</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>542</v>
-      </c>
-      <c r="O66" t="s" s="2">
-        <v>543</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="N66" s="2"/>
+      <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>82</v>
       </c>
@@ -10352,19 +10326,19 @@
         <v>82</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>538</v>
+        <v>110</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>544</v>
+        <v>82</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>82</v>
@@ -10373,10 +10347,10 @@
         <v>82</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>545</v>
+        <v>82</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>546</v>
+        <v>111</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>82</v>
@@ -10387,21 +10361,21 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>82</v>
@@ -10413,15 +10387,17 @@
         <v>82</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="N67" s="2"/>
+        <v>116</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>117</v>
+      </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
         <v>82</v>
@@ -10470,19 +10446,19 @@
         <v>82</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>82</v>
+        <v>122</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>82</v>
@@ -10494,7 +10470,7 @@
         <v>82</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>82</v>
@@ -10505,14 +10481,14 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>112</v>
+        <v>542</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
@@ -10525,24 +10501,26 @@
         <v>82</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>114</v>
+        <v>543</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>115</v>
+        <v>544</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="O68" s="2"/>
+        <v>117</v>
+      </c>
+      <c r="O68" t="s" s="2">
+        <v>545</v>
+      </c>
       <c r="P68" t="s" s="2">
         <v>82</v>
       </c>
@@ -10590,7 +10568,7 @@
         <v>82</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>120</v>
+        <v>546</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>80</v>
@@ -10602,7 +10580,7 @@
         <v>82</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>82</v>
@@ -10614,7 +10592,7 @@
         <v>82</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>110</v>
+        <v>193</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>82</v>
@@ -10625,46 +10603,42 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>550</v>
+        <v>82</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>113</v>
+        <v>548</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>552</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="O69" t="s" s="2">
-        <v>553</v>
-      </c>
+        <v>550</v>
+      </c>
+      <c r="N69" s="2"/>
+      <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>82</v>
       </c>
@@ -10712,19 +10686,19 @@
         <v>82</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>82</v>
+        <v>551</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>82</v>
@@ -10733,10 +10707,10 @@
         <v>82</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>82</v>
+        <v>552</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>192</v>
+        <v>553</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>82</v>
@@ -10747,10 +10721,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10761,7 +10735,7 @@
         <v>80</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>82</v>
@@ -10773,13 +10747,13 @@
         <v>82</v>
       </c>
       <c r="K70" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="M70" t="s" s="2">
         <v>556</v>
-      </c>
-      <c r="L70" t="s" s="2">
-        <v>557</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>558</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -10830,19 +10804,19 @@
         <v>82</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>82</v>
@@ -10851,10 +10825,10 @@
         <v>82</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>560</v>
+        <v>552</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>82</v>
@@ -10865,10 +10839,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10879,7 +10853,7 @@
         <v>80</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>82</v>
@@ -10891,16 +10865,20 @@
         <v>82</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>556</v>
+        <v>240</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>564</v>
-      </c>
-      <c r="N71" s="2"/>
-      <c r="O71" s="2"/>
+        <v>560</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="O71" t="s" s="2">
+        <v>562</v>
+      </c>
       <c r="P71" t="s" s="2">
         <v>82</v>
       </c>
@@ -10924,13 +10902,13 @@
         <v>82</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>82</v>
+        <v>174</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>82</v>
+        <v>563</v>
       </c>
       <c r="Z71" t="s" s="2">
-        <v>82</v>
+        <v>564</v>
       </c>
       <c r="AA71" t="s" s="2">
         <v>82</v>
@@ -10948,31 +10926,31 @@
         <v>82</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>559</v>
+        <v>82</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>82</v>
+        <v>565</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>565</v>
+        <v>483</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>82</v>
@@ -10983,10 +10961,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10997,7 +10975,7 @@
         <v>80</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>82</v>
@@ -11009,19 +10987,19 @@
         <v>82</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="O72" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>82</v>
@@ -11046,13 +11024,13 @@
         <v>82</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="Z72" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>82</v>
@@ -11070,31 +11048,31 @@
         <v>82</v>
       </c>
       <c r="AF72" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="AM72" t="s" s="2">
         <v>566</v>
       </c>
-      <c r="AG72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH72" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI72" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ72" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK72" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL72" t="s" s="2">
-        <v>573</v>
-      </c>
-      <c r="AM72" t="s" s="2">
-        <v>574</v>
-      </c>
       <c r="AN72" t="s" s="2">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>82</v>
@@ -11105,10 +11083,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11119,7 +11097,7 @@
         <v>80</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>82</v>
@@ -11131,7 +11109,7 @@
         <v>82</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>239</v>
+        <v>575</v>
       </c>
       <c r="L73" t="s" s="2">
         <v>576</v>
@@ -11139,11 +11117,9 @@
       <c r="M73" t="s" s="2">
         <v>577</v>
       </c>
-      <c r="N73" t="s" s="2">
+      <c r="N73" s="2"/>
+      <c r="O73" t="s" s="2">
         <v>578</v>
-      </c>
-      <c r="O73" t="s" s="2">
-        <v>579</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>82</v>
@@ -11168,13 +11144,13 @@
         <v>82</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>159</v>
+        <v>82</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>580</v>
+        <v>82</v>
       </c>
       <c r="Z73" t="s" s="2">
-        <v>581</v>
+        <v>82</v>
       </c>
       <c r="AA73" t="s" s="2">
         <v>82</v>
@@ -11192,31 +11168,31 @@
         <v>82</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>573</v>
+        <v>82</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>574</v>
+        <v>82</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>491</v>
+        <v>579</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>82</v>
@@ -11227,10 +11203,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11241,7 +11217,7 @@
         <v>80</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>82</v>
@@ -11253,18 +11229,16 @@
         <v>82</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>583</v>
+        <v>107</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="N74" s="2"/>
-      <c r="O74" t="s" s="2">
-        <v>586</v>
-      </c>
+      <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
         <v>82</v>
       </c>
@@ -11312,19 +11286,19 @@
         <v>82</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>82</v>
@@ -11333,10 +11307,10 @@
         <v>82</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>82</v>
+        <v>552</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>82</v>
@@ -11347,10 +11321,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11361,27 +11335,29 @@
         <v>80</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>92</v>
+        <v>340</v>
       </c>
       <c r="H75" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="I75" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>106</v>
+        <v>585</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>590</v>
-      </c>
-      <c r="N75" s="2"/>
+        <v>587</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>588</v>
+      </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
         <v>82</v>
@@ -11430,19 +11406,19 @@
         <v>82</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>82</v>
@@ -11451,10 +11427,10 @@
         <v>82</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>560</v>
+        <v>589</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>82</v>
@@ -11465,10 +11441,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11479,28 +11455,28 @@
         <v>80</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>339</v>
+        <v>80</v>
       </c>
       <c r="H76" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I76" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K76" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="L76" t="s" s="2">
         <v>593</v>
       </c>
-      <c r="L76" t="s" s="2">
+      <c r="M76" t="s" s="2">
         <v>594</v>
       </c>
-      <c r="M76" t="s" s="2">
+      <c r="N76" t="s" s="2">
         <v>595</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>596</v>
       </c>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
@@ -11550,7 +11526,7 @@
         <v>82</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>80</v>
@@ -11562,7 +11538,7 @@
         <v>82</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>82</v>
@@ -11571,10 +11547,10 @@
         <v>82</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>597</v>
+        <v>589</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>82</v>
@@ -11585,10 +11561,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11602,27 +11578,29 @@
         <v>80</v>
       </c>
       <c r="H77" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="I77" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K77" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>598</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>598</v>
+      </c>
+      <c r="N77" t="s" s="2">
+        <v>599</v>
+      </c>
+      <c r="O77" t="s" s="2">
         <v>600</v>
       </c>
-      <c r="L77" t="s" s="2">
-        <v>601</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>602</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>603</v>
-      </c>
-      <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
         <v>82</v>
       </c>
@@ -11670,7 +11648,7 @@
         <v>82</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>80</v>
@@ -11682,7 +11660,7 @@
         <v>82</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>104</v>
+        <v>601</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>82</v>
@@ -11691,10 +11669,10 @@
         <v>82</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>597</v>
+        <v>602</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>82</v>
@@ -11705,10 +11683,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11719,32 +11697,28 @@
         <v>80</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="H78" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I78" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>539</v>
+        <v>107</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>606</v>
+        <v>108</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>606</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>607</v>
-      </c>
-      <c r="O78" t="s" s="2">
-        <v>608</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="N78" s="2"/>
+      <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
         <v>82</v>
       </c>
@@ -11792,19 +11766,19 @@
         <v>82</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>605</v>
+        <v>110</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>609</v>
+        <v>82</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>82</v>
@@ -11813,10 +11787,10 @@
         <v>82</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>610</v>
+        <v>82</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>611</v>
+        <v>111</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>82</v>
@@ -11827,21 +11801,21 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>612</v>
+        <v>605</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>612</v>
+        <v>605</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>82</v>
@@ -11853,15 +11827,17 @@
         <v>82</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="N79" s="2"/>
+        <v>116</v>
+      </c>
+      <c r="N79" t="s" s="2">
+        <v>117</v>
+      </c>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
         <v>82</v>
@@ -11910,19 +11886,19 @@
         <v>82</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>82</v>
+        <v>122</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>82</v>
@@ -11934,7 +11910,7 @@
         <v>82</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>82</v>
@@ -11945,14 +11921,14 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>613</v>
+        <v>606</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>613</v>
+        <v>606</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
-        <v>112</v>
+        <v>542</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
@@ -11965,24 +11941,26 @@
         <v>82</v>
       </c>
       <c r="I80" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>114</v>
+        <v>543</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>115</v>
+        <v>544</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="O80" s="2"/>
+        <v>117</v>
+      </c>
+      <c r="O80" t="s" s="2">
+        <v>545</v>
+      </c>
       <c r="P80" t="s" s="2">
         <v>82</v>
       </c>
@@ -12030,7 +12008,7 @@
         <v>82</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>120</v>
+        <v>546</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>80</v>
@@ -12042,7 +12020,7 @@
         <v>82</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>82</v>
@@ -12054,7 +12032,7 @@
         <v>82</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>110</v>
+        <v>193</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>82</v>
@@ -12065,45 +12043,45 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>614</v>
+        <v>607</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>614</v>
+        <v>607</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
-        <v>550</v>
+        <v>82</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H81" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="I81" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>113</v>
+        <v>240</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>551</v>
+        <v>608</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>552</v>
+        <v>609</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>116</v>
+        <v>610</v>
       </c>
       <c r="O81" t="s" s="2">
-        <v>553</v>
+        <v>611</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>82</v>
@@ -12128,13 +12106,13 @@
         <v>82</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>82</v>
+        <v>151</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>82</v>
+        <v>329</v>
       </c>
       <c r="Z81" t="s" s="2">
-        <v>82</v>
+        <v>330</v>
       </c>
       <c r="AA81" t="s" s="2">
         <v>82</v>
@@ -12152,34 +12130,34 @@
         <v>82</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>554</v>
+        <v>607</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>82</v>
+        <v>612</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>82</v>
+        <v>333</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>192</v>
+        <v>334</v>
       </c>
       <c r="AO81" t="s" s="2">
-        <v>82</v>
+        <v>335</v>
       </c>
       <c r="AP81" t="s" s="2">
         <v>82</v>
@@ -12187,10 +12165,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -12198,34 +12176,34 @@
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H82" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I82" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>239</v>
+        <v>614</v>
       </c>
       <c r="L82" t="s" s="2">
+        <v>615</v>
+      </c>
+      <c r="M82" t="s" s="2">
         <v>616</v>
       </c>
-      <c r="M82" t="s" s="2">
+      <c r="N82" t="s" s="2">
         <v>617</v>
       </c>
-      <c r="N82" t="s" s="2">
-        <v>618</v>
-      </c>
       <c r="O82" t="s" s="2">
-        <v>619</v>
+        <v>413</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>82</v>
@@ -12250,13 +12228,13 @@
         <v>82</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>150</v>
+        <v>232</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>328</v>
+        <v>618</v>
       </c>
       <c r="Z82" t="s" s="2">
-        <v>329</v>
+        <v>619</v>
       </c>
       <c r="AA82" t="s" s="2">
         <v>82</v>
@@ -12274,45 +12252,45 @@
         <v>82</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>82</v>
+        <v>620</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>332</v>
+        <v>416</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>333</v>
+        <v>417</v>
       </c>
       <c r="AO82" t="s" s="2">
-        <v>334</v>
+        <v>82</v>
       </c>
       <c r="AP82" t="s" s="2">
-        <v>82</v>
+        <v>418</v>
       </c>
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12323,19 +12301,19 @@
         <v>80</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H83" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I83" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>622</v>
+        <v>240</v>
       </c>
       <c r="L83" t="s" s="2">
         <v>623</v>
@@ -12347,7 +12325,7 @@
         <v>625</v>
       </c>
       <c r="O83" t="s" s="2">
-        <v>412</v>
+        <v>468</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>82</v>
@@ -12372,83 +12350,83 @@
         <v>82</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>231</v>
+        <v>151</v>
       </c>
       <c r="Y83" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="Z83" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="AA83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF83" t="s" s="2">
+        <v>622</v>
+      </c>
+      <c r="AG83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH83" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI83" t="s" s="2">
         <v>626</v>
       </c>
-      <c r="Z83" t="s" s="2">
-        <v>627</v>
-      </c>
-      <c r="AA83" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB83" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC83" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD83" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE83" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF83" t="s" s="2">
-        <v>621</v>
-      </c>
-      <c r="AG83" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH83" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI83" t="s" s="2">
-        <v>628</v>
-      </c>
       <c r="AJ83" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>629</v>
+        <v>82</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>415</v>
+        <v>193</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>416</v>
+        <v>472</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP83" t="s" s="2">
-        <v>417</v>
+        <v>82</v>
       </c>
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
-        <v>82</v>
+        <v>474</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H84" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I84" t="s" s="2">
         <v>82</v>
@@ -12457,19 +12435,19 @@
         <v>82</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>631</v>
+        <v>475</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>632</v>
+        <v>476</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>633</v>
+        <v>477</v>
       </c>
       <c r="O84" t="s" s="2">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="P84" t="s" s="2">
         <v>82</v>
@@ -12494,13 +12472,13 @@
         <v>82</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="Z84" t="s" s="2">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="AA84" t="s" s="2">
         <v>82</v>
@@ -12518,49 +12496,49 @@
         <v>82</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>634</v>
+        <v>82</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>82</v>
+        <v>481</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>192</v>
+        <v>482</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP84" t="s" s="2">
-        <v>82</v>
+        <v>484</v>
       </c>
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>635</v>
+        <v>628</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>635</v>
+        <v>628</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
-        <v>482</v>
+        <v>82</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" t="s" s="2">
@@ -12579,19 +12557,19 @@
         <v>82</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>239</v>
+        <v>82</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>483</v>
+        <v>629</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>484</v>
+        <v>630</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>485</v>
+        <v>534</v>
       </c>
       <c r="O85" t="s" s="2">
-        <v>486</v>
+        <v>535</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>82</v>
@@ -12616,13 +12594,13 @@
         <v>82</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>150</v>
+        <v>82</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>487</v>
+        <v>82</v>
       </c>
       <c r="Z85" t="s" s="2">
-        <v>488</v>
+        <v>82</v>
       </c>
       <c r="AA85" t="s" s="2">
         <v>82</v>
@@ -12640,7 +12618,7 @@
         <v>82</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>635</v>
+        <v>628</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>80</v>
@@ -12652,151 +12630,29 @@
         <v>82</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>489</v>
+        <v>82</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>490</v>
+        <v>537</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>491</v>
+        <v>538</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP85" t="s" s="2">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="86" hidden="true">
-      <c r="A86" t="s" s="2">
-        <v>636</v>
-      </c>
-      <c r="B86" t="s" s="2">
-        <v>636</v>
-      </c>
-      <c r="C86" s="2"/>
-      <c r="D86" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E86" s="2"/>
-      <c r="F86" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G86" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H86" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I86" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J86" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K86" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="L86" t="s" s="2">
-        <v>637</v>
-      </c>
-      <c r="M86" t="s" s="2">
-        <v>638</v>
-      </c>
-      <c r="N86" t="s" s="2">
-        <v>542</v>
-      </c>
-      <c r="O86" t="s" s="2">
-        <v>543</v>
-      </c>
-      <c r="P86" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q86" s="2"/>
-      <c r="R86" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S86" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T86" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U86" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V86" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W86" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X86" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y86" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z86" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA86" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB86" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC86" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD86" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE86" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF86" t="s" s="2">
-        <v>636</v>
-      </c>
-      <c r="AG86" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH86" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI86" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ86" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK86" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL86" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM86" t="s" s="2">
-        <v>545</v>
-      </c>
-      <c r="AN86" t="s" s="2">
-        <v>546</v>
-      </c>
-      <c r="AO86" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP86" t="s" s="2">
         <v>82</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AP86">
+  <autoFilter ref="A1:AP85">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -12806,7 +12662,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI85">
+  <conditionalFormatting sqref="A2:AI84">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/docs/StructureDefinition-VA.MHV.bloodOxygenSat.xlsx
+++ b/docs/StructureDefinition-VA.MHV.bloodOxygenSat.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$85</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$92</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3296" uniqueCount="631">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3562" uniqueCount="652">
   <si>
     <t>Property</t>
   </si>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-08</t>
+    <t>2023-12-07</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -134,7 +134,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/vitalsigns</t>
+    <t>http://hl7.org/fhir/StructureDefinition/oxygensat</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -289,10 +289,10 @@
 </t>
   </si>
   <si>
-    <t>FHIR Vital Signs Profile</t>
-  </si>
-  <si>
-    <t>The FHIR Vitals Signs profile sets minimum expectations for the Observation Resource to record, search and fetch the vital signs associated with a patient.</t>
+    <t>FHIR Oxygen Saturation Profile</t>
+  </si>
+  <si>
+    <t>This profile defines  how to represent Oxygen Saturation observations in FHIR using a standard LOINC code and UCUM units of measure.</t>
   </si>
   <si>
     <t>Used for simple observations such as device measurements, laboratory atomic results, vital signs, height, weight, smoking status, comments, etc.  Other resources are used to provide context for observations such as laboratory reports, etc.</t>
@@ -1039,17 +1039,17 @@
     <t>Observation.code</t>
   </si>
   <si>
-    <t xml:space="preserve">Name
-</t>
-  </si>
-  <si>
-    <t>Coded Responses from C-CDA Vital Sign Results</t>
-  </si>
-  <si>
-    <t>Coded Responses from C-CDA Vital Sign Results.</t>
-  </si>
-  <si>
-    <t>*All* code-value and, if present, component.code-component.value pairs need to be taken into account to correctly understand the meaning of the observation.</t>
+    <t>Name
+Test</t>
+  </si>
+  <si>
+    <t>Oxygen Saturation</t>
+  </si>
+  <si>
+    <t>Oxygen Saturation.</t>
+  </si>
+  <si>
+    <t>additional codes that translate or map to this code are allowed.  For example a more granular LOINC code or code that is used locally in a system.</t>
   </si>
   <si>
     <t>5. SHALL contain exactly one [1..1] code, where the @code SHOULD be selected from ValueSet HITSP Vital Sign Result Type 2.16.840.1.113883.3.88.12.80.62 DYNAMIC (CONF:7301).</t>
@@ -1088,40 +1088,62 @@
     <t>Observation.code.coding</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:$this}
-</t>
-  </si>
-  <si>
-    <t>closed</t>
-  </si>
-  <si>
-    <t>Observation.code.coding:ox1</t>
-  </si>
-  <si>
-    <t>ox1</t>
-  </si>
-  <si>
-    <t>&lt;valueCoding xmlns="http://hl7.org/fhir"&gt;
-  &lt;system value="http://loinc.org"/&gt;
-  &lt;code value="59408-5"/&gt;
-  &lt;display value="Oxygen saturation in Arterial blood by Pulse oximetry"/&gt;
-&lt;/valueCoding&gt;</t>
-  </si>
-  <si>
-    <t>Observation.code.coding:ox2</t>
-  </si>
-  <si>
-    <t>ox2</t>
-  </si>
-  <si>
-    <t>&lt;valueCoding xmlns="http://hl7.org/fhir"&gt;
-  &lt;system value="http://loinc.org"/&gt;
-  &lt;code value="2708-6"/&gt;
-  &lt;display value="Oxygen saturation in Arterial blood"/&gt;
-&lt;/valueCoding&gt;</t>
+    <t>value:code}
+value:system}</t>
+  </si>
+  <si>
+    <t>Observation.code.coding:OxygenSatCode</t>
+  </si>
+  <si>
+    <t>OxygenSatCode</t>
+  </si>
+  <si>
+    <t>Observation.code.coding:OxygenSatCode.id</t>
+  </si>
+  <si>
+    <t>Observation.code.coding.id</t>
+  </si>
+  <si>
+    <t>Observation.code.coding:OxygenSatCode.extension</t>
+  </si>
+  <si>
+    <t>Observation.code.coding.extension</t>
+  </si>
+  <si>
+    <t>Observation.code.coding:OxygenSatCode.system</t>
+  </si>
+  <si>
+    <t>Observation.code.coding.system</t>
+  </si>
+  <si>
+    <t>http://loinc.org</t>
+  </si>
+  <si>
+    <t>Observation.code.coding:OxygenSatCode.version</t>
+  </si>
+  <si>
+    <t>Observation.code.coding.version</t>
+  </si>
+  <si>
+    <t>Observation.code.coding:OxygenSatCode.code</t>
+  </si>
+  <si>
+    <t>Observation.code.coding.code</t>
+  </si>
+  <si>
+    <t>2708-6</t>
+  </si>
+  <si>
+    <t>Observation.code.coding:OxygenSatCode.display</t>
+  </si>
+  <si>
+    <t>Observation.code.coding.display</t>
+  </si>
+  <si>
+    <t>Observation.code.coding:OxygenSatCode.userSelected</t>
+  </si>
+  <si>
+    <t>Observation.code.coding.userSelected</t>
   </si>
   <si>
     <t>Observation.code.text</t>
@@ -1239,6 +1261,9 @@
 </t>
   </si>
   <si>
+    <t>closed</t>
+  </si>
+  <si>
     <t xml:space="preserve">vs-1
 </t>
   </si>
@@ -1346,10 +1371,25 @@
     <t>363714003 |Interprets|</t>
   </si>
   <si>
+    <t>Observation.value[x]:valueQuantity</t>
+  </si>
+  <si>
+    <t>valueQuantity</t>
+  </si>
+  <si>
+    <t>Observation.value[x]:valueQuantity.id</t>
+  </si>
+  <si>
     <t>Observation.value[x].id</t>
   </si>
   <si>
+    <t>Observation.value[x]:valueQuantity.extension</t>
+  </si>
+  <si>
     <t>Observation.value[x].extension</t>
+  </si>
+  <si>
+    <t>Observation.value[x]:valueQuantity.value</t>
   </si>
   <si>
     <t>Observation.value[x].value</t>
@@ -1394,6 +1434,9 @@
     <t>PQ.value, CO.value, MO.value, IVL.high or IVL.low depending on the value</t>
   </si>
   <si>
+    <t>Observation.value[x]:valueQuantity.comparator</t>
+  </si>
+  <si>
     <t>Observation.value[x].comparator</t>
   </si>
   <si>
@@ -1424,6 +1467,9 @@
     <t>IVL properties</t>
   </si>
   <si>
+    <t>Observation.value[x]:valueQuantity.unit</t>
+  </si>
+  <si>
     <t>Observation.value[x].unit</t>
   </si>
   <si>
@@ -1436,9 +1482,6 @@
     <t>There are many representations for units of measure and in many contexts, particular representations are fixed and required. I.e. mcg for micrograms.</t>
   </si>
   <si>
-    <t>%</t>
-  </si>
-  <si>
     <t>Quantity.unit</t>
   </si>
   <si>
@@ -1448,6 +1491,9 @@
     <t>PQ.unit</t>
   </si>
   <si>
+    <t>Observation.value[x]:valueQuantity.system</t>
+  </si>
+  <si>
     <t>Observation.value[x].system</t>
   </si>
   <si>
@@ -1458,6 +1504,9 @@
   </si>
   <si>
     <t>Need to know the system that defines the coded form of the unit.</t>
+  </si>
+  <si>
+    <t>http://unitsofmeasure.org</t>
   </si>
   <si>
     <t>Quantity.system</t>
@@ -1470,19 +1519,22 @@
     <t>CO.codeSystem, PQ.translation.codeSystem</t>
   </si>
   <si>
+    <t>Observation.value[x]:valueQuantity.code</t>
+  </si>
+  <si>
     <t>Observation.value[x].code</t>
   </si>
   <si>
-    <t>Coded form of the unit</t>
-  </si>
-  <si>
-    <t>A computer processable form of the unit in some unit representation system.</t>
+    <t>Coded responses from the common UCUM units for vital signs value set.</t>
   </si>
   <si>
     <t>The preferred system is UCUM, but SNOMED CT can also be used (for customary units) or ISO 4217 for currency.  The context of use may additionally require a code from a particular system.</t>
   </si>
   <si>
     <t>Need a computable form of the unit that is fixed across all forms. UCUM provides this for quantities, but SNOMED CT provides many units of interest.</t>
+  </si>
+  <si>
+    <t>%</t>
   </si>
   <si>
     <t>Quantity.code</t>
@@ -1872,6 +1924,9 @@
   </si>
   <si>
     <t>Observation.hasMember</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
   <si>
     <t xml:space="preserve">Reference(https://johnmoehrke.github.io/MHV-PGHD/StructureDefinition/VA.MHV.heartRate|https://johnmoehrke.github.io/MHV-PGHD/StructureDefinition/VA.MHV.respirationRate)
@@ -2347,7 +2402,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP85"/>
+  <dimension ref="A1:AP92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2356,7 +2411,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="44.671875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="50.09375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="43.60546875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="17.49609375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
@@ -6980,10 +7035,10 @@
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>340</v>
+        <v>93</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>340</v>
+        <v>81</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>82</v>
@@ -7044,14 +7099,14 @@
         <v>82</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AC39" s="2"/>
       <c r="AD39" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>342</v>
+        <v>120</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>262</v>
@@ -7089,13 +7144,13 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B40" t="s" s="2">
         <v>339</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D40" t="s" s="2">
         <v>82</v>
@@ -7139,7 +7194,7 @@
         <v>82</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>345</v>
+        <v>82</v>
       </c>
       <c r="T40" t="s" s="2">
         <v>82</v>
@@ -7213,20 +7268,18 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="C41" t="s" s="2">
-        <v>347</v>
-      </c>
+        <v>344</v>
+      </c>
+      <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
         <v>82</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>93</v>
@@ -7238,23 +7291,19 @@
         <v>82</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>147</v>
+        <v>107</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>258</v>
+        <v>108</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="O41" t="s" s="2">
-        <v>261</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>82</v>
       </c>
@@ -7263,7 +7312,7 @@
         <v>82</v>
       </c>
       <c r="S41" t="s" s="2">
-        <v>348</v>
+        <v>82</v>
       </c>
       <c r="T41" t="s" s="2">
         <v>82</v>
@@ -7302,19 +7351,19 @@
         <v>82</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>262</v>
+        <v>110</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>82</v>
@@ -7323,10 +7372,10 @@
         <v>82</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>263</v>
+        <v>82</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>264</v>
+        <v>111</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>82</v>
@@ -7337,21 +7386,21 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>82</v>
@@ -7360,23 +7409,21 @@
         <v>82</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>316</v>
+        <v>115</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>317</v>
+        <v>116</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="O42" t="s" s="2">
-        <v>319</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>82</v>
       </c>
@@ -7412,31 +7459,31 @@
         <v>82</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>82</v>
+        <v>118</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>82</v>
+        <v>119</v>
       </c>
       <c r="AD42" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>82</v>
+        <v>120</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>320</v>
+        <v>121</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>82</v>
@@ -7445,10 +7492,10 @@
         <v>82</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>321</v>
+        <v>82</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>322</v>
+        <v>111</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>82</v>
@@ -7459,10 +7506,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7476,7 +7523,7 @@
         <v>93</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>82</v>
@@ -7485,26 +7532,26 @@
         <v>94</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>351</v>
+        <v>135</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>352</v>
+        <v>271</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>353</v>
+        <v>272</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>354</v>
+        <v>273</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>355</v>
+        <v>274</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
-        <v>82</v>
+        <v>349</v>
       </c>
       <c r="S43" t="s" s="2">
         <v>82</v>
@@ -7546,7 +7593,7 @@
         <v>82</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>350</v>
+        <v>276</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
@@ -7561,19 +7608,19 @@
         <v>105</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>356</v>
+        <v>82</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>357</v>
+        <v>277</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>358</v>
+        <v>278</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>359</v>
+        <v>82</v>
       </c>
       <c r="AP43" t="s" s="2">
         <v>82</v>
@@ -7581,10 +7628,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7595,7 +7642,7 @@
         <v>80</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>82</v>
@@ -7607,16 +7654,16 @@
         <v>94</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>361</v>
+        <v>107</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>362</v>
+        <v>281</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>363</v>
+        <v>282</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>364</v>
+        <v>283</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -7666,13 +7713,13 @@
         <v>82</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>360</v>
+        <v>284</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>82</v>
@@ -7687,13 +7734,13 @@
         <v>82</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>333</v>
+        <v>285</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>365</v>
+        <v>286</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>359</v>
+        <v>82</v>
       </c>
       <c r="AP44" t="s" s="2">
         <v>82</v>
@@ -7701,21 +7748,21 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>366</v>
+        <v>353</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>367</v>
+        <v>82</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>82</v>
@@ -7727,26 +7774,24 @@
         <v>94</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>368</v>
+        <v>170</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>369</v>
+        <v>289</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>371</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
-        <v>372</v>
+        <v>291</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q45" s="2"/>
       <c r="R45" t="s" s="2">
-        <v>82</v>
+        <v>354</v>
       </c>
       <c r="S45" t="s" s="2">
         <v>82</v>
@@ -7788,7 +7833,7 @@
         <v>82</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>366</v>
+        <v>293</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
@@ -7803,19 +7848,19 @@
         <v>105</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>373</v>
+        <v>82</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>374</v>
+        <v>294</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>375</v>
+        <v>295</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>376</v>
+        <v>82</v>
       </c>
       <c r="AP45" t="s" s="2">
         <v>82</v>
@@ -7823,24 +7868,24 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>377</v>
+        <v>355</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>377</v>
+        <v>356</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>378</v>
+        <v>82</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>93</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="I46" t="s" s="2">
         <v>82</v>
@@ -7849,19 +7894,17 @@
         <v>94</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>379</v>
+        <v>107</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>380</v>
+        <v>298</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>382</v>
-      </c>
+        <v>299</v>
+      </c>
+      <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
-        <v>383</v>
+        <v>300</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>82</v>
@@ -7898,17 +7941,19 @@
         <v>82</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="AC46" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="AD46" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>342</v>
+        <v>82</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>377</v>
+        <v>301</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
@@ -7917,25 +7962,25 @@
         <v>93</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>385</v>
+        <v>82</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>386</v>
+        <v>105</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>387</v>
+        <v>82</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>388</v>
+        <v>302</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>389</v>
+        <v>303</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>390</v>
+        <v>82</v>
       </c>
       <c r="AP46" t="s" s="2">
         <v>82</v>
@@ -7943,26 +7988,24 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>391</v>
+        <v>357</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="C47" t="s" s="2">
-        <v>392</v>
-      </c>
+        <v>358</v>
+      </c>
+      <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>378</v>
+        <v>82</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>93</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="I47" t="s" s="2">
         <v>82</v>
@@ -7971,19 +8014,19 @@
         <v>94</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>379</v>
+        <v>306</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>380</v>
+        <v>307</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>381</v>
+        <v>308</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>382</v>
+        <v>309</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>383</v>
+        <v>310</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>82</v>
@@ -8032,7 +8075,7 @@
         <v>82</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>377</v>
+        <v>311</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
@@ -8041,25 +8084,25 @@
         <v>93</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>385</v>
+        <v>82</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>386</v>
+        <v>105</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>387</v>
+        <v>82</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>388</v>
+        <v>312</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>389</v>
+        <v>313</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>390</v>
+        <v>82</v>
       </c>
       <c r="AP47" t="s" s="2">
         <v>82</v>
@@ -8067,10 +8110,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>393</v>
+        <v>359</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>393</v>
+        <v>359</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -8081,7 +8124,7 @@
         <v>80</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>82</v>
@@ -8093,18 +8136,20 @@
         <v>94</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>394</v>
+        <v>316</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>395</v>
+        <v>317</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="O48" s="2"/>
+        <v>318</v>
+      </c>
+      <c r="O48" t="s" s="2">
+        <v>319</v>
+      </c>
       <c r="P48" t="s" s="2">
         <v>82</v>
       </c>
@@ -8152,7 +8197,7 @@
         <v>82</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>393</v>
+        <v>320</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
@@ -8173,13 +8218,13 @@
         <v>82</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>397</v>
+        <v>321</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>398</v>
+        <v>322</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>399</v>
+        <v>82</v>
       </c>
       <c r="AP48" t="s" s="2">
         <v>82</v>
@@ -8187,10 +8232,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>400</v>
+        <v>360</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>400</v>
+        <v>360</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8198,13 +8243,13 @@
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="I49" t="s" s="2">
         <v>82</v>
@@ -8213,17 +8258,19 @@
         <v>94</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>401</v>
+        <v>361</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>402</v>
+        <v>362</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="N49" s="2"/>
+        <v>363</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>364</v>
+      </c>
       <c r="O49" t="s" s="2">
-        <v>404</v>
+        <v>365</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>82</v>
@@ -8272,13 +8319,13 @@
         <v>82</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>400</v>
+        <v>360</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>82</v>
@@ -8287,19 +8334,19 @@
         <v>105</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>405</v>
+        <v>366</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>406</v>
+        <v>367</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>407</v>
+        <v>368</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>408</v>
+        <v>369</v>
       </c>
       <c r="AP49" t="s" s="2">
         <v>82</v>
@@ -8307,10 +8354,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>409</v>
+        <v>370</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>409</v>
+        <v>370</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8321,10 +8368,10 @@
         <v>80</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="I50" t="s" s="2">
         <v>82</v>
@@ -8333,20 +8380,18 @@
         <v>94</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>410</v>
+        <v>371</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>411</v>
+        <v>372</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>411</v>
+        <v>373</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>413</v>
-      </c>
+        <v>374</v>
+      </c>
+      <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>82</v>
       </c>
@@ -8394,16 +8439,16 @@
         <v>82</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>409</v>
+        <v>370</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>414</v>
+        <v>82</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>105</v>
@@ -8412,38 +8457,38 @@
         <v>82</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>415</v>
+        <v>82</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>416</v>
+        <v>333</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>417</v>
+        <v>375</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>82</v>
+        <v>369</v>
       </c>
       <c r="AP50" t="s" s="2">
-        <v>418</v>
+        <v>82</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>419</v>
+        <v>376</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>419</v>
+        <v>376</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>82</v>
+        <v>377</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>82</v>
@@ -8452,19 +8497,23 @@
         <v>82</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>107</v>
+        <v>378</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>108</v>
+        <v>379</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="N51" s="2"/>
-      <c r="O51" s="2"/>
+        <v>380</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="O51" t="s" s="2">
+        <v>382</v>
+      </c>
       <c r="P51" t="s" s="2">
         <v>82</v>
       </c>
@@ -8512,7 +8561,7 @@
         <v>82</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>110</v>
+        <v>376</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
@@ -8524,22 +8573,22 @@
         <v>82</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>82</v>
+        <v>383</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>82</v>
+        <v>384</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>111</v>
+        <v>385</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>82</v>
+        <v>386</v>
       </c>
       <c r="AP51" t="s" s="2">
         <v>82</v>
@@ -8547,44 +8596,46 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>420</v>
+        <v>387</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>420</v>
+        <v>387</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>113</v>
+        <v>388</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="I52" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>114</v>
+        <v>389</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>115</v>
+        <v>390</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>116</v>
+        <v>391</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="O52" s="2"/>
+        <v>392</v>
+      </c>
+      <c r="O52" t="s" s="2">
+        <v>393</v>
+      </c>
       <c r="P52" t="s" s="2">
         <v>82</v>
       </c>
@@ -8620,46 +8671,44 @@
         <v>82</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="AC52" t="s" s="2">
-        <v>119</v>
-      </c>
+        <v>394</v>
+      </c>
+      <c r="AC52" s="2"/>
       <c r="AD52" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>120</v>
+        <v>395</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>121</v>
+        <v>387</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>82</v>
+        <v>396</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>122</v>
+        <v>397</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>82</v>
+        <v>398</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>82</v>
+        <v>399</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>111</v>
+        <v>400</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>82</v>
+        <v>401</v>
       </c>
       <c r="AP52" t="s" s="2">
         <v>82</v>
@@ -8667,24 +8716,26 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>421</v>
+        <v>402</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="C53" s="2"/>
+        <v>387</v>
+      </c>
+      <c r="C53" t="s" s="2">
+        <v>403</v>
+      </c>
       <c r="D53" t="s" s="2">
-        <v>82</v>
+        <v>388</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>93</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="I53" t="s" s="2">
         <v>82</v>
@@ -8693,19 +8744,19 @@
         <v>94</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>422</v>
+        <v>389</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>423</v>
+        <v>390</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>424</v>
+        <v>391</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>425</v>
+        <v>392</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>426</v>
+        <v>393</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>82</v>
@@ -8721,10 +8772,10 @@
         <v>82</v>
       </c>
       <c r="U53" t="s" s="2">
-        <v>427</v>
+        <v>82</v>
       </c>
       <c r="V53" t="s" s="2">
-        <v>428</v>
+        <v>82</v>
       </c>
       <c r="W53" t="s" s="2">
         <v>82</v>
@@ -8754,7 +8805,7 @@
         <v>82</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>429</v>
+        <v>387</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
@@ -8763,25 +8814,25 @@
         <v>93</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>82</v>
+        <v>396</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>105</v>
+        <v>397</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>82</v>
+        <v>398</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>430</v>
+        <v>399</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>431</v>
+        <v>400</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>82</v>
+        <v>401</v>
       </c>
       <c r="AP53" t="s" s="2">
         <v>82</v>
@@ -8789,10 +8840,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>432</v>
+        <v>404</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>432</v>
+        <v>404</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8803,36 +8854,34 @@
         <v>80</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="J54" t="s" s="2">
         <v>94</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>170</v>
+        <v>129</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>433</v>
+        <v>405</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="N54" s="2"/>
-      <c r="O54" t="s" s="2">
-        <v>435</v>
-      </c>
+        <v>406</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="Q54" t="s" s="2">
-        <v>436</v>
-      </c>
+      <c r="Q54" s="2"/>
       <c r="R54" t="s" s="2">
         <v>82</v>
       </c>
@@ -8852,13 +8901,13 @@
         <v>82</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>232</v>
+        <v>82</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>437</v>
+        <v>82</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>438</v>
+        <v>82</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>82</v>
@@ -8876,7 +8925,7 @@
         <v>82</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>439</v>
+        <v>404</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
@@ -8897,13 +8946,13 @@
         <v>82</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>440</v>
+        <v>408</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>441</v>
+        <v>409</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>82</v>
+        <v>410</v>
       </c>
       <c r="AP54" t="s" s="2">
         <v>82</v>
@@ -8911,10 +8960,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>442</v>
+        <v>411</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>442</v>
+        <v>411</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8925,7 +8974,7 @@
         <v>80</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>82</v>
@@ -8937,17 +8986,17 @@
         <v>94</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>107</v>
+        <v>412</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>443</v>
+        <v>413</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>444</v>
+        <v>414</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
-        <v>445</v>
+        <v>415</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>82</v>
@@ -8957,7 +9006,7 @@
         <v>82</v>
       </c>
       <c r="S55" t="s" s="2">
-        <v>446</v>
+        <v>82</v>
       </c>
       <c r="T55" t="s" s="2">
         <v>82</v>
@@ -8996,13 +9045,13 @@
         <v>82</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>447</v>
+        <v>411</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>82</v>
@@ -9011,19 +9060,19 @@
         <v>105</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>82</v>
+        <v>416</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>448</v>
+        <v>417</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>449</v>
+        <v>418</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>82</v>
+        <v>419</v>
       </c>
       <c r="AP55" t="s" s="2">
         <v>82</v>
@@ -9031,10 +9080,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>450</v>
+        <v>420</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>450</v>
+        <v>420</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -9048,7 +9097,7 @@
         <v>93</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="I56" t="s" s="2">
         <v>82</v>
@@ -9057,17 +9106,19 @@
         <v>94</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>135</v>
+        <v>421</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>451</v>
+        <v>422</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="N56" s="2"/>
+        <v>422</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>423</v>
+      </c>
       <c r="O56" t="s" s="2">
-        <v>453</v>
+        <v>424</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>82</v>
@@ -9104,19 +9155,17 @@
         <v>82</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC56" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>394</v>
+      </c>
+      <c r="AC56" s="2"/>
       <c r="AD56" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>82</v>
+        <v>395</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>454</v>
+        <v>420</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
@@ -9125,7 +9174,7 @@
         <v>93</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>455</v>
+        <v>425</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>105</v>
@@ -9134,29 +9183,31 @@
         <v>82</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>82</v>
+        <v>426</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>448</v>
+        <v>427</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>456</v>
+        <v>428</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP56" t="s" s="2">
-        <v>82</v>
+        <v>429</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>457</v>
+        <v>430</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="C57" s="2"/>
+        <v>420</v>
+      </c>
+      <c r="C57" t="s" s="2">
+        <v>431</v>
+      </c>
       <c r="D57" t="s" s="2">
         <v>82</v>
       </c>
@@ -9168,7 +9219,7 @@
         <v>93</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="I57" t="s" s="2">
         <v>82</v>
@@ -9177,19 +9228,19 @@
         <v>94</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>170</v>
+        <v>421</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>458</v>
+        <v>422</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>459</v>
+        <v>422</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>460</v>
+        <v>423</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>461</v>
+        <v>424</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>82</v>
@@ -9238,7 +9289,7 @@
         <v>82</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>462</v>
+        <v>420</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
@@ -9247,7 +9298,7 @@
         <v>93</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>82</v>
+        <v>425</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>105</v>
@@ -9256,27 +9307,27 @@
         <v>82</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>82</v>
+        <v>426</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>448</v>
+        <v>427</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>463</v>
+        <v>428</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP57" t="s" s="2">
-        <v>82</v>
+        <v>429</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>464</v>
+        <v>432</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>464</v>
+        <v>433</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9287,10 +9338,10 @@
         <v>80</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="I58" t="s" s="2">
         <v>82</v>
@@ -9299,20 +9350,16 @@
         <v>82</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>240</v>
+        <v>107</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>465</v>
+        <v>108</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="O58" t="s" s="2">
-        <v>468</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="N58" s="2"/>
+      <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>82</v>
       </c>
@@ -9336,13 +9383,13 @@
         <v>82</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>151</v>
+        <v>82</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>469</v>
+        <v>82</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>470</v>
+        <v>82</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>82</v>
@@ -9360,7 +9407,7 @@
         <v>82</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>464</v>
+        <v>110</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>80</v>
@@ -9369,10 +9416,10 @@
         <v>93</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>471</v>
+        <v>82</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>82</v>
@@ -9381,10 +9428,10 @@
         <v>82</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>193</v>
+        <v>82</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>472</v>
+        <v>111</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>82</v>
@@ -9395,21 +9442,21 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>473</v>
+        <v>434</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>473</v>
+        <v>435</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>474</v>
+        <v>113</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>82</v>
@@ -9421,20 +9468,18 @@
         <v>82</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>240</v>
+        <v>114</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>475</v>
+        <v>115</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>476</v>
+        <v>116</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="O59" t="s" s="2">
-        <v>478</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>82</v>
       </c>
@@ -9458,31 +9503,31 @@
         <v>82</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>151</v>
+        <v>82</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>479</v>
+        <v>82</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>480</v>
+        <v>82</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>82</v>
+        <v>118</v>
       </c>
       <c r="AC59" t="s" s="2">
-        <v>82</v>
+        <v>119</v>
       </c>
       <c r="AD59" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>82</v>
+        <v>120</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>473</v>
+        <v>121</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>80</v>
@@ -9494,33 +9539,33 @@
         <v>82</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>481</v>
+        <v>82</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>482</v>
+        <v>82</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>483</v>
+        <v>111</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP59" t="s" s="2">
-        <v>484</v>
+        <v>82</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>485</v>
+        <v>436</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>485</v>
+        <v>437</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9528,34 +9573,34 @@
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>93</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="I60" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>486</v>
+        <v>438</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>487</v>
+        <v>439</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>488</v>
+        <v>440</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>489</v>
+        <v>441</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>490</v>
+        <v>442</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>82</v>
@@ -9571,10 +9616,10 @@
         <v>82</v>
       </c>
       <c r="U60" t="s" s="2">
-        <v>82</v>
+        <v>443</v>
       </c>
       <c r="V60" t="s" s="2">
-        <v>82</v>
+        <v>444</v>
       </c>
       <c r="W60" t="s" s="2">
         <v>82</v>
@@ -9604,13 +9649,13 @@
         <v>82</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>485</v>
+        <v>445</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>82</v>
@@ -9625,10 +9670,10 @@
         <v>82</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>491</v>
+        <v>446</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>492</v>
+        <v>447</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>82</v>
@@ -9639,10 +9684,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>493</v>
+        <v>448</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>493</v>
+        <v>449</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9653,34 +9698,36 @@
         <v>80</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>240</v>
+        <v>170</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>494</v>
+        <v>450</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="O61" s="2"/>
+        <v>451</v>
+      </c>
+      <c r="N61" s="2"/>
+      <c r="O61" t="s" s="2">
+        <v>452</v>
+      </c>
       <c r="P61" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="Q61" s="2"/>
+      <c r="Q61" t="s" s="2">
+        <v>453</v>
+      </c>
       <c r="R61" t="s" s="2">
         <v>82</v>
       </c>
@@ -9700,13 +9747,13 @@
         <v>82</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>160</v>
+        <v>232</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>497</v>
+        <v>454</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>498</v>
+        <v>455</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>82</v>
@@ -9724,7 +9771,7 @@
         <v>82</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>493</v>
+        <v>456</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
@@ -9742,27 +9789,27 @@
         <v>82</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>499</v>
+        <v>82</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>500</v>
+        <v>457</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>501</v>
+        <v>458</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP61" t="s" s="2">
-        <v>502</v>
+        <v>82</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>503</v>
+        <v>459</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>503</v>
+        <v>460</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9770,34 +9817,32 @@
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="H62" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="I62" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>240</v>
+        <v>107</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>504</v>
+        <v>461</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>506</v>
-      </c>
+        <v>462</v>
+      </c>
+      <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
-        <v>507</v>
+        <v>463</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>82</v>
@@ -9822,13 +9867,13 @@
         <v>82</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>160</v>
+        <v>82</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>508</v>
+        <v>82</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>509</v>
+        <v>82</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>82</v>
@@ -9846,7 +9891,7 @@
         <v>82</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>503</v>
+        <v>464</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
@@ -9867,10 +9912,10 @@
         <v>82</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>510</v>
+        <v>465</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>511</v>
+        <v>466</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>82</v>
@@ -9881,10 +9926,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>512</v>
+        <v>467</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>512</v>
+        <v>468</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9892,39 +9937,39 @@
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="I63" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>513</v>
+        <v>135</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>514</v>
+        <v>469</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="O63" s="2"/>
+        <v>470</v>
+      </c>
+      <c r="N63" s="2"/>
+      <c r="O63" t="s" s="2">
+        <v>471</v>
+      </c>
       <c r="P63" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q63" s="2"/>
       <c r="R63" t="s" s="2">
-        <v>82</v>
+        <v>472</v>
       </c>
       <c r="S63" t="s" s="2">
         <v>82</v>
@@ -9966,7 +10011,7 @@
         <v>82</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>512</v>
+        <v>473</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>80</v>
@@ -9975,7 +10020,7 @@
         <v>93</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>82</v>
+        <v>474</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>105</v>
@@ -9984,27 +10029,27 @@
         <v>82</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>517</v>
+        <v>82</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>518</v>
+        <v>465</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>519</v>
+        <v>475</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP63" t="s" s="2">
-        <v>520</v>
+        <v>82</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>521</v>
+        <v>476</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>521</v>
+        <v>477</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -10012,39 +10057,41 @@
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="H64" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="I64" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>522</v>
+        <v>170</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>523</v>
+        <v>478</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>524</v>
+        <v>478</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="O64" s="2"/>
+        <v>479</v>
+      </c>
+      <c r="O64" t="s" s="2">
+        <v>480</v>
+      </c>
       <c r="P64" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q64" s="2"/>
       <c r="R64" t="s" s="2">
-        <v>82</v>
+        <v>481</v>
       </c>
       <c r="S64" t="s" s="2">
         <v>82</v>
@@ -10086,7 +10133,7 @@
         <v>82</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>521</v>
+        <v>482</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>80</v>
@@ -10104,27 +10151,27 @@
         <v>82</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>526</v>
+        <v>82</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>527</v>
+        <v>465</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>528</v>
+        <v>483</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP64" t="s" s="2">
-        <v>529</v>
+        <v>82</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>530</v>
+        <v>484</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>530</v>
+        <v>484</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -10138,7 +10185,7 @@
         <v>80</v>
       </c>
       <c r="H65" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="I65" t="s" s="2">
         <v>82</v>
@@ -10147,19 +10194,19 @@
         <v>82</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>531</v>
+        <v>240</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>532</v>
+        <v>485</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>533</v>
+        <v>486</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>534</v>
+        <v>487</v>
       </c>
       <c r="O65" t="s" s="2">
-        <v>535</v>
+        <v>488</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>82</v>
@@ -10184,13 +10231,13 @@
         <v>82</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>82</v>
+        <v>151</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>82</v>
+        <v>489</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>82</v>
+        <v>490</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>82</v>
@@ -10208,19 +10255,19 @@
         <v>82</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>530</v>
+        <v>484</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>82</v>
+        <v>491</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>536</v>
+        <v>105</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>82</v>
@@ -10229,10 +10276,10 @@
         <v>82</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>537</v>
+        <v>193</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>538</v>
+        <v>492</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>82</v>
@@ -10243,21 +10290,21 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>539</v>
+        <v>493</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>539</v>
+        <v>493</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>82</v>
+        <v>494</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>82</v>
@@ -10269,16 +10316,20 @@
         <v>82</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>107</v>
+        <v>240</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>108</v>
+        <v>495</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="N66" s="2"/>
-      <c r="O66" s="2"/>
+        <v>496</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="O66" t="s" s="2">
+        <v>498</v>
+      </c>
       <c r="P66" t="s" s="2">
         <v>82</v>
       </c>
@@ -10302,13 +10353,13 @@
         <v>82</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>82</v>
+        <v>151</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>82</v>
+        <v>499</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>82</v>
+        <v>500</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>82</v>
@@ -10326,56 +10377,56 @@
         <v>82</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>110</v>
+        <v>493</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>82</v>
+        <v>501</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>82</v>
+        <v>502</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>111</v>
+        <v>503</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP66" t="s" s="2">
-        <v>82</v>
+        <v>504</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>540</v>
+        <v>505</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>540</v>
+        <v>505</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>113</v>
+        <v>82</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>82</v>
@@ -10387,18 +10438,20 @@
         <v>82</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>114</v>
+        <v>506</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>115</v>
+        <v>507</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>116</v>
+        <v>508</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="O67" s="2"/>
+        <v>509</v>
+      </c>
+      <c r="O67" t="s" s="2">
+        <v>510</v>
+      </c>
       <c r="P67" t="s" s="2">
         <v>82</v>
       </c>
@@ -10446,7 +10499,7 @@
         <v>82</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>121</v>
+        <v>505</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>80</v>
@@ -10458,7 +10511,7 @@
         <v>82</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>82</v>
@@ -10467,10 +10520,10 @@
         <v>82</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>82</v>
+        <v>511</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>111</v>
+        <v>512</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>82</v>
@@ -10481,46 +10534,44 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>541</v>
+        <v>513</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>541</v>
+        <v>513</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>542</v>
+        <v>82</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>114</v>
+        <v>240</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>543</v>
+        <v>514</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>544</v>
+        <v>515</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="O68" t="s" s="2">
-        <v>545</v>
-      </c>
+        <v>516</v>
+      </c>
+      <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>82</v>
       </c>
@@ -10544,13 +10595,13 @@
         <v>82</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>82</v>
+        <v>160</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>82</v>
+        <v>517</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>82</v>
+        <v>518</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>82</v>
@@ -10568,45 +10619,45 @@
         <v>82</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>546</v>
+        <v>513</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>82</v>
+        <v>519</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>82</v>
+        <v>520</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>193</v>
+        <v>521</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP68" t="s" s="2">
-        <v>82</v>
+        <v>522</v>
       </c>
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>547</v>
+        <v>523</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>547</v>
+        <v>523</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10617,7 +10668,7 @@
         <v>80</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>82</v>
@@ -10629,16 +10680,20 @@
         <v>82</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>548</v>
+        <v>240</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>549</v>
+        <v>524</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>550</v>
-      </c>
-      <c r="N69" s="2"/>
-      <c r="O69" s="2"/>
+        <v>525</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="O69" t="s" s="2">
+        <v>527</v>
+      </c>
       <c r="P69" t="s" s="2">
         <v>82</v>
       </c>
@@ -10662,13 +10717,13 @@
         <v>82</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>82</v>
+        <v>160</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>82</v>
+        <v>528</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>82</v>
+        <v>529</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>82</v>
@@ -10686,7 +10741,7 @@
         <v>82</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>547</v>
+        <v>523</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>80</v>
@@ -10695,7 +10750,7 @@
         <v>93</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>551</v>
+        <v>82</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>105</v>
@@ -10707,10 +10762,10 @@
         <v>82</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>552</v>
+        <v>530</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>553</v>
+        <v>531</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>82</v>
@@ -10721,10 +10776,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>554</v>
+        <v>532</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>554</v>
+        <v>532</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10735,7 +10790,7 @@
         <v>80</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>82</v>
@@ -10747,15 +10802,17 @@
         <v>82</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>548</v>
+        <v>533</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>555</v>
+        <v>534</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>556</v>
-      </c>
-      <c r="N70" s="2"/>
+        <v>535</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>536</v>
+      </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
         <v>82</v>
@@ -10804,7 +10861,7 @@
         <v>82</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>554</v>
+        <v>532</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>80</v>
@@ -10813,7 +10870,7 @@
         <v>93</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>551</v>
+        <v>82</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>105</v>
@@ -10822,27 +10879,27 @@
         <v>82</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>82</v>
+        <v>537</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>552</v>
+        <v>538</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>557</v>
+        <v>539</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP70" t="s" s="2">
-        <v>82</v>
+        <v>540</v>
       </c>
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>558</v>
+        <v>541</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>558</v>
+        <v>541</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10853,7 +10910,7 @@
         <v>80</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>82</v>
@@ -10865,20 +10922,18 @@
         <v>82</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>240</v>
+        <v>542</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>559</v>
+        <v>543</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>560</v>
+        <v>544</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>561</v>
-      </c>
-      <c r="O71" t="s" s="2">
-        <v>562</v>
-      </c>
+        <v>545</v>
+      </c>
+      <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
         <v>82</v>
       </c>
@@ -10902,13 +10957,13 @@
         <v>82</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>174</v>
+        <v>82</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>563</v>
+        <v>82</v>
       </c>
       <c r="Z71" t="s" s="2">
-        <v>564</v>
+        <v>82</v>
       </c>
       <c r="AA71" t="s" s="2">
         <v>82</v>
@@ -10926,7 +10981,7 @@
         <v>82</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>558</v>
+        <v>541</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>80</v>
@@ -10944,27 +10999,27 @@
         <v>82</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>565</v>
+        <v>546</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>566</v>
+        <v>547</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>483</v>
+        <v>548</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP71" t="s" s="2">
-        <v>82</v>
+        <v>549</v>
       </c>
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>567</v>
+        <v>550</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>567</v>
+        <v>550</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10975,7 +11030,7 @@
         <v>80</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>82</v>
@@ -10987,19 +11042,19 @@
         <v>82</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>240</v>
+        <v>551</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>568</v>
+        <v>552</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>569</v>
+        <v>553</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>570</v>
+        <v>554</v>
       </c>
       <c r="O72" t="s" s="2">
-        <v>571</v>
+        <v>555</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>82</v>
@@ -11024,13 +11079,13 @@
         <v>82</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>160</v>
+        <v>82</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>572</v>
+        <v>82</v>
       </c>
       <c r="Z72" t="s" s="2">
-        <v>573</v>
+        <v>82</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>82</v>
@@ -11048,7 +11103,7 @@
         <v>82</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>567</v>
+        <v>550</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>80</v>
@@ -11060,19 +11115,19 @@
         <v>82</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>105</v>
+        <v>556</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>565</v>
+        <v>82</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>566</v>
+        <v>557</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>483</v>
+        <v>558</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>82</v>
@@ -11083,10 +11138,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>574</v>
+        <v>559</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>574</v>
+        <v>559</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11109,18 +11164,16 @@
         <v>82</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>575</v>
+        <v>107</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>576</v>
+        <v>108</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>577</v>
+        <v>109</v>
       </c>
       <c r="N73" s="2"/>
-      <c r="O73" t="s" s="2">
-        <v>578</v>
-      </c>
+      <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
         <v>82</v>
       </c>
@@ -11168,7 +11221,7 @@
         <v>82</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>574</v>
+        <v>110</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>80</v>
@@ -11180,7 +11233,7 @@
         <v>82</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>82</v>
@@ -11192,7 +11245,7 @@
         <v>82</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>579</v>
+        <v>111</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>82</v>
@@ -11203,21 +11256,21 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>580</v>
+        <v>560</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>580</v>
+        <v>560</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>82</v>
@@ -11229,15 +11282,17 @@
         <v>82</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>581</v>
+        <v>115</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>582</v>
-      </c>
-      <c r="N74" s="2"/>
+        <v>116</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>117</v>
+      </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
         <v>82</v>
@@ -11286,19 +11341,19 @@
         <v>82</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>580</v>
+        <v>121</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>82</v>
@@ -11307,10 +11362,10 @@
         <v>82</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>552</v>
+        <v>82</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>583</v>
+        <v>111</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>82</v>
@@ -11321,44 +11376,46 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>584</v>
+        <v>561</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>584</v>
+        <v>561</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>82</v>
+        <v>562</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>340</v>
+        <v>81</v>
       </c>
       <c r="H75" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I75" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="I75" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="J75" t="s" s="2">
         <v>94</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>585</v>
+        <v>114</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>586</v>
+        <v>563</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>587</v>
+        <v>564</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>588</v>
-      </c>
-      <c r="O75" s="2"/>
+        <v>117</v>
+      </c>
+      <c r="O75" t="s" s="2">
+        <v>565</v>
+      </c>
       <c r="P75" t="s" s="2">
         <v>82</v>
       </c>
@@ -11406,7 +11463,7 @@
         <v>82</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>584</v>
+        <v>566</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>80</v>
@@ -11418,7 +11475,7 @@
         <v>82</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>82</v>
@@ -11427,10 +11484,10 @@
         <v>82</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>589</v>
+        <v>82</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>590</v>
+        <v>193</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>82</v>
@@ -11441,10 +11498,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>591</v>
+        <v>567</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>591</v>
+        <v>567</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11455,7 +11512,7 @@
         <v>80</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>82</v>
@@ -11464,20 +11521,18 @@
         <v>82</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>592</v>
+        <v>568</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>593</v>
+        <v>569</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>594</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>595</v>
-      </c>
+        <v>570</v>
+      </c>
+      <c r="N76" s="2"/>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
         <v>82</v>
@@ -11526,16 +11581,16 @@
         <v>82</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>591</v>
+        <v>567</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>82</v>
+        <v>571</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>105</v>
@@ -11547,10 +11602,10 @@
         <v>82</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>589</v>
+        <v>572</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>596</v>
+        <v>573</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>82</v>
@@ -11561,10 +11616,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>597</v>
+        <v>574</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>597</v>
+        <v>574</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11575,32 +11630,28 @@
         <v>80</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="H77" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="I77" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>531</v>
+        <v>568</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>598</v>
+        <v>575</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>598</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>599</v>
-      </c>
-      <c r="O77" t="s" s="2">
-        <v>600</v>
-      </c>
+        <v>576</v>
+      </c>
+      <c r="N77" s="2"/>
+      <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
         <v>82</v>
       </c>
@@ -11648,19 +11699,19 @@
         <v>82</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>597</v>
+        <v>574</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>82</v>
+        <v>571</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>601</v>
+        <v>105</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>82</v>
@@ -11669,10 +11720,10 @@
         <v>82</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>602</v>
+        <v>572</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>603</v>
+        <v>577</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>82</v>
@@ -11683,10 +11734,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>604</v>
+        <v>578</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>604</v>
+        <v>578</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11709,16 +11760,20 @@
         <v>82</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>107</v>
+        <v>240</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>108</v>
+        <v>579</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="N78" s="2"/>
-      <c r="O78" s="2"/>
+        <v>580</v>
+      </c>
+      <c r="N78" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="O78" t="s" s="2">
+        <v>582</v>
+      </c>
       <c r="P78" t="s" s="2">
         <v>82</v>
       </c>
@@ -11742,13 +11797,13 @@
         <v>82</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>82</v>
+        <v>174</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>82</v>
+        <v>583</v>
       </c>
       <c r="Z78" t="s" s="2">
-        <v>82</v>
+        <v>584</v>
       </c>
       <c r="AA78" t="s" s="2">
         <v>82</v>
@@ -11766,7 +11821,7 @@
         <v>82</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>110</v>
+        <v>578</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>80</v>
@@ -11778,19 +11833,19 @@
         <v>82</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>82</v>
+        <v>585</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>82</v>
+        <v>586</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>111</v>
+        <v>503</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>82</v>
@@ -11801,14 +11856,14 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>605</v>
+        <v>587</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>605</v>
+        <v>587</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
-        <v>113</v>
+        <v>82</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
@@ -11827,18 +11882,20 @@
         <v>82</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>114</v>
+        <v>240</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>115</v>
+        <v>588</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>116</v>
+        <v>589</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="O79" s="2"/>
+        <v>590</v>
+      </c>
+      <c r="O79" t="s" s="2">
+        <v>591</v>
+      </c>
       <c r="P79" t="s" s="2">
         <v>82</v>
       </c>
@@ -11862,13 +11919,13 @@
         <v>82</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>82</v>
+        <v>160</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>82</v>
+        <v>592</v>
       </c>
       <c r="Z79" t="s" s="2">
-        <v>82</v>
+        <v>593</v>
       </c>
       <c r="AA79" t="s" s="2">
         <v>82</v>
@@ -11886,7 +11943,7 @@
         <v>82</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>121</v>
+        <v>587</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>80</v>
@@ -11898,19 +11955,19 @@
         <v>82</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>82</v>
+        <v>585</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>82</v>
+        <v>586</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>111</v>
+        <v>503</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>82</v>
@@ -11921,45 +11978,43 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>606</v>
+        <v>594</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>606</v>
+        <v>594</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
-        <v>542</v>
+        <v>82</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I80" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>114</v>
+        <v>595</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>543</v>
+        <v>596</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>544</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>117</v>
-      </c>
+        <v>597</v>
+      </c>
+      <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
-        <v>545</v>
+        <v>598</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>82</v>
@@ -12008,19 +12063,19 @@
         <v>82</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>546</v>
+        <v>594</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>82</v>
@@ -12032,7 +12087,7 @@
         <v>82</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>193</v>
+        <v>599</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>82</v>
@@ -12043,10 +12098,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>607</v>
+        <v>600</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>607</v>
+        <v>600</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -12054,35 +12109,31 @@
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="G81" t="s" s="2">
         <v>93</v>
       </c>
       <c r="H81" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="I81" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>240</v>
+        <v>107</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>608</v>
+        <v>601</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>609</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>610</v>
-      </c>
-      <c r="O81" t="s" s="2">
-        <v>611</v>
-      </c>
+        <v>602</v>
+      </c>
+      <c r="N81" s="2"/>
+      <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
         <v>82</v>
       </c>
@@ -12106,13 +12157,13 @@
         <v>82</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>151</v>
+        <v>82</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>329</v>
+        <v>82</v>
       </c>
       <c r="Z81" t="s" s="2">
-        <v>330</v>
+        <v>82</v>
       </c>
       <c r="AA81" t="s" s="2">
         <v>82</v>
@@ -12130,10 +12181,10 @@
         <v>82</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>607</v>
+        <v>600</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="AH81" t="s" s="2">
         <v>93</v>
@@ -12148,16 +12199,16 @@
         <v>82</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>612</v>
+        <v>82</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>333</v>
+        <v>572</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>334</v>
+        <v>603</v>
       </c>
       <c r="AO81" t="s" s="2">
-        <v>335</v>
+        <v>82</v>
       </c>
       <c r="AP81" t="s" s="2">
         <v>82</v>
@@ -12165,10 +12216,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>613</v>
+        <v>604</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>613</v>
+        <v>604</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -12179,7 +12230,7 @@
         <v>80</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>93</v>
+        <v>605</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>94</v>
@@ -12191,20 +12242,18 @@
         <v>94</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>614</v>
+        <v>606</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>615</v>
+        <v>607</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>616</v>
+        <v>608</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>617</v>
-      </c>
-      <c r="O82" t="s" s="2">
-        <v>413</v>
-      </c>
+        <v>609</v>
+      </c>
+      <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
         <v>82</v>
       </c>
@@ -12228,13 +12277,13 @@
         <v>82</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>232</v>
+        <v>82</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>618</v>
+        <v>82</v>
       </c>
       <c r="Z82" t="s" s="2">
-        <v>619</v>
+        <v>82</v>
       </c>
       <c r="AA82" t="s" s="2">
         <v>82</v>
@@ -12252,16 +12301,16 @@
         <v>82</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>613</v>
+        <v>604</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>620</v>
+        <v>82</v>
       </c>
       <c r="AJ82" t="s" s="2">
         <v>105</v>
@@ -12270,27 +12319,27 @@
         <v>82</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>621</v>
+        <v>82</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>416</v>
+        <v>610</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>417</v>
+        <v>611</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP82" t="s" s="2">
-        <v>418</v>
+        <v>82</v>
       </c>
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>622</v>
+        <v>612</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>622</v>
+        <v>612</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12301,32 +12350,30 @@
         <v>80</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="H83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J83" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="I83" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J83" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="K83" t="s" s="2">
-        <v>240</v>
+        <v>613</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>623</v>
+        <v>614</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>624</v>
+        <v>615</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>625</v>
-      </c>
-      <c r="O83" t="s" s="2">
-        <v>468</v>
-      </c>
+        <v>616</v>
+      </c>
+      <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
         <v>82</v>
       </c>
@@ -12350,13 +12397,13 @@
         <v>82</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>151</v>
+        <v>82</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>469</v>
+        <v>82</v>
       </c>
       <c r="Z83" t="s" s="2">
-        <v>470</v>
+        <v>82</v>
       </c>
       <c r="AA83" t="s" s="2">
         <v>82</v>
@@ -12374,16 +12421,16 @@
         <v>82</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>622</v>
+        <v>612</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>626</v>
+        <v>82</v>
       </c>
       <c r="AJ83" t="s" s="2">
         <v>105</v>
@@ -12395,10 +12442,10 @@
         <v>82</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>193</v>
+        <v>610</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>472</v>
+        <v>617</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>82</v>
@@ -12409,45 +12456,45 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>627</v>
+        <v>618</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>627</v>
+        <v>618</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
-        <v>474</v>
+        <v>82</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H84" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="I84" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>240</v>
+        <v>551</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>475</v>
+        <v>619</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>476</v>
+        <v>619</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>477</v>
+        <v>620</v>
       </c>
       <c r="O84" t="s" s="2">
-        <v>478</v>
+        <v>621</v>
       </c>
       <c r="P84" t="s" s="2">
         <v>82</v>
@@ -12472,13 +12519,13 @@
         <v>82</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>151</v>
+        <v>82</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>479</v>
+        <v>82</v>
       </c>
       <c r="Z84" t="s" s="2">
-        <v>480</v>
+        <v>82</v>
       </c>
       <c r="AA84" t="s" s="2">
         <v>82</v>
@@ -12496,7 +12543,7 @@
         <v>82</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>627</v>
+        <v>618</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>80</v>
@@ -12508,33 +12555,33 @@
         <v>82</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>105</v>
+        <v>622</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>481</v>
+        <v>82</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>482</v>
+        <v>623</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>483</v>
+        <v>624</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP84" t="s" s="2">
-        <v>484</v>
+        <v>82</v>
       </c>
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12545,7 +12592,7 @@
         <v>80</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>82</v>
@@ -12557,20 +12604,16 @@
         <v>82</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>82</v>
+        <v>107</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>629</v>
+        <v>108</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>630</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>534</v>
-      </c>
-      <c r="O85" t="s" s="2">
-        <v>535</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="N85" s="2"/>
+      <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
         <v>82</v>
       </c>
@@ -12618,41 +12661,893 @@
         <v>82</v>
       </c>
       <c r="AF85" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AG85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH85" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI85" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ85" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK85" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL85" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM85" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN85" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AO85" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP85" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="86" hidden="true">
+      <c r="A86" t="s" s="2">
+        <v>626</v>
+      </c>
+      <c r="B86" t="s" s="2">
+        <v>626</v>
+      </c>
+      <c r="C86" s="2"/>
+      <c r="D86" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="E86" s="2"/>
+      <c r="F86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G86" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H86" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I86" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J86" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K86" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="L86" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="M86" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="N86" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="O86" s="2"/>
+      <c r="P86" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q86" s="2"/>
+      <c r="R86" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S86" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T86" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U86" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V86" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W86" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X86" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y86" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z86" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA86" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB86" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC86" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD86" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE86" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF86" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="AG86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH86" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI86" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ86" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="AK86" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL86" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM86" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN86" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AO86" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP86" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="87" hidden="true">
+      <c r="A87" t="s" s="2">
+        <v>627</v>
+      </c>
+      <c r="B87" t="s" s="2">
+        <v>627</v>
+      </c>
+      <c r="C87" s="2"/>
+      <c r="D87" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="E87" s="2"/>
+      <c r="F87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G87" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I87" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="J87" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="K87" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="L87" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="M87" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="N87" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="O87" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="P87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q87" s="2"/>
+      <c r="R87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF87" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="AG87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH87" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ87" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="AK87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN87" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="AO87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP87" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="88" hidden="true">
+      <c r="A88" t="s" s="2">
         <v>628</v>
       </c>
-      <c r="AG85" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH85" t="s" s="2">
+      <c r="B88" t="s" s="2">
+        <v>628</v>
+      </c>
+      <c r="C88" s="2"/>
+      <c r="D88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E88" s="2"/>
+      <c r="F88" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="G88" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="H88" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="I88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J88" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="K88" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="L88" t="s" s="2">
+        <v>629</v>
+      </c>
+      <c r="M88" t="s" s="2">
+        <v>630</v>
+      </c>
+      <c r="N88" t="s" s="2">
+        <v>631</v>
+      </c>
+      <c r="O88" t="s" s="2">
+        <v>632</v>
+      </c>
+      <c r="P88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q88" s="2"/>
+      <c r="R88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X88" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="Y88" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="Z88" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="AA88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF88" t="s" s="2">
+        <v>628</v>
+      </c>
+      <c r="AG88" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AH88" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ88" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL88" t="s" s="2">
+        <v>633</v>
+      </c>
+      <c r="AM88" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="AN88" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="AO88" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="AP88" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="89" hidden="true">
+      <c r="A89" t="s" s="2">
+        <v>634</v>
+      </c>
+      <c r="B89" t="s" s="2">
+        <v>634</v>
+      </c>
+      <c r="C89" s="2"/>
+      <c r="D89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E89" s="2"/>
+      <c r="F89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G89" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="H89" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="I89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J89" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="K89" t="s" s="2">
+        <v>635</v>
+      </c>
+      <c r="L89" t="s" s="2">
+        <v>636</v>
+      </c>
+      <c r="M89" t="s" s="2">
+        <v>637</v>
+      </c>
+      <c r="N89" t="s" s="2">
+        <v>638</v>
+      </c>
+      <c r="O89" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="P89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q89" s="2"/>
+      <c r="R89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X89" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="Y89" t="s" s="2">
+        <v>639</v>
+      </c>
+      <c r="Z89" t="s" s="2">
+        <v>640</v>
+      </c>
+      <c r="AA89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF89" t="s" s="2">
+        <v>634</v>
+      </c>
+      <c r="AG89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH89" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI89" t="s" s="2">
+        <v>641</v>
+      </c>
+      <c r="AJ89" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL89" t="s" s="2">
+        <v>642</v>
+      </c>
+      <c r="AM89" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="AN89" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="AO89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP89" t="s" s="2">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="90" hidden="true">
+      <c r="A90" t="s" s="2">
+        <v>643</v>
+      </c>
+      <c r="B90" t="s" s="2">
+        <v>643</v>
+      </c>
+      <c r="C90" s="2"/>
+      <c r="D90" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E90" s="2"/>
+      <c r="F90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G90" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="H90" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="I90" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J90" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K90" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="L90" t="s" s="2">
+        <v>644</v>
+      </c>
+      <c r="M90" t="s" s="2">
+        <v>645</v>
+      </c>
+      <c r="N90" t="s" s="2">
+        <v>646</v>
+      </c>
+      <c r="O90" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="P90" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q90" s="2"/>
+      <c r="R90" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S90" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T90" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U90" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V90" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W90" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X90" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="Y90" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="Z90" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="AA90" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB90" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC90" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD90" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE90" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF90" t="s" s="2">
+        <v>643</v>
+      </c>
+      <c r="AG90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH90" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI90" t="s" s="2">
+        <v>647</v>
+      </c>
+      <c r="AJ90" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK90" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL90" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM90" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="AN90" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="AO90" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP90" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="91" hidden="true">
+      <c r="A91" t="s" s="2">
+        <v>648</v>
+      </c>
+      <c r="B91" t="s" s="2">
+        <v>648</v>
+      </c>
+      <c r="C91" s="2"/>
+      <c r="D91" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="E91" s="2"/>
+      <c r="F91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G91" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="AI85" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ85" t="s" s="2">
+      <c r="H91" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I91" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J91" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K91" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="L91" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="M91" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="N91" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="O91" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="P91" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q91" s="2"/>
+      <c r="R91" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S91" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T91" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U91" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V91" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W91" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X91" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="Y91" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="Z91" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="AA91" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB91" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC91" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD91" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE91" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF91" t="s" s="2">
+        <v>648</v>
+      </c>
+      <c r="AG91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH91" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI91" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ91" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AK85" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL85" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM85" t="s" s="2">
-        <v>537</v>
-      </c>
-      <c r="AN85" t="s" s="2">
-        <v>538</v>
-      </c>
-      <c r="AO85" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP85" t="s" s="2">
+      <c r="AK91" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL91" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="AM91" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="AN91" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="AO91" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP91" t="s" s="2">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="92" hidden="true">
+      <c r="A92" t="s" s="2">
+        <v>649</v>
+      </c>
+      <c r="B92" t="s" s="2">
+        <v>649</v>
+      </c>
+      <c r="C92" s="2"/>
+      <c r="D92" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E92" s="2"/>
+      <c r="F92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G92" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H92" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I92" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J92" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K92" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="L92" t="s" s="2">
+        <v>650</v>
+      </c>
+      <c r="M92" t="s" s="2">
+        <v>651</v>
+      </c>
+      <c r="N92" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="O92" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="P92" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q92" s="2"/>
+      <c r="R92" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S92" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T92" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U92" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V92" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W92" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X92" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y92" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z92" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA92" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB92" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC92" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD92" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE92" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF92" t="s" s="2">
+        <v>649</v>
+      </c>
+      <c r="AG92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH92" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI92" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ92" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK92" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL92" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM92" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="AN92" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="AO92" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP92" t="s" s="2">
         <v>82</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AP85">
+  <autoFilter ref="A1:AP92">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -12662,7 +13557,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI84">
+  <conditionalFormatting sqref="A2:AI91">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/docs/StructureDefinition-VA.MHV.bloodOxygenSat.xlsx
+++ b/docs/StructureDefinition-VA.MHV.bloodOxygenSat.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$92</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$100</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3562" uniqueCount="652">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3869" uniqueCount="662">
   <si>
     <t>Property</t>
   </si>
@@ -1088,6 +1088,9 @@
     <t>Observation.code.coding</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>value:code}
 value:system}</t>
   </si>
@@ -1144,6 +1147,36 @@
   </si>
   <si>
     <t>Observation.code.coding.userSelected</t>
+  </si>
+  <si>
+    <t>Observation.code.coding:ox1</t>
+  </si>
+  <si>
+    <t>ox1</t>
+  </si>
+  <si>
+    <t>Observation.code.coding:ox1.id</t>
+  </si>
+  <si>
+    <t>Observation.code.coding:ox1.extension</t>
+  </si>
+  <si>
+    <t>Observation.code.coding:ox1.system</t>
+  </si>
+  <si>
+    <t>Observation.code.coding:ox1.version</t>
+  </si>
+  <si>
+    <t>Observation.code.coding:ox1.code</t>
+  </si>
+  <si>
+    <t>59408-5</t>
+  </si>
+  <si>
+    <t>Observation.code.coding:ox1.display</t>
+  </si>
+  <si>
+    <t>Observation.code.coding:ox1.userSelected</t>
   </si>
   <si>
     <t>Observation.code.text</t>
@@ -1924,9 +1957,6 @@
   </si>
   <si>
     <t>Observation.hasMember</t>
-  </si>
-  <si>
-    <t>2</t>
   </si>
   <si>
     <t xml:space="preserve">Reference(https://johnmoehrke.github.io/MHV-PGHD/StructureDefinition/VA.MHV.heartRate|https://johnmoehrke.github.io/MHV-PGHD/StructureDefinition/VA.MHV.respirationRate)
@@ -2402,7 +2432,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP92"/>
+  <dimension ref="A1:AP100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -7035,7 +7065,7 @@
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>93</v>
+        <v>340</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>81</v>
@@ -7099,7 +7129,7 @@
         <v>82</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AC39" s="2"/>
       <c r="AD39" t="s" s="2">
@@ -7144,13 +7174,13 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B40" t="s" s="2">
         <v>339</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D40" t="s" s="2">
         <v>82</v>
@@ -7268,10 +7298,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7386,10 +7416,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7506,10 +7536,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7551,7 +7581,7 @@
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="S43" t="s" s="2">
         <v>82</v>
@@ -7628,10 +7658,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7748,10 +7778,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7791,7 +7821,7 @@
       </c>
       <c r="Q45" s="2"/>
       <c r="R45" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="S45" t="s" s="2">
         <v>82</v>
@@ -7868,10 +7898,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7988,10 +8018,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -8110,18 +8140,20 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="C48" s="2"/>
+        <v>339</v>
+      </c>
+      <c r="C48" t="s" s="2">
+        <v>361</v>
+      </c>
       <c r="D48" t="s" s="2">
         <v>82</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>93</v>
@@ -8136,19 +8168,19 @@
         <v>94</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>107</v>
+        <v>147</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>316</v>
+        <v>258</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>317</v>
+        <v>259</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>318</v>
+        <v>260</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>319</v>
+        <v>261</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>82</v>
@@ -8197,13 +8229,13 @@
         <v>82</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>320</v>
+        <v>262</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>82</v>
@@ -8218,10 +8250,10 @@
         <v>82</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>321</v>
+        <v>263</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>322</v>
+        <v>264</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>82</v>
@@ -8232,10 +8264,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>360</v>
+        <v>345</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8243,35 +8275,31 @@
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>93</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="I49" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>361</v>
+        <v>107</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>362</v>
+        <v>108</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="O49" t="s" s="2">
-        <v>365</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="N49" s="2"/>
+      <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>82</v>
       </c>
@@ -8319,7 +8347,7 @@
         <v>82</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>360</v>
+        <v>110</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
@@ -8331,22 +8359,22 @@
         <v>82</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>366</v>
+        <v>82</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>367</v>
+        <v>82</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>368</v>
+        <v>111</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>369</v>
+        <v>82</v>
       </c>
       <c r="AP49" t="s" s="2">
         <v>82</v>
@@ -8354,21 +8382,21 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>370</v>
+        <v>347</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>82</v>
@@ -8377,19 +8405,19 @@
         <v>82</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>371</v>
+        <v>114</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>372</v>
+        <v>115</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>373</v>
+        <v>116</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>374</v>
+        <v>117</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -8427,19 +8455,19 @@
         <v>82</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>82</v>
+        <v>118</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>82</v>
+        <v>119</v>
       </c>
       <c r="AD50" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>82</v>
+        <v>120</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>370</v>
+        <v>121</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
@@ -8451,7 +8479,7 @@
         <v>82</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>82</v>
@@ -8460,13 +8488,13 @@
         <v>82</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>333</v>
+        <v>82</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>375</v>
+        <v>111</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>369</v>
+        <v>82</v>
       </c>
       <c r="AP50" t="s" s="2">
         <v>82</v>
@@ -8474,21 +8502,21 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>376</v>
+        <v>349</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>377</v>
+        <v>82</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>82</v>
@@ -8500,26 +8528,26 @@
         <v>94</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>378</v>
+        <v>135</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>379</v>
+        <v>271</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>380</v>
+        <v>272</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>381</v>
+        <v>273</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>382</v>
+        <v>274</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q51" s="2"/>
       <c r="R51" t="s" s="2">
-        <v>82</v>
+        <v>350</v>
       </c>
       <c r="S51" t="s" s="2">
         <v>82</v>
@@ -8561,7 +8589,7 @@
         <v>82</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>376</v>
+        <v>276</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
@@ -8576,19 +8604,19 @@
         <v>105</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>383</v>
+        <v>82</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>384</v>
+        <v>277</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>385</v>
+        <v>278</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>386</v>
+        <v>82</v>
       </c>
       <c r="AP51" t="s" s="2">
         <v>82</v>
@@ -8596,24 +8624,24 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>387</v>
+        <v>365</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>387</v>
+        <v>352</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>388</v>
+        <v>82</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>93</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="I52" t="s" s="2">
         <v>82</v>
@@ -8622,20 +8650,18 @@
         <v>94</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>389</v>
+        <v>107</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>390</v>
+        <v>281</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>391</v>
+        <v>282</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="O52" t="s" s="2">
-        <v>393</v>
-      </c>
+        <v>283</v>
+      </c>
+      <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>82</v>
       </c>
@@ -8671,17 +8697,19 @@
         <v>82</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="AC52" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="AD52" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>395</v>
+        <v>82</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>387</v>
+        <v>284</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
@@ -8690,25 +8718,25 @@
         <v>93</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>396</v>
+        <v>82</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>397</v>
+        <v>105</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>398</v>
+        <v>82</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>399</v>
+        <v>285</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>400</v>
+        <v>286</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>401</v>
+        <v>82</v>
       </c>
       <c r="AP52" t="s" s="2">
         <v>82</v>
@@ -8716,16 +8744,14 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>402</v>
+        <v>366</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="C53" t="s" s="2">
-        <v>403</v>
-      </c>
+        <v>354</v>
+      </c>
+      <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>388</v>
+        <v>82</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -8735,7 +8761,7 @@
         <v>93</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="I53" t="s" s="2">
         <v>82</v>
@@ -8744,26 +8770,24 @@
         <v>94</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>389</v>
+        <v>170</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>390</v>
+        <v>289</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>392</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
-        <v>393</v>
+        <v>291</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q53" s="2"/>
       <c r="R53" t="s" s="2">
-        <v>82</v>
+        <v>367</v>
       </c>
       <c r="S53" t="s" s="2">
         <v>82</v>
@@ -8805,7 +8829,7 @@
         <v>82</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>387</v>
+        <v>293</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
@@ -8814,25 +8838,25 @@
         <v>93</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>396</v>
+        <v>82</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>397</v>
+        <v>105</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>398</v>
+        <v>82</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>399</v>
+        <v>294</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>400</v>
+        <v>295</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>401</v>
+        <v>82</v>
       </c>
       <c r="AP53" t="s" s="2">
         <v>82</v>
@@ -8840,10 +8864,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>404</v>
+        <v>368</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>404</v>
+        <v>357</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8854,7 +8878,7 @@
         <v>80</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>82</v>
@@ -8866,18 +8890,18 @@
         <v>94</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>405</v>
+        <v>298</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="O54" s="2"/>
+        <v>299</v>
+      </c>
+      <c r="N54" s="2"/>
+      <c r="O54" t="s" s="2">
+        <v>300</v>
+      </c>
       <c r="P54" t="s" s="2">
         <v>82</v>
       </c>
@@ -8925,7 +8949,7 @@
         <v>82</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>404</v>
+        <v>301</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
@@ -8946,13 +8970,13 @@
         <v>82</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>408</v>
+        <v>302</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>409</v>
+        <v>303</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>410</v>
+        <v>82</v>
       </c>
       <c r="AP54" t="s" s="2">
         <v>82</v>
@@ -8960,10 +8984,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>411</v>
+        <v>369</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>411</v>
+        <v>359</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8974,7 +8998,7 @@
         <v>80</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>82</v>
@@ -8986,17 +9010,19 @@
         <v>94</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>412</v>
+        <v>306</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>413</v>
+        <v>307</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="N55" s="2"/>
+        <v>308</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>309</v>
+      </c>
       <c r="O55" t="s" s="2">
-        <v>415</v>
+        <v>310</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>82</v>
@@ -9045,13 +9071,13 @@
         <v>82</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>411</v>
+        <v>311</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>82</v>
@@ -9060,19 +9086,19 @@
         <v>105</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>416</v>
+        <v>82</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>417</v>
+        <v>312</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>418</v>
+        <v>313</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>419</v>
+        <v>82</v>
       </c>
       <c r="AP55" t="s" s="2">
         <v>82</v>
@@ -9080,10 +9106,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>420</v>
+        <v>370</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>420</v>
+        <v>370</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -9097,7 +9123,7 @@
         <v>93</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="I56" t="s" s="2">
         <v>82</v>
@@ -9106,19 +9132,19 @@
         <v>94</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>421</v>
+        <v>107</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>422</v>
+        <v>316</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>422</v>
+        <v>317</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>423</v>
+        <v>318</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>424</v>
+        <v>319</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>82</v>
@@ -9155,17 +9181,19 @@
         <v>82</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="AC56" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="AD56" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>395</v>
+        <v>82</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>420</v>
+        <v>320</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
@@ -9174,7 +9202,7 @@
         <v>93</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>425</v>
+        <v>82</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>105</v>
@@ -9183,37 +9211,35 @@
         <v>82</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>426</v>
+        <v>82</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>427</v>
+        <v>321</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>428</v>
+        <v>322</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP56" t="s" s="2">
-        <v>429</v>
+        <v>82</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>430</v>
+        <v>371</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="C57" t="s" s="2">
-        <v>431</v>
-      </c>
+        <v>371</v>
+      </c>
+      <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
         <v>82</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>93</v>
@@ -9228,19 +9254,19 @@
         <v>94</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>421</v>
+        <v>372</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>422</v>
+        <v>373</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>422</v>
+        <v>374</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>423</v>
+        <v>375</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>424</v>
+        <v>376</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>82</v>
@@ -9289,7 +9315,7 @@
         <v>82</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>420</v>
+        <v>371</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
@@ -9298,36 +9324,36 @@
         <v>93</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>425</v>
+        <v>82</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>105</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>82</v>
+        <v>377</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>426</v>
+        <v>82</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>427</v>
+        <v>378</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>428</v>
+        <v>379</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>82</v>
+        <v>380</v>
       </c>
       <c r="AP57" t="s" s="2">
-        <v>429</v>
+        <v>82</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>432</v>
+        <v>381</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>433</v>
+        <v>381</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9338,7 +9364,7 @@
         <v>80</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>82</v>
@@ -9347,18 +9373,20 @@
         <v>82</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>107</v>
+        <v>382</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>108</v>
+        <v>383</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="N58" s="2"/>
+        <v>384</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>385</v>
+      </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>82</v>
@@ -9407,19 +9435,19 @@
         <v>82</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>110</v>
+        <v>381</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>82</v>
@@ -9428,13 +9456,13 @@
         <v>82</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>82</v>
+        <v>333</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>111</v>
+        <v>386</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>82</v>
+        <v>380</v>
       </c>
       <c r="AP58" t="s" s="2">
         <v>82</v>
@@ -9442,21 +9470,21 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>434</v>
+        <v>387</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>435</v>
+        <v>387</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>113</v>
+        <v>388</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>82</v>
@@ -9465,21 +9493,23 @@
         <v>82</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>114</v>
+        <v>389</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>115</v>
+        <v>390</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>116</v>
+        <v>391</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="O59" s="2"/>
+        <v>392</v>
+      </c>
+      <c r="O59" t="s" s="2">
+        <v>393</v>
+      </c>
       <c r="P59" t="s" s="2">
         <v>82</v>
       </c>
@@ -9515,46 +9545,46 @@
         <v>82</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>118</v>
+        <v>82</v>
       </c>
       <c r="AC59" t="s" s="2">
-        <v>119</v>
+        <v>82</v>
       </c>
       <c r="AD59" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>120</v>
+        <v>82</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>121</v>
+        <v>387</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>82</v>
+        <v>394</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>82</v>
+        <v>395</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>111</v>
+        <v>396</v>
       </c>
       <c r="AO59" t="s" s="2">
-        <v>82</v>
+        <v>397</v>
       </c>
       <c r="AP59" t="s" s="2">
         <v>82</v>
@@ -9562,14 +9592,14 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>436</v>
+        <v>398</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>437</v>
+        <v>398</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>82</v>
+        <v>399</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
@@ -9588,19 +9618,19 @@
         <v>94</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>438</v>
+        <v>400</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>439</v>
+        <v>401</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>440</v>
+        <v>402</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>441</v>
+        <v>403</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>442</v>
+        <v>404</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>82</v>
@@ -9616,10 +9646,10 @@
         <v>82</v>
       </c>
       <c r="U60" t="s" s="2">
-        <v>443</v>
+        <v>82</v>
       </c>
       <c r="V60" t="s" s="2">
-        <v>444</v>
+        <v>82</v>
       </c>
       <c r="W60" t="s" s="2">
         <v>82</v>
@@ -9637,19 +9667,17 @@
         <v>82</v>
       </c>
       <c r="AB60" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC60" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>405</v>
+      </c>
+      <c r="AC60" s="2"/>
       <c r="AD60" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>82</v>
+        <v>406</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>445</v>
+        <v>398</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>80</v>
@@ -9658,25 +9686,25 @@
         <v>93</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>82</v>
+        <v>407</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>105</v>
+        <v>408</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>82</v>
+        <v>409</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>446</v>
+        <v>410</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>447</v>
+        <v>411</v>
       </c>
       <c r="AO60" t="s" s="2">
-        <v>82</v>
+        <v>412</v>
       </c>
       <c r="AP60" t="s" s="2">
         <v>82</v>
@@ -9684,50 +9712,52 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>448</v>
+        <v>413</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="C61" s="2"/>
+        <v>398</v>
+      </c>
+      <c r="C61" t="s" s="2">
+        <v>414</v>
+      </c>
       <c r="D61" t="s" s="2">
-        <v>82</v>
+        <v>399</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>93</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="J61" t="s" s="2">
         <v>94</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>170</v>
+        <v>400</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>450</v>
+        <v>401</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="N61" s="2"/>
+        <v>402</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>403</v>
+      </c>
       <c r="O61" t="s" s="2">
-        <v>452</v>
+        <v>404</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="Q61" t="s" s="2">
-        <v>453</v>
-      </c>
+      <c r="Q61" s="2"/>
       <c r="R61" t="s" s="2">
         <v>82</v>
       </c>
@@ -9747,13 +9777,13 @@
         <v>82</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>232</v>
+        <v>82</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>454</v>
+        <v>82</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>455</v>
+        <v>82</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>82</v>
@@ -9771,7 +9801,7 @@
         <v>82</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>456</v>
+        <v>398</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
@@ -9780,25 +9810,25 @@
         <v>93</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>82</v>
+        <v>407</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>105</v>
+        <v>408</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>82</v>
+        <v>409</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>457</v>
+        <v>410</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>458</v>
+        <v>411</v>
       </c>
       <c r="AO61" t="s" s="2">
-        <v>82</v>
+        <v>412</v>
       </c>
       <c r="AP61" t="s" s="2">
         <v>82</v>
@@ -9806,10 +9836,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>459</v>
+        <v>415</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>460</v>
+        <v>415</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9817,13 +9847,13 @@
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="H62" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="I62" t="s" s="2">
         <v>82</v>
@@ -9832,18 +9862,18 @@
         <v>94</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>107</v>
+        <v>129</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>461</v>
+        <v>416</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="N62" s="2"/>
-      <c r="O62" t="s" s="2">
-        <v>463</v>
-      </c>
+        <v>417</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>82</v>
       </c>
@@ -9891,7 +9921,7 @@
         <v>82</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>464</v>
+        <v>415</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
@@ -9912,13 +9942,13 @@
         <v>82</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>465</v>
+        <v>419</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>466</v>
+        <v>420</v>
       </c>
       <c r="AO62" t="s" s="2">
-        <v>82</v>
+        <v>421</v>
       </c>
       <c r="AP62" t="s" s="2">
         <v>82</v>
@@ -9926,10 +9956,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>467</v>
+        <v>422</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>468</v>
+        <v>422</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9937,13 +9967,13 @@
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="I63" t="s" s="2">
         <v>82</v>
@@ -9952,24 +9982,24 @@
         <v>94</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>135</v>
+        <v>423</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>469</v>
+        <v>424</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>470</v>
+        <v>425</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
-        <v>471</v>
+        <v>426</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q63" s="2"/>
       <c r="R63" t="s" s="2">
-        <v>472</v>
+        <v>82</v>
       </c>
       <c r="S63" t="s" s="2">
         <v>82</v>
@@ -10011,34 +10041,34 @@
         <v>82</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>473</v>
+        <v>422</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>474</v>
+        <v>82</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>105</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>82</v>
+        <v>427</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>465</v>
+        <v>428</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>475</v>
+        <v>429</v>
       </c>
       <c r="AO63" t="s" s="2">
-        <v>82</v>
+        <v>430</v>
       </c>
       <c r="AP63" t="s" s="2">
         <v>82</v>
@@ -10046,10 +10076,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>476</v>
+        <v>431</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>477</v>
+        <v>431</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -10057,7 +10087,7 @@
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>93</v>
@@ -10072,26 +10102,26 @@
         <v>94</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>170</v>
+        <v>432</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>478</v>
+        <v>433</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>478</v>
+        <v>433</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>479</v>
+        <v>434</v>
       </c>
       <c r="O64" t="s" s="2">
-        <v>480</v>
+        <v>435</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q64" s="2"/>
       <c r="R64" t="s" s="2">
-        <v>481</v>
+        <v>82</v>
       </c>
       <c r="S64" t="s" s="2">
         <v>82</v>
@@ -10121,19 +10151,17 @@
         <v>82</v>
       </c>
       <c r="AB64" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC64" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>405</v>
+      </c>
+      <c r="AC64" s="2"/>
       <c r="AD64" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>82</v>
+        <v>406</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>482</v>
+        <v>431</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>80</v>
@@ -10142,7 +10170,7 @@
         <v>93</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>82</v>
+        <v>436</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>105</v>
@@ -10151,29 +10179,31 @@
         <v>82</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>82</v>
+        <v>437</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>465</v>
+        <v>438</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>483</v>
+        <v>439</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP64" t="s" s="2">
-        <v>82</v>
+        <v>440</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>484</v>
+        <v>441</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="C65" s="2"/>
+        <v>431</v>
+      </c>
+      <c r="C65" t="s" s="2">
+        <v>442</v>
+      </c>
       <c r="D65" t="s" s="2">
         <v>82</v>
       </c>
@@ -10182,7 +10212,7 @@
         <v>80</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>94</v>
@@ -10191,22 +10221,22 @@
         <v>82</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>240</v>
+        <v>432</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>485</v>
+        <v>433</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>486</v>
+        <v>433</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>487</v>
+        <v>434</v>
       </c>
       <c r="O65" t="s" s="2">
-        <v>488</v>
+        <v>435</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>82</v>
@@ -10231,13 +10261,13 @@
         <v>82</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>151</v>
+        <v>82</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>489</v>
+        <v>82</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>490</v>
+        <v>82</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>82</v>
@@ -10255,7 +10285,7 @@
         <v>82</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>484</v>
+        <v>431</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>80</v>
@@ -10264,7 +10294,7 @@
         <v>93</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>491</v>
+        <v>436</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>105</v>
@@ -10273,38 +10303,38 @@
         <v>82</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>82</v>
+        <v>437</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>193</v>
+        <v>438</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>492</v>
+        <v>439</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP65" t="s" s="2">
-        <v>82</v>
+        <v>440</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>493</v>
+        <v>443</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>493</v>
+        <v>444</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>494</v>
+        <v>82</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>82</v>
@@ -10316,20 +10346,16 @@
         <v>82</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>240</v>
+        <v>107</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>495</v>
+        <v>108</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="O66" t="s" s="2">
-        <v>498</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="N66" s="2"/>
+      <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>82</v>
       </c>
@@ -10353,13 +10379,13 @@
         <v>82</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>151</v>
+        <v>82</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>499</v>
+        <v>82</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>500</v>
+        <v>82</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>82</v>
@@ -10377,56 +10403,56 @@
         <v>82</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>493</v>
+        <v>110</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>501</v>
+        <v>82</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>502</v>
+        <v>82</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>503</v>
+        <v>111</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP66" t="s" s="2">
-        <v>504</v>
+        <v>82</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>505</v>
+        <v>445</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>505</v>
+        <v>446</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>82</v>
@@ -10438,20 +10464,18 @@
         <v>82</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>506</v>
+        <v>114</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>507</v>
+        <v>115</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>508</v>
+        <v>116</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="O67" t="s" s="2">
-        <v>510</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
         <v>82</v>
       </c>
@@ -10487,19 +10511,19 @@
         <v>82</v>
       </c>
       <c r="AB67" t="s" s="2">
-        <v>82</v>
+        <v>118</v>
       </c>
       <c r="AC67" t="s" s="2">
-        <v>82</v>
+        <v>119</v>
       </c>
       <c r="AD67" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>82</v>
+        <v>120</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>505</v>
+        <v>121</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>80</v>
@@ -10511,7 +10535,7 @@
         <v>82</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>82</v>
@@ -10520,10 +10544,10 @@
         <v>82</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>511</v>
+        <v>82</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>512</v>
+        <v>111</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>82</v>
@@ -10534,10 +10558,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>513</v>
+        <v>447</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>513</v>
+        <v>448</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10545,33 +10569,35 @@
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="H68" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="I68" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>240</v>
+        <v>449</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>514</v>
+        <v>450</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>515</v>
+        <v>451</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="O68" s="2"/>
+        <v>452</v>
+      </c>
+      <c r="O68" t="s" s="2">
+        <v>453</v>
+      </c>
       <c r="P68" t="s" s="2">
         <v>82</v>
       </c>
@@ -10586,22 +10612,22 @@
         <v>82</v>
       </c>
       <c r="U68" t="s" s="2">
-        <v>82</v>
+        <v>454</v>
       </c>
       <c r="V68" t="s" s="2">
-        <v>82</v>
+        <v>455</v>
       </c>
       <c r="W68" t="s" s="2">
         <v>82</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>160</v>
+        <v>82</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>517</v>
+        <v>82</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>518</v>
+        <v>82</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>82</v>
@@ -10619,7 +10645,7 @@
         <v>82</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>513</v>
+        <v>456</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>80</v>
@@ -10637,27 +10663,27 @@
         <v>82</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>519</v>
+        <v>82</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>520</v>
+        <v>457</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>521</v>
+        <v>458</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP68" t="s" s="2">
-        <v>522</v>
+        <v>82</v>
       </c>
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>523</v>
+        <v>459</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>523</v>
+        <v>460</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10668,36 +10694,36 @@
         <v>80</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>240</v>
+        <v>170</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>524</v>
+        <v>461</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>526</v>
-      </c>
+        <v>462</v>
+      </c>
+      <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
-        <v>527</v>
+        <v>463</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="Q69" s="2"/>
+      <c r="Q69" t="s" s="2">
+        <v>464</v>
+      </c>
       <c r="R69" t="s" s="2">
         <v>82</v>
       </c>
@@ -10717,13 +10743,13 @@
         <v>82</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>160</v>
+        <v>232</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>528</v>
+        <v>465</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>529</v>
+        <v>466</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>82</v>
@@ -10741,7 +10767,7 @@
         <v>82</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>523</v>
+        <v>467</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>80</v>
@@ -10762,10 +10788,10 @@
         <v>82</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>530</v>
+        <v>468</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>531</v>
+        <v>469</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>82</v>
@@ -10776,10 +10802,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>532</v>
+        <v>470</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>532</v>
+        <v>471</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10787,33 +10813,33 @@
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="H70" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="I70" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>533</v>
+        <v>107</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>534</v>
+        <v>472</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>535</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>536</v>
-      </c>
-      <c r="O70" s="2"/>
+        <v>473</v>
+      </c>
+      <c r="N70" s="2"/>
+      <c r="O70" t="s" s="2">
+        <v>474</v>
+      </c>
       <c r="P70" t="s" s="2">
         <v>82</v>
       </c>
@@ -10861,7 +10887,7 @@
         <v>82</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>532</v>
+        <v>475</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>80</v>
@@ -10879,27 +10905,27 @@
         <v>82</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>537</v>
+        <v>82</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>538</v>
+        <v>476</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>539</v>
+        <v>477</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP70" t="s" s="2">
-        <v>540</v>
+        <v>82</v>
       </c>
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>541</v>
+        <v>478</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>541</v>
+        <v>479</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10907,39 +10933,39 @@
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="H71" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="I71" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>542</v>
+        <v>135</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>543</v>
+        <v>480</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>544</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>545</v>
-      </c>
-      <c r="O71" s="2"/>
+        <v>481</v>
+      </c>
+      <c r="N71" s="2"/>
+      <c r="O71" t="s" s="2">
+        <v>482</v>
+      </c>
       <c r="P71" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q71" s="2"/>
       <c r="R71" t="s" s="2">
-        <v>82</v>
+        <v>483</v>
       </c>
       <c r="S71" t="s" s="2">
         <v>82</v>
@@ -10981,7 +11007,7 @@
         <v>82</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>541</v>
+        <v>484</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>80</v>
@@ -10990,7 +11016,7 @@
         <v>93</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>82</v>
+        <v>485</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>105</v>
@@ -10999,27 +11025,27 @@
         <v>82</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>546</v>
+        <v>82</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>547</v>
+        <v>476</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>548</v>
+        <v>486</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP71" t="s" s="2">
-        <v>549</v>
+        <v>82</v>
       </c>
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>550</v>
+        <v>487</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>550</v>
+        <v>488</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -11027,41 +11053,41 @@
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="H72" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="I72" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>551</v>
+        <v>170</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>552</v>
+        <v>489</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>553</v>
+        <v>489</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>554</v>
+        <v>490</v>
       </c>
       <c r="O72" t="s" s="2">
-        <v>555</v>
+        <v>491</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q72" s="2"/>
       <c r="R72" t="s" s="2">
-        <v>82</v>
+        <v>492</v>
       </c>
       <c r="S72" t="s" s="2">
         <v>82</v>
@@ -11103,19 +11129,19 @@
         <v>82</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>550</v>
+        <v>493</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>556</v>
+        <v>105</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>82</v>
@@ -11124,10 +11150,10 @@
         <v>82</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>557</v>
+        <v>476</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>558</v>
+        <v>494</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>82</v>
@@ -11138,10 +11164,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>559</v>
+        <v>495</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>559</v>
+        <v>495</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11152,10 +11178,10 @@
         <v>80</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="H73" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="I73" t="s" s="2">
         <v>82</v>
@@ -11164,16 +11190,20 @@
         <v>82</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>107</v>
+        <v>240</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>108</v>
+        <v>496</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="N73" s="2"/>
-      <c r="O73" s="2"/>
+        <v>497</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="O73" t="s" s="2">
+        <v>499</v>
+      </c>
       <c r="P73" t="s" s="2">
         <v>82</v>
       </c>
@@ -11197,13 +11227,13 @@
         <v>82</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>82</v>
+        <v>151</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>82</v>
+        <v>500</v>
       </c>
       <c r="Z73" t="s" s="2">
-        <v>82</v>
+        <v>501</v>
       </c>
       <c r="AA73" t="s" s="2">
         <v>82</v>
@@ -11221,7 +11251,7 @@
         <v>82</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>110</v>
+        <v>495</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>80</v>
@@ -11230,10 +11260,10 @@
         <v>93</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>82</v>
+        <v>502</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>82</v>
@@ -11242,10 +11272,10 @@
         <v>82</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>82</v>
+        <v>193</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>111</v>
+        <v>503</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>82</v>
@@ -11256,21 +11286,21 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>560</v>
+        <v>504</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>560</v>
+        <v>504</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>113</v>
+        <v>505</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>82</v>
@@ -11282,18 +11312,20 @@
         <v>82</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>114</v>
+        <v>240</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>115</v>
+        <v>506</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>116</v>
+        <v>507</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="O74" s="2"/>
+        <v>508</v>
+      </c>
+      <c r="O74" t="s" s="2">
+        <v>509</v>
+      </c>
       <c r="P74" t="s" s="2">
         <v>82</v>
       </c>
@@ -11317,13 +11349,13 @@
         <v>82</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>82</v>
+        <v>151</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>82</v>
+        <v>510</v>
       </c>
       <c r="Z74" t="s" s="2">
-        <v>82</v>
+        <v>511</v>
       </c>
       <c r="AA74" t="s" s="2">
         <v>82</v>
@@ -11341,7 +11373,7 @@
         <v>82</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>121</v>
+        <v>504</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>80</v>
@@ -11353,68 +11385,68 @@
         <v>82</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>82</v>
+        <v>512</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>82</v>
+        <v>513</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>111</v>
+        <v>514</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP74" t="s" s="2">
-        <v>82</v>
+        <v>515</v>
       </c>
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>561</v>
+        <v>516</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>561</v>
+        <v>516</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>562</v>
+        <v>82</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>114</v>
+        <v>517</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>563</v>
+        <v>518</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>564</v>
+        <v>519</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>117</v>
+        <v>520</v>
       </c>
       <c r="O75" t="s" s="2">
-        <v>565</v>
+        <v>521</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>82</v>
@@ -11463,7 +11495,7 @@
         <v>82</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>566</v>
+        <v>516</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>80</v>
@@ -11475,7 +11507,7 @@
         <v>82</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>82</v>
@@ -11484,10 +11516,10 @@
         <v>82</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>82</v>
+        <v>522</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>193</v>
+        <v>523</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>82</v>
@@ -11498,10 +11530,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>567</v>
+        <v>524</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>567</v>
+        <v>524</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11512,7 +11544,7 @@
         <v>80</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>82</v>
@@ -11524,15 +11556,17 @@
         <v>82</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>568</v>
+        <v>240</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>569</v>
+        <v>525</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>570</v>
-      </c>
-      <c r="N76" s="2"/>
+        <v>526</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>527</v>
+      </c>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
         <v>82</v>
@@ -11557,13 +11591,13 @@
         <v>82</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>82</v>
+        <v>160</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>82</v>
+        <v>528</v>
       </c>
       <c r="Z76" t="s" s="2">
-        <v>82</v>
+        <v>529</v>
       </c>
       <c r="AA76" t="s" s="2">
         <v>82</v>
@@ -11581,7 +11615,7 @@
         <v>82</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>567</v>
+        <v>524</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>80</v>
@@ -11590,7 +11624,7 @@
         <v>93</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>571</v>
+        <v>82</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>105</v>
@@ -11599,27 +11633,27 @@
         <v>82</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>82</v>
+        <v>530</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>572</v>
+        <v>531</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>573</v>
+        <v>532</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP76" t="s" s="2">
-        <v>82</v>
+        <v>533</v>
       </c>
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>574</v>
+        <v>534</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>574</v>
+        <v>534</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11630,7 +11664,7 @@
         <v>80</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>82</v>
@@ -11642,16 +11676,20 @@
         <v>82</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>568</v>
+        <v>240</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>575</v>
+        <v>535</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>576</v>
-      </c>
-      <c r="N77" s="2"/>
-      <c r="O77" s="2"/>
+        <v>536</v>
+      </c>
+      <c r="N77" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="O77" t="s" s="2">
+        <v>538</v>
+      </c>
       <c r="P77" t="s" s="2">
         <v>82</v>
       </c>
@@ -11675,13 +11713,13 @@
         <v>82</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>82</v>
+        <v>160</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>82</v>
+        <v>539</v>
       </c>
       <c r="Z77" t="s" s="2">
-        <v>82</v>
+        <v>540</v>
       </c>
       <c r="AA77" t="s" s="2">
         <v>82</v>
@@ -11699,7 +11737,7 @@
         <v>82</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>574</v>
+        <v>534</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>80</v>
@@ -11708,7 +11746,7 @@
         <v>93</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>571</v>
+        <v>82</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>105</v>
@@ -11720,10 +11758,10 @@
         <v>82</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>572</v>
+        <v>541</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>577</v>
+        <v>542</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>82</v>
@@ -11734,10 +11772,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>578</v>
+        <v>543</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>578</v>
+        <v>543</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11748,7 +11786,7 @@
         <v>80</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>82</v>
@@ -11760,20 +11798,18 @@
         <v>82</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>240</v>
+        <v>544</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>579</v>
+        <v>545</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>580</v>
+        <v>546</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>581</v>
-      </c>
-      <c r="O78" t="s" s="2">
-        <v>582</v>
-      </c>
+        <v>547</v>
+      </c>
+      <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
         <v>82</v>
       </c>
@@ -11797,13 +11833,13 @@
         <v>82</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>174</v>
+        <v>82</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>583</v>
+        <v>82</v>
       </c>
       <c r="Z78" t="s" s="2">
-        <v>584</v>
+        <v>82</v>
       </c>
       <c r="AA78" t="s" s="2">
         <v>82</v>
@@ -11821,7 +11857,7 @@
         <v>82</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>578</v>
+        <v>543</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>80</v>
@@ -11839,27 +11875,27 @@
         <v>82</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>585</v>
+        <v>548</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>586</v>
+        <v>549</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>503</v>
+        <v>550</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP78" t="s" s="2">
-        <v>82</v>
+        <v>551</v>
       </c>
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>587</v>
+        <v>552</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>587</v>
+        <v>552</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11870,7 +11906,7 @@
         <v>80</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>82</v>
@@ -11882,20 +11918,18 @@
         <v>82</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>240</v>
+        <v>553</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>588</v>
+        <v>554</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>589</v>
+        <v>555</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>590</v>
-      </c>
-      <c r="O79" t="s" s="2">
-        <v>591</v>
-      </c>
+        <v>556</v>
+      </c>
+      <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
         <v>82</v>
       </c>
@@ -11919,13 +11953,13 @@
         <v>82</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>160</v>
+        <v>82</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>592</v>
+        <v>82</v>
       </c>
       <c r="Z79" t="s" s="2">
-        <v>593</v>
+        <v>82</v>
       </c>
       <c r="AA79" t="s" s="2">
         <v>82</v>
@@ -11943,13 +11977,13 @@
         <v>82</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>587</v>
+        <v>552</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>82</v>
@@ -11961,27 +11995,27 @@
         <v>82</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>585</v>
+        <v>557</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>586</v>
+        <v>558</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>503</v>
+        <v>559</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP79" t="s" s="2">
-        <v>82</v>
+        <v>560</v>
       </c>
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>594</v>
+        <v>561</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>594</v>
+        <v>561</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11992,7 +12026,7 @@
         <v>80</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>82</v>
@@ -12004,17 +12038,19 @@
         <v>82</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>595</v>
+        <v>562</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>596</v>
+        <v>563</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>597</v>
-      </c>
-      <c r="N80" s="2"/>
+        <v>564</v>
+      </c>
+      <c r="N80" t="s" s="2">
+        <v>565</v>
+      </c>
       <c r="O80" t="s" s="2">
-        <v>598</v>
+        <v>566</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>82</v>
@@ -12063,19 +12099,19 @@
         <v>82</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>594</v>
+        <v>561</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>105</v>
+        <v>567</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>82</v>
@@ -12084,10 +12120,10 @@
         <v>82</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>82</v>
+        <v>568</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>599</v>
+        <v>569</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>82</v>
@@ -12098,10 +12134,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>600</v>
+        <v>570</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>600</v>
+        <v>570</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -12127,10 +12163,10 @@
         <v>107</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>601</v>
+        <v>108</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>602</v>
+        <v>109</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
@@ -12181,7 +12217,7 @@
         <v>82</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>600</v>
+        <v>110</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>80</v>
@@ -12193,7 +12229,7 @@
         <v>82</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>82</v>
@@ -12202,10 +12238,10 @@
         <v>82</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>572</v>
+        <v>82</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>603</v>
+        <v>111</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>82</v>
@@ -12216,42 +12252,42 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>604</v>
+        <v>571</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>604</v>
+        <v>571</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>605</v>
+        <v>81</v>
       </c>
       <c r="H82" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="I82" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>606</v>
+        <v>114</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>607</v>
+        <v>115</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>608</v>
+        <v>116</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>609</v>
+        <v>117</v>
       </c>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
@@ -12301,7 +12337,7 @@
         <v>82</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>604</v>
+        <v>121</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>80</v>
@@ -12313,7 +12349,7 @@
         <v>82</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>82</v>
@@ -12322,10 +12358,10 @@
         <v>82</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>610</v>
+        <v>82</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>611</v>
+        <v>111</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>82</v>
@@ -12336,44 +12372,46 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>612</v>
+        <v>572</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>612</v>
+        <v>572</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
-        <v>82</v>
+        <v>573</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I83" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="J83" t="s" s="2">
         <v>94</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>613</v>
+        <v>114</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>614</v>
+        <v>574</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>615</v>
+        <v>575</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>616</v>
-      </c>
-      <c r="O83" s="2"/>
+        <v>117</v>
+      </c>
+      <c r="O83" t="s" s="2">
+        <v>576</v>
+      </c>
       <c r="P83" t="s" s="2">
         <v>82</v>
       </c>
@@ -12421,7 +12459,7 @@
         <v>82</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>612</v>
+        <v>577</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>80</v>
@@ -12433,7 +12471,7 @@
         <v>82</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>82</v>
@@ -12442,10 +12480,10 @@
         <v>82</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>610</v>
+        <v>82</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>617</v>
+        <v>193</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>82</v>
@@ -12456,10 +12494,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>618</v>
+        <v>578</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>618</v>
+        <v>578</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12470,32 +12508,28 @@
         <v>80</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="H84" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="I84" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>551</v>
+        <v>579</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>619</v>
+        <v>580</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>619</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>620</v>
-      </c>
-      <c r="O84" t="s" s="2">
-        <v>621</v>
-      </c>
+        <v>581</v>
+      </c>
+      <c r="N84" s="2"/>
+      <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
         <v>82</v>
       </c>
@@ -12543,19 +12577,19 @@
         <v>82</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>618</v>
+        <v>578</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>82</v>
+        <v>582</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>622</v>
+        <v>105</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>82</v>
@@ -12564,10 +12598,10 @@
         <v>82</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>623</v>
+        <v>583</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>624</v>
+        <v>584</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>82</v>
@@ -12578,10 +12612,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>625</v>
+        <v>585</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>625</v>
+        <v>585</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12604,13 +12638,13 @@
         <v>82</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>107</v>
+        <v>579</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>108</v>
+        <v>586</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>109</v>
+        <v>587</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" s="2"/>
@@ -12661,7 +12695,7 @@
         <v>82</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>110</v>
+        <v>585</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>80</v>
@@ -12670,10 +12704,10 @@
         <v>93</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>82</v>
+        <v>582</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>82</v>
@@ -12682,10 +12716,10 @@
         <v>82</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>82</v>
+        <v>583</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>111</v>
+        <v>588</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>82</v>
@@ -12696,21 +12730,21 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>626</v>
+        <v>589</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>626</v>
+        <v>589</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
-        <v>113</v>
+        <v>82</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>82</v>
@@ -12722,18 +12756,20 @@
         <v>82</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>114</v>
+        <v>240</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>115</v>
+        <v>590</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>116</v>
+        <v>591</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="O86" s="2"/>
+        <v>592</v>
+      </c>
+      <c r="O86" t="s" s="2">
+        <v>593</v>
+      </c>
       <c r="P86" t="s" s="2">
         <v>82</v>
       </c>
@@ -12757,13 +12793,13 @@
         <v>82</v>
       </c>
       <c r="X86" t="s" s="2">
-        <v>82</v>
+        <v>174</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>82</v>
+        <v>594</v>
       </c>
       <c r="Z86" t="s" s="2">
-        <v>82</v>
+        <v>595</v>
       </c>
       <c r="AA86" t="s" s="2">
         <v>82</v>
@@ -12781,31 +12817,31 @@
         <v>82</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>121</v>
+        <v>589</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI86" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>82</v>
+        <v>596</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>82</v>
+        <v>597</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>111</v>
+        <v>514</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>82</v>
@@ -12816,14 +12852,14 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>627</v>
+        <v>598</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>627</v>
+        <v>598</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
-        <v>562</v>
+        <v>82</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
@@ -12836,25 +12872,25 @@
         <v>82</v>
       </c>
       <c r="I87" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>114</v>
+        <v>240</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>563</v>
+        <v>599</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>564</v>
+        <v>600</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>117</v>
+        <v>601</v>
       </c>
       <c r="O87" t="s" s="2">
-        <v>565</v>
+        <v>602</v>
       </c>
       <c r="P87" t="s" s="2">
         <v>82</v>
@@ -12879,13 +12915,13 @@
         <v>82</v>
       </c>
       <c r="X87" t="s" s="2">
-        <v>82</v>
+        <v>160</v>
       </c>
       <c r="Y87" t="s" s="2">
-        <v>82</v>
+        <v>603</v>
       </c>
       <c r="Z87" t="s" s="2">
-        <v>82</v>
+        <v>604</v>
       </c>
       <c r="AA87" t="s" s="2">
         <v>82</v>
@@ -12903,7 +12939,7 @@
         <v>82</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>566</v>
+        <v>598</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>80</v>
@@ -12915,19 +12951,19 @@
         <v>82</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>82</v>
+        <v>596</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>82</v>
+        <v>597</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>193</v>
+        <v>514</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>82</v>
@@ -12938,10 +12974,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>628</v>
+        <v>605</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>628</v>
+        <v>605</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12949,34 +12985,32 @@
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="G88" t="s" s="2">
         <v>93</v>
       </c>
       <c r="H88" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="I88" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>240</v>
+        <v>606</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>629</v>
+        <v>607</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>630</v>
-      </c>
-      <c r="N88" t="s" s="2">
-        <v>631</v>
-      </c>
+        <v>608</v>
+      </c>
+      <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
-        <v>632</v>
+        <v>609</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>82</v>
@@ -13001,13 +13035,13 @@
         <v>82</v>
       </c>
       <c r="X88" t="s" s="2">
-        <v>151</v>
+        <v>82</v>
       </c>
       <c r="Y88" t="s" s="2">
-        <v>329</v>
+        <v>82</v>
       </c>
       <c r="Z88" t="s" s="2">
-        <v>330</v>
+        <v>82</v>
       </c>
       <c r="AA88" t="s" s="2">
         <v>82</v>
@@ -13025,10 +13059,10 @@
         <v>82</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>628</v>
+        <v>605</v>
       </c>
       <c r="AG88" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="AH88" t="s" s="2">
         <v>93</v>
@@ -13043,16 +13077,16 @@
         <v>82</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>633</v>
+        <v>82</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>333</v>
+        <v>82</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>334</v>
+        <v>610</v>
       </c>
       <c r="AO88" t="s" s="2">
-        <v>335</v>
+        <v>82</v>
       </c>
       <c r="AP88" t="s" s="2">
         <v>82</v>
@@ -13060,10 +13094,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>634</v>
+        <v>611</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>634</v>
+        <v>611</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -13077,29 +13111,25 @@
         <v>93</v>
       </c>
       <c r="H89" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="I89" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>635</v>
+        <v>107</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>636</v>
+        <v>612</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>637</v>
-      </c>
-      <c r="N89" t="s" s="2">
-        <v>638</v>
-      </c>
-      <c r="O89" t="s" s="2">
-        <v>424</v>
-      </c>
+        <v>613</v>
+      </c>
+      <c r="N89" s="2"/>
+      <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
         <v>82</v>
       </c>
@@ -13123,13 +13153,13 @@
         <v>82</v>
       </c>
       <c r="X89" t="s" s="2">
-        <v>232</v>
+        <v>82</v>
       </c>
       <c r="Y89" t="s" s="2">
-        <v>639</v>
+        <v>82</v>
       </c>
       <c r="Z89" t="s" s="2">
-        <v>640</v>
+        <v>82</v>
       </c>
       <c r="AA89" t="s" s="2">
         <v>82</v>
@@ -13147,7 +13177,7 @@
         <v>82</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>634</v>
+        <v>611</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>80</v>
@@ -13156,7 +13186,7 @@
         <v>93</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>641</v>
+        <v>82</v>
       </c>
       <c r="AJ89" t="s" s="2">
         <v>105</v>
@@ -13165,27 +13195,27 @@
         <v>82</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>642</v>
+        <v>82</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>427</v>
+        <v>583</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>428</v>
+        <v>614</v>
       </c>
       <c r="AO89" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP89" t="s" s="2">
-        <v>429</v>
+        <v>82</v>
       </c>
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>643</v>
+        <v>615</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>643</v>
+        <v>615</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -13196,7 +13226,7 @@
         <v>80</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>93</v>
+        <v>340</v>
       </c>
       <c r="H90" t="s" s="2">
         <v>94</v>
@@ -13205,23 +13235,21 @@
         <v>82</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>240</v>
+        <v>616</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>644</v>
+        <v>617</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>645</v>
+        <v>618</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>646</v>
-      </c>
-      <c r="O90" t="s" s="2">
-        <v>488</v>
-      </c>
+        <v>619</v>
+      </c>
+      <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
         <v>82</v>
       </c>
@@ -13245,13 +13273,13 @@
         <v>82</v>
       </c>
       <c r="X90" t="s" s="2">
-        <v>151</v>
+        <v>82</v>
       </c>
       <c r="Y90" t="s" s="2">
-        <v>489</v>
+        <v>82</v>
       </c>
       <c r="Z90" t="s" s="2">
-        <v>490</v>
+        <v>82</v>
       </c>
       <c r="AA90" t="s" s="2">
         <v>82</v>
@@ -13269,16 +13297,16 @@
         <v>82</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>643</v>
+        <v>615</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH90" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>647</v>
+        <v>82</v>
       </c>
       <c r="AJ90" t="s" s="2">
         <v>105</v>
@@ -13290,10 +13318,10 @@
         <v>82</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>193</v>
+        <v>620</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>492</v>
+        <v>621</v>
       </c>
       <c r="AO90" t="s" s="2">
         <v>82</v>
@@ -13304,21 +13332,21 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>648</v>
+        <v>622</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>648</v>
+        <v>622</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
-        <v>494</v>
+        <v>82</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G91" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H91" t="s" s="2">
         <v>82</v>
@@ -13327,23 +13355,21 @@
         <v>82</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>240</v>
+        <v>623</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>495</v>
+        <v>624</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>496</v>
+        <v>625</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="O91" t="s" s="2">
-        <v>498</v>
-      </c>
+        <v>626</v>
+      </c>
+      <c r="O91" s="2"/>
       <c r="P91" t="s" s="2">
         <v>82</v>
       </c>
@@ -13367,13 +13393,13 @@
         <v>82</v>
       </c>
       <c r="X91" t="s" s="2">
-        <v>151</v>
+        <v>82</v>
       </c>
       <c r="Y91" t="s" s="2">
-        <v>499</v>
+        <v>82</v>
       </c>
       <c r="Z91" t="s" s="2">
-        <v>500</v>
+        <v>82</v>
       </c>
       <c r="AA91" t="s" s="2">
         <v>82</v>
@@ -13391,7 +13417,7 @@
         <v>82</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>648</v>
+        <v>622</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>80</v>
@@ -13409,27 +13435,27 @@
         <v>82</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>501</v>
+        <v>82</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>502</v>
+        <v>620</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>503</v>
+        <v>627</v>
       </c>
       <c r="AO91" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP91" t="s" s="2">
-        <v>504</v>
+        <v>82</v>
       </c>
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>649</v>
+        <v>628</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>649</v>
+        <v>628</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13440,31 +13466,31 @@
         <v>80</v>
       </c>
       <c r="G92" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H92" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="I92" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>82</v>
+        <v>562</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>650</v>
+        <v>629</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>651</v>
+        <v>629</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>554</v>
+        <v>630</v>
       </c>
       <c r="O92" t="s" s="2">
-        <v>555</v>
+        <v>631</v>
       </c>
       <c r="P92" t="s" s="2">
         <v>82</v>
@@ -13513,7 +13539,7 @@
         <v>82</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>649</v>
+        <v>628</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>80</v>
@@ -13525,29 +13551,999 @@
         <v>82</v>
       </c>
       <c r="AJ92" t="s" s="2">
+        <v>632</v>
+      </c>
+      <c r="AK92" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL92" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM92" t="s" s="2">
+        <v>633</v>
+      </c>
+      <c r="AN92" t="s" s="2">
+        <v>634</v>
+      </c>
+      <c r="AO92" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP92" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="93" hidden="true">
+      <c r="A93" t="s" s="2">
+        <v>635</v>
+      </c>
+      <c r="B93" t="s" s="2">
+        <v>635</v>
+      </c>
+      <c r="C93" s="2"/>
+      <c r="D93" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E93" s="2"/>
+      <c r="F93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G93" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="H93" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I93" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J93" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K93" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="L93" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="M93" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="N93" s="2"/>
+      <c r="O93" s="2"/>
+      <c r="P93" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q93" s="2"/>
+      <c r="R93" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S93" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T93" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U93" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V93" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W93" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X93" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y93" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z93" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA93" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB93" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC93" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD93" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE93" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF93" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AG93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH93" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI93" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ93" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK93" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL93" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM93" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN93" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AO93" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP93" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="94" hidden="true">
+      <c r="A94" t="s" s="2">
+        <v>636</v>
+      </c>
+      <c r="B94" t="s" s="2">
+        <v>636</v>
+      </c>
+      <c r="C94" s="2"/>
+      <c r="D94" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="E94" s="2"/>
+      <c r="F94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G94" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H94" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I94" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J94" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K94" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="L94" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="M94" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="N94" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="O94" s="2"/>
+      <c r="P94" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q94" s="2"/>
+      <c r="R94" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S94" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T94" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U94" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V94" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W94" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X94" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y94" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z94" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA94" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB94" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC94" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD94" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE94" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF94" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="AG94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH94" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI94" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ94" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="AK94" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL94" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM94" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN94" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AO94" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP94" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="95" hidden="true">
+      <c r="A95" t="s" s="2">
+        <v>637</v>
+      </c>
+      <c r="B95" t="s" s="2">
+        <v>637</v>
+      </c>
+      <c r="C95" s="2"/>
+      <c r="D95" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="E95" s="2"/>
+      <c r="F95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G95" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H95" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I95" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="J95" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="K95" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="L95" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="M95" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="N95" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="O95" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="P95" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q95" s="2"/>
+      <c r="R95" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S95" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T95" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U95" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V95" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W95" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X95" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y95" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z95" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA95" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB95" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC95" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD95" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE95" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF95" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="AG95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH95" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI95" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ95" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="AK95" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL95" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM95" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN95" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="AO95" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP95" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="96" hidden="true">
+      <c r="A96" t="s" s="2">
+        <v>638</v>
+      </c>
+      <c r="B96" t="s" s="2">
+        <v>638</v>
+      </c>
+      <c r="C96" s="2"/>
+      <c r="D96" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E96" s="2"/>
+      <c r="F96" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="G96" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="H96" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="I96" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J96" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="K96" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="L96" t="s" s="2">
+        <v>639</v>
+      </c>
+      <c r="M96" t="s" s="2">
+        <v>640</v>
+      </c>
+      <c r="N96" t="s" s="2">
+        <v>641</v>
+      </c>
+      <c r="O96" t="s" s="2">
+        <v>642</v>
+      </c>
+      <c r="P96" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q96" s="2"/>
+      <c r="R96" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S96" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T96" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U96" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V96" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W96" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X96" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="Y96" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="Z96" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="AA96" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB96" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC96" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD96" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE96" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF96" t="s" s="2">
+        <v>638</v>
+      </c>
+      <c r="AG96" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AH96" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI96" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ96" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AK92" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL92" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM92" t="s" s="2">
-        <v>557</v>
-      </c>
-      <c r="AN92" t="s" s="2">
-        <v>558</v>
-      </c>
-      <c r="AO92" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP92" t="s" s="2">
+      <c r="AK96" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL96" t="s" s="2">
+        <v>643</v>
+      </c>
+      <c r="AM96" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="AN96" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="AO96" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="AP96" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="97" hidden="true">
+      <c r="A97" t="s" s="2">
+        <v>644</v>
+      </c>
+      <c r="B97" t="s" s="2">
+        <v>644</v>
+      </c>
+      <c r="C97" s="2"/>
+      <c r="D97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E97" s="2"/>
+      <c r="F97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G97" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="H97" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="I97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J97" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="K97" t="s" s="2">
+        <v>645</v>
+      </c>
+      <c r="L97" t="s" s="2">
+        <v>646</v>
+      </c>
+      <c r="M97" t="s" s="2">
+        <v>647</v>
+      </c>
+      <c r="N97" t="s" s="2">
+        <v>648</v>
+      </c>
+      <c r="O97" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="P97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q97" s="2"/>
+      <c r="R97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X97" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="Y97" t="s" s="2">
+        <v>649</v>
+      </c>
+      <c r="Z97" t="s" s="2">
+        <v>650</v>
+      </c>
+      <c r="AA97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF97" t="s" s="2">
+        <v>644</v>
+      </c>
+      <c r="AG97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH97" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI97" t="s" s="2">
+        <v>651</v>
+      </c>
+      <c r="AJ97" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL97" t="s" s="2">
+        <v>652</v>
+      </c>
+      <c r="AM97" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="AN97" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="AO97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP97" t="s" s="2">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="98" hidden="true">
+      <c r="A98" t="s" s="2">
+        <v>653</v>
+      </c>
+      <c r="B98" t="s" s="2">
+        <v>653</v>
+      </c>
+      <c r="C98" s="2"/>
+      <c r="D98" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E98" s="2"/>
+      <c r="F98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G98" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="H98" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="I98" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J98" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K98" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="L98" t="s" s="2">
+        <v>654</v>
+      </c>
+      <c r="M98" t="s" s="2">
+        <v>655</v>
+      </c>
+      <c r="N98" t="s" s="2">
+        <v>656</v>
+      </c>
+      <c r="O98" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="P98" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q98" s="2"/>
+      <c r="R98" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S98" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T98" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U98" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V98" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W98" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X98" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="Y98" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="Z98" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="AA98" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB98" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC98" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD98" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE98" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF98" t="s" s="2">
+        <v>653</v>
+      </c>
+      <c r="AG98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH98" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI98" t="s" s="2">
+        <v>657</v>
+      </c>
+      <c r="AJ98" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK98" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL98" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM98" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="AN98" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="AO98" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP98" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="99" hidden="true">
+      <c r="A99" t="s" s="2">
+        <v>658</v>
+      </c>
+      <c r="B99" t="s" s="2">
+        <v>658</v>
+      </c>
+      <c r="C99" s="2"/>
+      <c r="D99" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="E99" s="2"/>
+      <c r="F99" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G99" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H99" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I99" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J99" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K99" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="L99" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="M99" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="N99" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="O99" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="P99" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q99" s="2"/>
+      <c r="R99" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S99" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T99" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U99" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V99" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W99" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X99" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="Y99" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="Z99" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="AA99" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB99" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC99" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD99" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE99" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF99" t="s" s="2">
+        <v>658</v>
+      </c>
+      <c r="AG99" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH99" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI99" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ99" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK99" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL99" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="AM99" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="AN99" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="AO99" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP99" t="s" s="2">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="100" hidden="true">
+      <c r="A100" t="s" s="2">
+        <v>659</v>
+      </c>
+      <c r="B100" t="s" s="2">
+        <v>659</v>
+      </c>
+      <c r="C100" s="2"/>
+      <c r="D100" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E100" s="2"/>
+      <c r="F100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G100" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H100" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I100" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J100" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K100" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="L100" t="s" s="2">
+        <v>660</v>
+      </c>
+      <c r="M100" t="s" s="2">
+        <v>661</v>
+      </c>
+      <c r="N100" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="O100" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="P100" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q100" s="2"/>
+      <c r="R100" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S100" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T100" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U100" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V100" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W100" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X100" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y100" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z100" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA100" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB100" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC100" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD100" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE100" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF100" t="s" s="2">
+        <v>659</v>
+      </c>
+      <c r="AG100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH100" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI100" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ100" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK100" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL100" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM100" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="AN100" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="AO100" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP100" t="s" s="2">
         <v>82</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AP92">
+  <autoFilter ref="A1:AP100">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -13557,7 +14553,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI91">
+  <conditionalFormatting sqref="A2:AI99">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
